--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/0/Output_4_34.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/0/Output_4_34.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2138309.637065115</v>
+        <v>2177042.197878844</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10554951.4333327</v>
+        <v>10791456.43481704</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7643167.879686194</v>
+        <v>7667915.026985904</v>
       </c>
     </row>
     <row r="11">
@@ -23255,76 +23257,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>353.0275586233781</v>
+        <v>234.933685007748</v>
       </c>
       <c r="C11" t="n">
-        <v>317.3257192303894</v>
+        <v>322.4677940726305</v>
       </c>
       <c r="D11" t="n">
-        <v>301.4986884305564</v>
+        <v>183.4048148149262</v>
       </c>
       <c r="E11" t="n">
-        <v>347.0966531543796</v>
+        <v>229.0027795387495</v>
       </c>
       <c r="F11" t="n">
-        <v>396.4306022709785</v>
+        <v>273.8792765832289</v>
       </c>
       <c r="G11" t="n">
-        <v>419.270681113551</v>
+        <v>301.1768074979208</v>
       </c>
       <c r="H11" t="n">
-        <v>346.2083121969059</v>
+        <v>228.1144385812757</v>
       </c>
       <c r="I11" t="n">
-        <v>256.0762226922993</v>
+        <v>137.9823490766691</v>
       </c>
       <c r="J11" t="n">
-        <v>111.7321230962989</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>91.88120483615114</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>53.41568553442607</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>2.310504944173829</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>21.88868639101628</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>70.16984328266415</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>130.485466722309</v>
+        <v>12.39159310667887</v>
       </c>
       <c r="R11" t="n">
-        <v>213.9434165608947</v>
+        <v>95.84954294526449</v>
       </c>
       <c r="S11" t="n">
-        <v>235.1463743695392</v>
+        <v>117.0525007539091</v>
       </c>
       <c r="T11" t="n">
-        <v>212.076241707792</v>
+        <v>93.98236809216189</v>
       </c>
       <c r="U11" t="n">
-        <v>242.7336686005417</v>
+        <v>124.6397949849116</v>
       </c>
       <c r="V11" t="n">
-        <v>303.0861073182833</v>
+        <v>184.9922337026532</v>
       </c>
       <c r="W11" t="n">
-        <v>314.8549025246645</v>
+        <v>193.7763131810017</v>
       </c>
       <c r="X11" t="n">
-        <v>341.4686393609607</v>
+        <v>218.2326909030895</v>
       </c>
       <c r="Y11" t="n">
-        <v>369.8675364342565</v>
+        <v>251.7736628186264</v>
       </c>
     </row>
     <row r="12">
@@ -23334,34 +23336,34 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>190.41755979569</v>
+        <v>72.32368618005982</v>
       </c>
       <c r="C12" t="n">
-        <v>209.6393006689445</v>
+        <v>91.54542705331438</v>
       </c>
       <c r="D12" t="n">
-        <v>175.6190404722267</v>
+        <v>57.52516685659661</v>
       </c>
       <c r="E12" t="n">
-        <v>192.7941743188381</v>
+        <v>74.70030070320799</v>
       </c>
       <c r="F12" t="n">
-        <v>179.0016452970077</v>
+        <v>60.90777168137761</v>
       </c>
       <c r="G12" t="n">
-        <v>164.0912506010877</v>
+        <v>45.99737698545755</v>
       </c>
       <c r="H12" t="n">
-        <v>140.6203582430583</v>
+        <v>22.52648462742815</v>
       </c>
       <c r="I12" t="n">
-        <v>118.0938736156301</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>95.35527688771688</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>38.33947172369648</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -23379,31 +23381,31 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>79.63373533389839</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>162.1813889131653</v>
+        <v>44.08751529753512</v>
       </c>
       <c r="S12" t="n">
-        <v>213.8161616121757</v>
+        <v>95.72228799654555</v>
       </c>
       <c r="T12" t="n">
-        <v>235.071790382682</v>
+        <v>116.9779167670519</v>
       </c>
       <c r="U12" t="n">
-        <v>252.8308887887254</v>
+        <v>134.7370151730953</v>
       </c>
       <c r="V12" t="n">
-        <v>249.9549150514371</v>
+        <v>131.861041435807</v>
       </c>
       <c r="W12" t="n">
-        <v>289.1938185916671</v>
+        <v>171.099944976037</v>
       </c>
       <c r="X12" t="n">
-        <v>233.4148002362168</v>
+        <v>115.3209266205867</v>
       </c>
       <c r="Y12" t="n">
-        <v>250.8292299030214</v>
+        <v>132.7353562873913</v>
       </c>
     </row>
     <row r="13">
@@ -23413,76 +23415,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>168.3971226210338</v>
+        <v>50.30324900540363</v>
       </c>
       <c r="C13" t="n">
-        <v>159.8614504420246</v>
+        <v>41.76757682639449</v>
       </c>
       <c r="D13" t="n">
-        <v>133.7210607682962</v>
+        <v>15.62718715266608</v>
       </c>
       <c r="E13" t="n">
-        <v>127.7753496385776</v>
+        <v>9.681476022947422</v>
       </c>
       <c r="F13" t="n">
-        <v>121.8296385088589</v>
+        <v>3.73576489322879</v>
       </c>
       <c r="G13" t="n">
-        <v>164.4464841953701</v>
+        <v>46.35261057974002</v>
       </c>
       <c r="H13" t="n">
-        <v>163.5802187922345</v>
+        <v>45.48634517660436</v>
       </c>
       <c r="I13" t="n">
-        <v>164.4230138225934</v>
+        <v>46.3291402069633</v>
       </c>
       <c r="J13" t="n">
-        <v>134.9667862029854</v>
+        <v>16.87291258735527</v>
       </c>
       <c r="K13" t="n">
-        <v>95.62107369868059</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>74.71226449362183</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>73.70493776666896</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>58.93267790001656</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>87.38352151967072</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>105.3181461194405</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>162.5774213166513</v>
+        <v>44.48354770102112</v>
       </c>
       <c r="R13" t="n">
-        <v>227.5683421970937</v>
+        <v>109.4744685814635</v>
       </c>
       <c r="S13" t="n">
-        <v>244.0217906855445</v>
+        <v>125.9279170699144</v>
       </c>
       <c r="T13" t="n">
-        <v>209.1272815606662</v>
+        <v>91.03340794503609</v>
       </c>
       <c r="U13" t="n">
-        <v>287.7948096846638</v>
+        <v>169.7009360690336</v>
       </c>
       <c r="V13" t="n">
-        <v>227.0278749038083</v>
+        <v>108.9340012881782</v>
       </c>
       <c r="W13" t="n">
-        <v>292.1414597237373</v>
+        <v>174.0475861081071</v>
       </c>
       <c r="X13" t="n">
-        <v>209.7999669649933</v>
+        <v>91.70609334936314</v>
       </c>
       <c r="Y13" t="n">
-        <v>209.3420656180175</v>
+        <v>91.24819200238734</v>
       </c>
     </row>
     <row r="14">
@@ -23492,28 +23494,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>213.4981318212547</v>
+        <v>220.2477037814241</v>
       </c>
       <c r="C14" t="n">
-        <v>177.796292428266</v>
+        <v>184.5458643884354</v>
       </c>
       <c r="D14" t="n">
-        <v>161.9692616284329</v>
+        <v>168.7188335886024</v>
       </c>
       <c r="E14" t="n">
-        <v>207.5672263522561</v>
+        <v>214.3167983124256</v>
       </c>
       <c r="F14" t="n">
-        <v>251.759100626614</v>
+        <v>258.5086725867834</v>
       </c>
       <c r="G14" t="n">
-        <v>279.7412543114276</v>
+        <v>286.490826271597</v>
       </c>
       <c r="H14" t="n">
-        <v>206.6788853947824</v>
+        <v>213.4284573549518</v>
       </c>
       <c r="I14" t="n">
-        <v>116.5467958901758</v>
+        <v>123.2963678503452</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23540,28 +23542,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>74.41398975877118</v>
+        <v>81.16356171894063</v>
       </c>
       <c r="S14" t="n">
-        <v>95.61694756741575</v>
+        <v>102.3665195275852</v>
       </c>
       <c r="T14" t="n">
-        <v>72.54681490566857</v>
+        <v>79.29638686583802</v>
       </c>
       <c r="U14" t="n">
-        <v>103.2042417984183</v>
+        <v>109.9538137585877</v>
       </c>
       <c r="V14" t="n">
-        <v>163.5566805161599</v>
+        <v>170.3062524763293</v>
       </c>
       <c r="W14" t="n">
-        <v>172.3407599945084</v>
+        <v>179.0903319546779</v>
       </c>
       <c r="X14" t="n">
-        <v>196.7971377165962</v>
+        <v>203.5467096767657</v>
       </c>
       <c r="Y14" t="n">
-        <v>230.3381096321331</v>
+        <v>237.0876815923025</v>
       </c>
     </row>
     <row r="15">
@@ -23571,25 +23573,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>50.8881329935665</v>
+        <v>57.63770495373595</v>
       </c>
       <c r="C15" t="n">
-        <v>70.10987386682106</v>
+        <v>76.85944582699051</v>
       </c>
       <c r="D15" t="n">
-        <v>36.08961367010329</v>
+        <v>42.83918563027274</v>
       </c>
       <c r="E15" t="n">
-        <v>53.26474751671466</v>
+        <v>60.01431947688411</v>
       </c>
       <c r="F15" t="n">
-        <v>39.47221849488429</v>
+        <v>46.22179045505374</v>
       </c>
       <c r="G15" t="n">
-        <v>24.56182379896423</v>
+        <v>31.31139575913367</v>
       </c>
       <c r="H15" t="n">
-        <v>1.090931440934828</v>
+        <v>7.840503401104275</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -23619,28 +23621,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>22.6519621110418</v>
+        <v>29.40153407121124</v>
       </c>
       <c r="S15" t="n">
-        <v>74.28673481005222</v>
+        <v>81.03630677022167</v>
       </c>
       <c r="T15" t="n">
-        <v>95.54236358055856</v>
+        <v>102.291935540728</v>
       </c>
       <c r="U15" t="n">
-        <v>113.301461986602</v>
+        <v>120.0510339467714</v>
       </c>
       <c r="V15" t="n">
-        <v>110.4254882493136</v>
+        <v>117.1750602094831</v>
       </c>
       <c r="W15" t="n">
-        <v>149.6643917895437</v>
+        <v>243.4065587990875</v>
       </c>
       <c r="X15" t="n">
-        <v>93.8853734340934</v>
+        <v>100.6349453942628</v>
       </c>
       <c r="Y15" t="n">
-        <v>111.2998031008979</v>
+        <v>118.0493750610674</v>
       </c>
     </row>
     <row r="16">
@@ -23650,13 +23652,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>28.86769581891031</v>
+        <v>35.61726777907975</v>
       </c>
       <c r="C16" t="n">
-        <v>20.33202363990117</v>
+        <v>27.08159560007061</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>0.9412059263422066</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23665,16 +23667,16 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>24.9170573932467</v>
+        <v>31.66662935341615</v>
       </c>
       <c r="H16" t="n">
-        <v>24.05079199011104</v>
+        <v>30.80036395028048</v>
       </c>
       <c r="I16" t="n">
-        <v>24.89358702046998</v>
+        <v>31.64315898063943</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>2.186931361031398</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23695,31 +23697,31 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>23.0479945145278</v>
+        <v>29.79756647469725</v>
       </c>
       <c r="R16" t="n">
-        <v>88.03891539497018</v>
+        <v>94.78848735513962</v>
       </c>
       <c r="S16" t="n">
-        <v>104.4923638834211</v>
+        <v>111.2419358435905</v>
       </c>
       <c r="T16" t="n">
-        <v>69.59785475854277</v>
+        <v>76.34742671871221</v>
       </c>
       <c r="U16" t="n">
-        <v>148.2653828825403</v>
+        <v>155.0149548427098</v>
       </c>
       <c r="V16" t="n">
-        <v>87.49844810168486</v>
+        <v>94.24802006185431</v>
       </c>
       <c r="W16" t="n">
-        <v>152.6120329216138</v>
+        <v>159.3616048817833</v>
       </c>
       <c r="X16" t="n">
-        <v>70.27054016286982</v>
+        <v>77.02011212303927</v>
       </c>
       <c r="Y16" t="n">
-        <v>69.81263881589402</v>
+        <v>76.56221077606347</v>
       </c>
     </row>
     <row r="17">
@@ -23729,28 +23731,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>213.4981318212547</v>
+        <v>220.2477037814241</v>
       </c>
       <c r="C17" t="n">
-        <v>177.796292428266</v>
+        <v>184.5458643884354</v>
       </c>
       <c r="D17" t="n">
-        <v>161.9692616284329</v>
+        <v>168.7188335886024</v>
       </c>
       <c r="E17" t="n">
-        <v>207.5672263522561</v>
+        <v>214.3167983124256</v>
       </c>
       <c r="F17" t="n">
-        <v>251.759100626614</v>
+        <v>258.5086725867834</v>
       </c>
       <c r="G17" t="n">
-        <v>279.7412543114276</v>
+        <v>286.490826271597</v>
       </c>
       <c r="H17" t="n">
-        <v>206.6788853947824</v>
+        <v>213.4284573549518</v>
       </c>
       <c r="I17" t="n">
-        <v>116.5467958901758</v>
+        <v>123.2963678503452</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23777,28 +23779,28 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>74.41398975877118</v>
+        <v>81.16356171894063</v>
       </c>
       <c r="S17" t="n">
-        <v>95.61694756741575</v>
+        <v>102.3665195275852</v>
       </c>
       <c r="T17" t="n">
-        <v>72.54681490566857</v>
+        <v>79.29638686583802</v>
       </c>
       <c r="U17" t="n">
-        <v>103.2042417984183</v>
+        <v>109.9538137585877</v>
       </c>
       <c r="V17" t="n">
-        <v>163.5566805161599</v>
+        <v>170.3062524763293</v>
       </c>
       <c r="W17" t="n">
-        <v>172.3407599945084</v>
+        <v>179.0903319546779</v>
       </c>
       <c r="X17" t="n">
-        <v>196.7971377165962</v>
+        <v>203.5467096767657</v>
       </c>
       <c r="Y17" t="n">
-        <v>230.3381096321331</v>
+        <v>237.0876815923025</v>
       </c>
     </row>
     <row r="18">
@@ -23808,25 +23810,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>50.8881329935665</v>
+        <v>57.63770495373595</v>
       </c>
       <c r="C18" t="n">
-        <v>70.10987386682106</v>
+        <v>76.85944582699051</v>
       </c>
       <c r="D18" t="n">
-        <v>36.08961367010329</v>
+        <v>42.83918563027274</v>
       </c>
       <c r="E18" t="n">
-        <v>53.26474751671466</v>
+        <v>60.01431947688411</v>
       </c>
       <c r="F18" t="n">
-        <v>39.47221849488429</v>
+        <v>46.22179045505374</v>
       </c>
       <c r="G18" t="n">
-        <v>24.56182379896423</v>
+        <v>31.31139575913367</v>
       </c>
       <c r="H18" t="n">
-        <v>1.090931440934828</v>
+        <v>7.840503401104275</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -23856,28 +23858,28 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>22.6519621110418</v>
+        <v>29.40153407121124</v>
       </c>
       <c r="S18" t="n">
-        <v>74.28673481005222</v>
+        <v>81.03630677022167</v>
       </c>
       <c r="T18" t="n">
-        <v>95.54236358055856</v>
+        <v>102.291935540728</v>
       </c>
       <c r="U18" t="n">
-        <v>113.301461986602</v>
+        <v>120.0510339467714</v>
       </c>
       <c r="V18" t="n">
-        <v>110.4254882493136</v>
+        <v>117.1750602094831</v>
       </c>
       <c r="W18" t="n">
-        <v>149.6643917895437</v>
+        <v>156.4139637497131</v>
       </c>
       <c r="X18" t="n">
-        <v>93.8853734340934</v>
+        <v>187.6275404436373</v>
       </c>
       <c r="Y18" t="n">
-        <v>111.2998031008979</v>
+        <v>118.0493750610674</v>
       </c>
     </row>
     <row r="19">
@@ -23887,13 +23889,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>28.86769581891031</v>
+        <v>35.61726777907975</v>
       </c>
       <c r="C19" t="n">
-        <v>20.33202363990117</v>
+        <v>27.08159560007061</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>0.9412059263422066</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -23902,16 +23904,16 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>24.9170573932467</v>
+        <v>31.66662935341615</v>
       </c>
       <c r="H19" t="n">
-        <v>24.05079199011104</v>
+        <v>30.80036395028048</v>
       </c>
       <c r="I19" t="n">
-        <v>24.89358702046998</v>
+        <v>31.64315898063943</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>2.186931361031398</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23932,31 +23934,31 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>23.0479945145278</v>
+        <v>29.79756647469725</v>
       </c>
       <c r="R19" t="n">
-        <v>88.03891539497018</v>
+        <v>94.78848735513962</v>
       </c>
       <c r="S19" t="n">
-        <v>104.4923638834211</v>
+        <v>111.2419358435905</v>
       </c>
       <c r="T19" t="n">
-        <v>69.59785475854277</v>
+        <v>76.34742671871221</v>
       </c>
       <c r="U19" t="n">
-        <v>148.2653828825403</v>
+        <v>155.0149548427098</v>
       </c>
       <c r="V19" t="n">
-        <v>87.49844810168486</v>
+        <v>94.24802006185431</v>
       </c>
       <c r="W19" t="n">
-        <v>152.6120329216138</v>
+        <v>159.3616048817833</v>
       </c>
       <c r="X19" t="n">
-        <v>70.27054016286982</v>
+        <v>77.02011212303927</v>
       </c>
       <c r="Y19" t="n">
-        <v>69.81263881589402</v>
+        <v>76.56221077606347</v>
       </c>
     </row>
     <row r="20">
@@ -23966,28 +23968,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>213.4981318212546</v>
+        <v>220.2477037814241</v>
       </c>
       <c r="C20" t="n">
-        <v>177.7962924282659</v>
+        <v>184.5458643884354</v>
       </c>
       <c r="D20" t="n">
-        <v>161.9692616284328</v>
+        <v>168.7188335886024</v>
       </c>
       <c r="E20" t="n">
-        <v>207.5672263522561</v>
+        <v>214.3167983124256</v>
       </c>
       <c r="F20" t="n">
-        <v>251.7591006266139</v>
+        <v>258.5086725867834</v>
       </c>
       <c r="G20" t="n">
-        <v>279.7412543114274</v>
+        <v>286.490826271597</v>
       </c>
       <c r="H20" t="n">
-        <v>206.6788853947823</v>
+        <v>213.4284573549518</v>
       </c>
       <c r="I20" t="n">
-        <v>116.5467958901757</v>
+        <v>123.2963678503452</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -23999,7 +24001,7 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>7.452579786414901</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -24014,28 +24016,28 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>74.41398975877109</v>
+        <v>81.16356171894063</v>
       </c>
       <c r="S20" t="n">
-        <v>95.61694756741565</v>
+        <v>102.3665195275852</v>
       </c>
       <c r="T20" t="n">
-        <v>72.54681490566847</v>
+        <v>79.29638686583802</v>
       </c>
       <c r="U20" t="n">
-        <v>103.2042417984182</v>
+        <v>109.9538137585877</v>
       </c>
       <c r="V20" t="n">
-        <v>163.5566805161598</v>
+        <v>170.3062524763293</v>
       </c>
       <c r="W20" t="n">
-        <v>172.3407599945083</v>
+        <v>179.0903319546779</v>
       </c>
       <c r="X20" t="n">
-        <v>196.7971377165961</v>
+        <v>203.5467096767657</v>
       </c>
       <c r="Y20" t="n">
-        <v>230.338109632133</v>
+        <v>237.0876815923025</v>
       </c>
     </row>
     <row r="21">
@@ -24045,25 +24047,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>50.88813299356642</v>
+        <v>57.63770495373595</v>
       </c>
       <c r="C21" t="n">
-        <v>70.10987386682098</v>
+        <v>76.85944582699051</v>
       </c>
       <c r="D21" t="n">
-        <v>36.0896136701032</v>
+        <v>42.83918563027274</v>
       </c>
       <c r="E21" t="n">
-        <v>53.26474751671458</v>
+        <v>60.01431947688411</v>
       </c>
       <c r="F21" t="n">
-        <v>39.4722184948842</v>
+        <v>46.22179045505374</v>
       </c>
       <c r="G21" t="n">
-        <v>24.56182379896413</v>
+        <v>31.31139575913367</v>
       </c>
       <c r="H21" t="n">
-        <v>1.090931440934753</v>
+        <v>7.840503401104275</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -24093,28 +24095,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>22.65196211104171</v>
+        <v>29.40153407121124</v>
       </c>
       <c r="S21" t="n">
-        <v>74.28673481005214</v>
+        <v>81.03630677022167</v>
       </c>
       <c r="T21" t="n">
-        <v>95.54236358055849</v>
+        <v>102.291935540728</v>
       </c>
       <c r="U21" t="n">
-        <v>113.3014619866019</v>
+        <v>120.0510339467714</v>
       </c>
       <c r="V21" t="n">
-        <v>110.4254882493135</v>
+        <v>117.1750602094831</v>
       </c>
       <c r="W21" t="n">
-        <v>149.6643917895436</v>
+        <v>156.4139637497131</v>
       </c>
       <c r="X21" t="n">
-        <v>93.88537343409331</v>
+        <v>100.6349453942628</v>
       </c>
       <c r="Y21" t="n">
-        <v>111.2998031008979</v>
+        <v>191.050806171795</v>
       </c>
     </row>
     <row r="22">
@@ -24124,13 +24126,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>28.86769581891022</v>
+        <v>35.61726777907975</v>
       </c>
       <c r="C22" t="n">
-        <v>20.33202363990108</v>
+        <v>27.08159560007061</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>0.9412059263422066</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24139,16 +24141,16 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>24.91705739324661</v>
+        <v>31.66662935341615</v>
       </c>
       <c r="H22" t="n">
-        <v>24.05079199011379</v>
+        <v>30.80036395028048</v>
       </c>
       <c r="I22" t="n">
-        <v>24.89358702046991</v>
+        <v>31.64315898063943</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>2.186931361031398</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24169,31 +24171,31 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>23.04799451452772</v>
+        <v>29.79756647469725</v>
       </c>
       <c r="R22" t="n">
-        <v>88.0389153949701</v>
+        <v>94.78848735513962</v>
       </c>
       <c r="S22" t="n">
-        <v>104.492363883421</v>
+        <v>111.2419358435905</v>
       </c>
       <c r="T22" t="n">
-        <v>69.59785475854267</v>
+        <v>76.34742671871221</v>
       </c>
       <c r="U22" t="n">
-        <v>148.2653828825402</v>
+        <v>155.0149548427098</v>
       </c>
       <c r="V22" t="n">
-        <v>87.49844810168477</v>
+        <v>94.24802006185431</v>
       </c>
       <c r="W22" t="n">
-        <v>152.6120329216137</v>
+        <v>159.3616048817833</v>
       </c>
       <c r="X22" t="n">
-        <v>70.27054016286974</v>
+        <v>77.02011212303927</v>
       </c>
       <c r="Y22" t="n">
-        <v>69.81263881589393</v>
+        <v>76.56221077606347</v>
       </c>
     </row>
     <row r="23">
@@ -24203,28 +24205,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>213.4981318212546</v>
+        <v>213.4981318212547</v>
       </c>
       <c r="C23" t="n">
-        <v>177.7962924282659</v>
+        <v>177.796292428266</v>
       </c>
       <c r="D23" t="n">
-        <v>161.9692616284328</v>
+        <v>161.9692616284329</v>
       </c>
       <c r="E23" t="n">
         <v>207.5672263522561</v>
       </c>
       <c r="F23" t="n">
-        <v>251.7591006266139</v>
+        <v>251.759100626614</v>
       </c>
       <c r="G23" t="n">
-        <v>279.7412543114274</v>
+        <v>279.7412543114276</v>
       </c>
       <c r="H23" t="n">
-        <v>206.6788853947823</v>
+        <v>206.6788853947824</v>
       </c>
       <c r="I23" t="n">
-        <v>116.5467958901757</v>
+        <v>116.5467958901758</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24251,28 +24253,28 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>74.41398975877109</v>
+        <v>74.41398975877118</v>
       </c>
       <c r="S23" t="n">
-        <v>95.61694756741566</v>
+        <v>95.61694756741575</v>
       </c>
       <c r="T23" t="n">
-        <v>72.54681490566848</v>
+        <v>72.54681490566857</v>
       </c>
       <c r="U23" t="n">
-        <v>103.2042417984182</v>
+        <v>103.2042417984183</v>
       </c>
       <c r="V23" t="n">
-        <v>163.5566805161598</v>
+        <v>163.5566805161599</v>
       </c>
       <c r="W23" t="n">
-        <v>172.3407599945083</v>
+        <v>172.3407599945084</v>
       </c>
       <c r="X23" t="n">
-        <v>196.7971377165961</v>
+        <v>196.7971377165962</v>
       </c>
       <c r="Y23" t="n">
-        <v>230.338109632133</v>
+        <v>230.3381096321331</v>
       </c>
     </row>
     <row r="24">
@@ -24282,25 +24284,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>50.88813299356642</v>
+        <v>50.8881329935665</v>
       </c>
       <c r="C24" t="n">
-        <v>70.10987386682098</v>
+        <v>70.10987386682106</v>
       </c>
       <c r="D24" t="n">
-        <v>36.0896136701032</v>
+        <v>36.08961367010329</v>
       </c>
       <c r="E24" t="n">
-        <v>53.26474751671458</v>
+        <v>53.26474751671466</v>
       </c>
       <c r="F24" t="n">
-        <v>39.4722184948842</v>
+        <v>39.47221849488429</v>
       </c>
       <c r="G24" t="n">
-        <v>24.56182379896414</v>
+        <v>24.56182379896423</v>
       </c>
       <c r="H24" t="n">
-        <v>1.090931440934742</v>
+        <v>1.090931440934828</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -24330,25 +24332,25 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>22.65196211104171</v>
+        <v>22.6519621110418</v>
       </c>
       <c r="S24" t="n">
-        <v>74.28673481005214</v>
+        <v>74.28673481005222</v>
       </c>
       <c r="T24" t="n">
-        <v>95.54236358055847</v>
+        <v>95.54236358055856</v>
       </c>
       <c r="U24" t="n">
-        <v>113.3014619866019</v>
+        <v>113.301461986602</v>
       </c>
       <c r="V24" t="n">
-        <v>110.4254882493135</v>
+        <v>110.4254882493136</v>
       </c>
       <c r="W24" t="n">
-        <v>149.6643917895436</v>
+        <v>149.6643917895437</v>
       </c>
       <c r="X24" t="n">
-        <v>93.88537343409331</v>
+        <v>93.8853734340934</v>
       </c>
       <c r="Y24" t="n">
         <v>111.2998031008979</v>
@@ -24361,10 +24363,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>28.86769581891022</v>
+        <v>28.86769581891031</v>
       </c>
       <c r="C25" t="n">
-        <v>20.33202363990108</v>
+        <v>20.33202363990117</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -24376,13 +24378,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>24.91705739324662</v>
+        <v>24.9170573932467</v>
       </c>
       <c r="H25" t="n">
-        <v>24.05079199011095</v>
+        <v>24.05079199011104</v>
       </c>
       <c r="I25" t="n">
-        <v>24.89358702046989</v>
+        <v>24.89358702046998</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24406,31 +24408,31 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>23.04799451452772</v>
+        <v>23.0479945145278</v>
       </c>
       <c r="R25" t="n">
-        <v>88.03891539497009</v>
+        <v>88.03891539497018</v>
       </c>
       <c r="S25" t="n">
-        <v>104.492363883421</v>
+        <v>104.4923638834211</v>
       </c>
       <c r="T25" t="n">
-        <v>69.59785475854268</v>
+        <v>69.59785475854277</v>
       </c>
       <c r="U25" t="n">
         <v>148.2653828825403</v>
       </c>
       <c r="V25" t="n">
-        <v>87.49844810168477</v>
+        <v>87.49844810168486</v>
       </c>
       <c r="W25" t="n">
-        <v>152.6120329216137</v>
+        <v>152.6120329216138</v>
       </c>
       <c r="X25" t="n">
-        <v>70.27054016286974</v>
+        <v>70.27054016286982</v>
       </c>
       <c r="Y25" t="n">
-        <v>69.81263881589393</v>
+        <v>69.81263881589402</v>
       </c>
     </row>
     <row r="26">
@@ -24440,28 +24442,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>218.6402066634956</v>
+        <v>213.4981318212545</v>
       </c>
       <c r="C26" t="n">
-        <v>182.9383672705068</v>
+        <v>177.7962924282658</v>
       </c>
       <c r="D26" t="n">
-        <v>167.1113364706738</v>
+        <v>161.9692616284327</v>
       </c>
       <c r="E26" t="n">
-        <v>212.709301194497</v>
+        <v>207.567226352256</v>
       </c>
       <c r="F26" t="n">
-        <v>256.9011754688548</v>
+        <v>251.7591006266138</v>
       </c>
       <c r="G26" t="n">
-        <v>284.8833291536684</v>
+        <v>279.7412543114273</v>
       </c>
       <c r="H26" t="n">
-        <v>211.8209602370233</v>
+        <v>206.6788853947822</v>
       </c>
       <c r="I26" t="n">
-        <v>121.6888707324166</v>
+        <v>116.5467958901756</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24479,37 +24481,37 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>21.88868639101628</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>13.95697328484934</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>79.55606460101205</v>
+        <v>74.41398975877101</v>
       </c>
       <c r="S26" t="n">
-        <v>100.7590224096566</v>
+        <v>95.61694756741558</v>
       </c>
       <c r="T26" t="n">
-        <v>77.68888974790944</v>
+        <v>72.5468149056684</v>
       </c>
       <c r="U26" t="n">
-        <v>108.3463166406591</v>
+        <v>103.2042417984181</v>
       </c>
       <c r="V26" t="n">
-        <v>168.6987553584008</v>
+        <v>163.5566805161597</v>
       </c>
       <c r="W26" t="n">
-        <v>177.4828348367493</v>
+        <v>172.3407599945083</v>
       </c>
       <c r="X26" t="n">
-        <v>201.9392125588371</v>
+        <v>196.797137716596</v>
       </c>
       <c r="Y26" t="n">
-        <v>235.480184474374</v>
+        <v>230.3381096321329</v>
       </c>
     </row>
     <row r="27">
@@ -24519,25 +24521,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>56.03020783580737</v>
+        <v>50.88813299356633</v>
       </c>
       <c r="C27" t="n">
-        <v>75.25194870906194</v>
+        <v>70.10987386682089</v>
       </c>
       <c r="D27" t="n">
-        <v>41.23168851234416</v>
+        <v>36.08961367010312</v>
       </c>
       <c r="E27" t="n">
-        <v>58.40682235895554</v>
+        <v>53.26474751671449</v>
       </c>
       <c r="F27" t="n">
-        <v>44.61429333712516</v>
+        <v>39.47221849488412</v>
       </c>
       <c r="G27" t="n">
-        <v>29.7038986412051</v>
+        <v>24.56182379896406</v>
       </c>
       <c r="H27" t="n">
-        <v>6.233006283175701</v>
+        <v>1.090931440934657</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -24567,28 +24569,28 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>27.79403695328267</v>
+        <v>22.65196211104163</v>
       </c>
       <c r="S27" t="n">
-        <v>79.4288096522931</v>
+        <v>74.28673481005205</v>
       </c>
       <c r="T27" t="n">
-        <v>100.6844384227994</v>
+        <v>95.54236358055839</v>
       </c>
       <c r="U27" t="n">
-        <v>118.4435368288428</v>
+        <v>113.3014619866018</v>
       </c>
       <c r="V27" t="n">
-        <v>115.5675630915545</v>
+        <v>110.4254882493134</v>
       </c>
       <c r="W27" t="n">
-        <v>154.8064666317845</v>
+        <v>149.6643917895435</v>
       </c>
       <c r="X27" t="n">
-        <v>99.02744827633427</v>
+        <v>93.88537343409322</v>
       </c>
       <c r="Y27" t="n">
-        <v>116.4418779431388</v>
+        <v>111.2998031008978</v>
       </c>
     </row>
     <row r="28">
@@ -24598,10 +24600,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>34.00977066115118</v>
+        <v>28.86769581891014</v>
       </c>
       <c r="C28" t="n">
-        <v>25.47409848214204</v>
+        <v>20.332023639901</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24613,16 +24615,16 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>30.05913223548758</v>
+        <v>24.91705739324653</v>
       </c>
       <c r="H28" t="n">
-        <v>29.19286683235191</v>
+        <v>24.05079199011087</v>
       </c>
       <c r="I28" t="n">
-        <v>30.03566186271085</v>
+        <v>24.89358702046981</v>
       </c>
       <c r="J28" t="n">
-        <v>0.5794342431028241</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24643,31 +24645,31 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>28.19006935676867</v>
+        <v>23.04799451452763</v>
       </c>
       <c r="R28" t="n">
-        <v>93.18099023721105</v>
+        <v>88.03891539497</v>
       </c>
       <c r="S28" t="n">
-        <v>109.6344387256619</v>
+        <v>104.4923638834209</v>
       </c>
       <c r="T28" t="n">
-        <v>74.73992960078364</v>
+        <v>69.5978547585426</v>
       </c>
       <c r="U28" t="n">
-        <v>153.4074577247812</v>
+        <v>148.2653828825402</v>
       </c>
       <c r="V28" t="n">
-        <v>92.64052294392573</v>
+        <v>87.49844810168469</v>
       </c>
       <c r="W28" t="n">
-        <v>157.7541077638547</v>
+        <v>152.6120329216136</v>
       </c>
       <c r="X28" t="n">
-        <v>75.41261500511069</v>
+        <v>70.27054016286965</v>
       </c>
       <c r="Y28" t="n">
-        <v>74.95471365813489</v>
+        <v>69.81263881589385</v>
       </c>
     </row>
     <row r="29">
@@ -24686,7 +24688,7 @@
         <v>161.9692616284327</v>
       </c>
       <c r="E29" t="n">
-        <v>207.567226352256</v>
+        <v>207.5672263522559</v>
       </c>
       <c r="F29" t="n">
         <v>251.7591006266138</v>
@@ -24725,13 +24727,13 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>74.41398975877101</v>
+        <v>74.41398975877098</v>
       </c>
       <c r="S29" t="n">
-        <v>95.61694756741558</v>
+        <v>95.61694756741555</v>
       </c>
       <c r="T29" t="n">
-        <v>72.5468149056684</v>
+        <v>72.54681490566837</v>
       </c>
       <c r="U29" t="n">
         <v>103.2042417984181</v>
@@ -24740,7 +24742,7 @@
         <v>163.5566805161597</v>
       </c>
       <c r="W29" t="n">
-        <v>172.3407599945083</v>
+        <v>172.3407599945082</v>
       </c>
       <c r="X29" t="n">
         <v>196.797137716596</v>
@@ -24756,25 +24758,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>50.88813299356633</v>
+        <v>50.8881329935663</v>
       </c>
       <c r="C30" t="n">
-        <v>70.10987386682089</v>
+        <v>70.10987386682086</v>
       </c>
       <c r="D30" t="n">
-        <v>36.08961367010312</v>
+        <v>36.08961367010309</v>
       </c>
       <c r="E30" t="n">
-        <v>53.26474751671449</v>
+        <v>53.26474751671446</v>
       </c>
       <c r="F30" t="n">
-        <v>39.47221849488412</v>
+        <v>39.47221849488409</v>
       </c>
       <c r="G30" t="n">
-        <v>24.56182379896406</v>
+        <v>24.56182379896403</v>
       </c>
       <c r="H30" t="n">
-        <v>1.090931440934657</v>
+        <v>1.090931440934629</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -24804,13 +24806,13 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>22.65196211104163</v>
+        <v>22.6519621110416</v>
       </c>
       <c r="S30" t="n">
-        <v>74.28673481005205</v>
+        <v>74.28673481005202</v>
       </c>
       <c r="T30" t="n">
-        <v>95.54236358055839</v>
+        <v>95.54236358055836</v>
       </c>
       <c r="U30" t="n">
         <v>113.3014619866018</v>
@@ -24822,10 +24824,10 @@
         <v>149.6643917895435</v>
       </c>
       <c r="X30" t="n">
-        <v>93.88537343409322</v>
+        <v>93.8853734340932</v>
       </c>
       <c r="Y30" t="n">
-        <v>111.2998031008978</v>
+        <v>111.2998031008977</v>
       </c>
     </row>
     <row r="31">
@@ -24835,10 +24837,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>28.86769581891014</v>
+        <v>28.86769581891011</v>
       </c>
       <c r="C31" t="n">
-        <v>20.332023639901</v>
+        <v>20.33202363990097</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24850,13 +24852,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>24.91705739324653</v>
+        <v>24.91705739324651</v>
       </c>
       <c r="H31" t="n">
-        <v>24.05079199011087</v>
+        <v>24.05079199011084</v>
       </c>
       <c r="I31" t="n">
-        <v>24.89358702046981</v>
+        <v>24.89358702046978</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24880,31 +24882,31 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>23.04799451452763</v>
+        <v>23.0479945145276</v>
       </c>
       <c r="R31" t="n">
-        <v>88.03891539497</v>
+        <v>88.03891539496998</v>
       </c>
       <c r="S31" t="n">
         <v>104.4923638834209</v>
       </c>
       <c r="T31" t="n">
-        <v>69.5978547585426</v>
+        <v>69.59785475854257</v>
       </c>
       <c r="U31" t="n">
-        <v>148.2653828825402</v>
+        <v>148.2653828825401</v>
       </c>
       <c r="V31" t="n">
-        <v>87.49844810168469</v>
+        <v>87.49844810168466</v>
       </c>
       <c r="W31" t="n">
         <v>152.6120329216136</v>
       </c>
       <c r="X31" t="n">
-        <v>70.27054016286965</v>
+        <v>70.27054016286962</v>
       </c>
       <c r="Y31" t="n">
-        <v>69.81263881589385</v>
+        <v>69.81263881589382</v>
       </c>
     </row>
     <row r="32">
@@ -25151,28 +25153,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>213.4981318212546</v>
+        <v>213.4981318212545</v>
       </c>
       <c r="C35" t="n">
-        <v>177.7962924282659</v>
+        <v>177.7962924282658</v>
       </c>
       <c r="D35" t="n">
-        <v>161.9692616284328</v>
+        <v>161.9692616284327</v>
       </c>
       <c r="E35" t="n">
-        <v>207.5672263522561</v>
+        <v>207.567226352256</v>
       </c>
       <c r="F35" t="n">
-        <v>251.7591006266139</v>
+        <v>251.7591006266138</v>
       </c>
       <c r="G35" t="n">
-        <v>279.7412543114274</v>
+        <v>279.7412543114273</v>
       </c>
       <c r="H35" t="n">
-        <v>206.6788853947823</v>
+        <v>206.6788853947822</v>
       </c>
       <c r="I35" t="n">
-        <v>116.5467958901757</v>
+        <v>116.5467958901756</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25199,28 +25201,28 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>74.41398975877109</v>
+        <v>74.41398975877101</v>
       </c>
       <c r="S35" t="n">
-        <v>95.61694756741566</v>
+        <v>95.61694756741558</v>
       </c>
       <c r="T35" t="n">
-        <v>72.54681490566848</v>
+        <v>72.5468149056684</v>
       </c>
       <c r="U35" t="n">
-        <v>103.2042417984182</v>
+        <v>103.2042417984181</v>
       </c>
       <c r="V35" t="n">
-        <v>163.5566805161598</v>
+        <v>163.5566805161597</v>
       </c>
       <c r="W35" t="n">
         <v>172.3407599945083</v>
       </c>
       <c r="X35" t="n">
-        <v>196.7971377165961</v>
+        <v>196.797137716596</v>
       </c>
       <c r="Y35" t="n">
-        <v>230.338109632133</v>
+        <v>230.3381096321329</v>
       </c>
     </row>
     <row r="36">
@@ -25230,25 +25232,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>50.88813299356642</v>
+        <v>50.88813299356633</v>
       </c>
       <c r="C36" t="n">
-        <v>70.10987386682098</v>
+        <v>70.10987386682089</v>
       </c>
       <c r="D36" t="n">
-        <v>36.0896136701032</v>
+        <v>36.08961367010312</v>
       </c>
       <c r="E36" t="n">
-        <v>53.26474751671458</v>
+        <v>53.26474751671449</v>
       </c>
       <c r="F36" t="n">
-        <v>39.4722184948842</v>
+        <v>39.47221849488412</v>
       </c>
       <c r="G36" t="n">
-        <v>24.56182379896414</v>
+        <v>24.56182379896406</v>
       </c>
       <c r="H36" t="n">
-        <v>1.090931440934742</v>
+        <v>1.090931440934657</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -25278,28 +25280,28 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>22.65196211104171</v>
+        <v>22.65196211104163</v>
       </c>
       <c r="S36" t="n">
-        <v>74.28673481005214</v>
+        <v>74.28673481005205</v>
       </c>
       <c r="T36" t="n">
-        <v>95.54236358055847</v>
+        <v>95.54236358055839</v>
       </c>
       <c r="U36" t="n">
-        <v>113.3014619866019</v>
+        <v>113.3014619866018</v>
       </c>
       <c r="V36" t="n">
-        <v>110.4254882493135</v>
+        <v>110.4254882493134</v>
       </c>
       <c r="W36" t="n">
-        <v>149.6643917895436</v>
+        <v>149.6643917895435</v>
       </c>
       <c r="X36" t="n">
-        <v>93.88537343409331</v>
+        <v>93.88537343409322</v>
       </c>
       <c r="Y36" t="n">
-        <v>111.2998031008979</v>
+        <v>111.2998031008978</v>
       </c>
     </row>
     <row r="37">
@@ -25309,10 +25311,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>28.86769581891022</v>
+        <v>28.86769581891014</v>
       </c>
       <c r="C37" t="n">
-        <v>20.33202363990108</v>
+        <v>20.332023639901</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -25324,13 +25326,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>24.91705739324662</v>
+        <v>24.91705739324653</v>
       </c>
       <c r="H37" t="n">
-        <v>24.05079199011095</v>
+        <v>24.05079199011087</v>
       </c>
       <c r="I37" t="n">
-        <v>24.89358702046989</v>
+        <v>24.89358702046981</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25354,31 +25356,31 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>23.04799451452772</v>
+        <v>23.04799451452763</v>
       </c>
       <c r="R37" t="n">
-        <v>88.03891539497009</v>
+        <v>88.03891539497</v>
       </c>
       <c r="S37" t="n">
-        <v>104.492363883421</v>
+        <v>104.4923638834209</v>
       </c>
       <c r="T37" t="n">
-        <v>69.59785475854268</v>
+        <v>69.5978547585426</v>
       </c>
       <c r="U37" t="n">
-        <v>148.2653828825403</v>
+        <v>148.2653828825402</v>
       </c>
       <c r="V37" t="n">
-        <v>87.49844810168477</v>
+        <v>87.49844810168469</v>
       </c>
       <c r="W37" t="n">
-        <v>152.6120329216137</v>
+        <v>152.6120329216136</v>
       </c>
       <c r="X37" t="n">
-        <v>70.27054016286974</v>
+        <v>70.27054016286965</v>
       </c>
       <c r="Y37" t="n">
-        <v>69.81263881589393</v>
+        <v>69.81263881589385</v>
       </c>
     </row>
     <row r="38">
@@ -25388,28 +25390,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>213.4981318212546</v>
+        <v>220.247703781424</v>
       </c>
       <c r="C38" t="n">
-        <v>177.7962924282659</v>
+        <v>184.5458643884352</v>
       </c>
       <c r="D38" t="n">
-        <v>161.9692616284328</v>
+        <v>168.7188335886022</v>
       </c>
       <c r="E38" t="n">
-        <v>207.5672263522561</v>
+        <v>214.3167983124254</v>
       </c>
       <c r="F38" t="n">
-        <v>251.7591006266139</v>
+        <v>258.5086725867832</v>
       </c>
       <c r="G38" t="n">
-        <v>279.7412543114274</v>
+        <v>286.4908262715968</v>
       </c>
       <c r="H38" t="n">
-        <v>206.6788853947823</v>
+        <v>213.4284573549517</v>
       </c>
       <c r="I38" t="n">
-        <v>116.5467958901757</v>
+        <v>123.296367850345</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25436,28 +25438,28 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>74.41398975877109</v>
+        <v>81.16356171894046</v>
       </c>
       <c r="S38" t="n">
-        <v>95.61694756741566</v>
+        <v>102.366519527585</v>
       </c>
       <c r="T38" t="n">
-        <v>72.54681490566848</v>
+        <v>79.29638686583785</v>
       </c>
       <c r="U38" t="n">
-        <v>103.2042417984182</v>
+        <v>109.9538137585875</v>
       </c>
       <c r="V38" t="n">
-        <v>163.5566805161598</v>
+        <v>170.3062524763292</v>
       </c>
       <c r="W38" t="n">
-        <v>172.3407599945083</v>
+        <v>179.0903319546777</v>
       </c>
       <c r="X38" t="n">
-        <v>196.7971377165961</v>
+        <v>203.5467096767655</v>
       </c>
       <c r="Y38" t="n">
-        <v>230.338109632133</v>
+        <v>237.0876815923024</v>
       </c>
     </row>
     <row r="39">
@@ -25467,25 +25469,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>50.88813299356642</v>
+        <v>57.63770495373578</v>
       </c>
       <c r="C39" t="n">
-        <v>70.10987386682098</v>
+        <v>76.85944582699034</v>
       </c>
       <c r="D39" t="n">
-        <v>36.0896136701032</v>
+        <v>42.83918563027257</v>
       </c>
       <c r="E39" t="n">
-        <v>53.26474751671458</v>
+        <v>60.01431947688394</v>
       </c>
       <c r="F39" t="n">
-        <v>39.4722184948842</v>
+        <v>46.22179045505356</v>
       </c>
       <c r="G39" t="n">
-        <v>24.56182379896414</v>
+        <v>31.3113957591335</v>
       </c>
       <c r="H39" t="n">
-        <v>1.090931440934742</v>
+        <v>7.840503401104105</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -25515,28 +25517,28 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>22.65196211104171</v>
+        <v>29.40153407121107</v>
       </c>
       <c r="S39" t="n">
-        <v>74.28673481005214</v>
+        <v>81.0363067702215</v>
       </c>
       <c r="T39" t="n">
-        <v>95.54236358055847</v>
+        <v>102.2919355407278</v>
       </c>
       <c r="U39" t="n">
-        <v>113.3014619866019</v>
+        <v>120.0510339467712</v>
       </c>
       <c r="V39" t="n">
-        <v>110.4254882493135</v>
+        <v>117.1750602094829</v>
       </c>
       <c r="W39" t="n">
-        <v>149.6643917895436</v>
+        <v>156.4139637497129</v>
       </c>
       <c r="X39" t="n">
-        <v>93.88537343409331</v>
+        <v>100.6349453942627</v>
       </c>
       <c r="Y39" t="n">
-        <v>111.2998031008979</v>
+        <v>118.0493750610672</v>
       </c>
     </row>
     <row r="40">
@@ -25546,31 +25548,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>28.86769581891022</v>
+        <v>35.61726777907958</v>
       </c>
       <c r="C40" t="n">
-        <v>20.33202363990108</v>
+        <v>27.08159560007044</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>0.941205926342036</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>61.1613215586416</v>
       </c>
       <c r="G40" t="n">
-        <v>24.91705739324662</v>
+        <v>31.66662935341598</v>
       </c>
       <c r="H40" t="n">
-        <v>24.05079199011095</v>
+        <v>30.80036395028031</v>
       </c>
       <c r="I40" t="n">
-        <v>24.89358702046989</v>
+        <v>31.64315898063926</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>2.186931361031228</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25585,37 +25587,37 @@
         <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>92.52559636191177</v>
       </c>
       <c r="P40" t="n">
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>23.04799451452772</v>
+        <v>29.79756647469708</v>
       </c>
       <c r="R40" t="n">
-        <v>88.03891539497009</v>
+        <v>94.78848735513945</v>
       </c>
       <c r="S40" t="n">
-        <v>104.492363883421</v>
+        <v>111.2419358435903</v>
       </c>
       <c r="T40" t="n">
-        <v>69.59785475854268</v>
+        <v>76.34742671871204</v>
       </c>
       <c r="U40" t="n">
-        <v>148.2653828825403</v>
+        <v>155.0149548427096</v>
       </c>
       <c r="V40" t="n">
-        <v>87.49844810168477</v>
+        <v>94.24802006185413</v>
       </c>
       <c r="W40" t="n">
-        <v>152.6120329216137</v>
+        <v>159.3616048817831</v>
       </c>
       <c r="X40" t="n">
-        <v>70.27054016286974</v>
+        <v>77.0201121230391</v>
       </c>
       <c r="Y40" t="n">
-        <v>69.81263881589393</v>
+        <v>76.5622107760633</v>
       </c>
     </row>
     <row r="41">
@@ -25625,76 +25627,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>213.4981318212547</v>
+        <v>343.4836522392953</v>
       </c>
       <c r="C41" t="n">
-        <v>177.796292428266</v>
+        <v>307.7818128463065</v>
       </c>
       <c r="D41" t="n">
-        <v>161.9692616284329</v>
+        <v>291.9547820464735</v>
       </c>
       <c r="E41" t="n">
-        <v>207.5672263522561</v>
+        <v>337.5527467702967</v>
       </c>
       <c r="F41" t="n">
-        <v>251.759100626614</v>
+        <v>381.7446210446545</v>
       </c>
       <c r="G41" t="n">
-        <v>279.7412543114276</v>
+        <v>409.7267747294681</v>
       </c>
       <c r="H41" t="n">
-        <v>206.6788853947824</v>
+        <v>336.664405812823</v>
       </c>
       <c r="I41" t="n">
-        <v>116.5467958901758</v>
+        <v>246.5323163082164</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>102.1882167122161</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>77.19522360982722</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>38.72970430810216</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>7.452579786414901</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>7.202705164692361</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>60.6259368985813</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>120.9415603382261</v>
       </c>
       <c r="R41" t="n">
-        <v>74.41398975877118</v>
+        <v>204.3995101768118</v>
       </c>
       <c r="S41" t="n">
-        <v>95.61694756741575</v>
+        <v>225.6024679854563</v>
       </c>
       <c r="T41" t="n">
-        <v>72.54681490566857</v>
+        <v>202.5323353237092</v>
       </c>
       <c r="U41" t="n">
-        <v>103.2042417984183</v>
+        <v>233.1897622164589</v>
       </c>
       <c r="V41" t="n">
-        <v>163.5566805161599</v>
+        <v>293.5422009342005</v>
       </c>
       <c r="W41" t="n">
-        <v>172.3407599945084</v>
+        <v>302.326280412549</v>
       </c>
       <c r="X41" t="n">
-        <v>196.7971377165962</v>
+        <v>326.7826581346368</v>
       </c>
       <c r="Y41" t="n">
-        <v>230.3381096321331</v>
+        <v>360.3236300501737</v>
       </c>
     </row>
     <row r="42">
@@ -25704,34 +25706,34 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>50.8881329935665</v>
+        <v>180.8736534116071</v>
       </c>
       <c r="C42" t="n">
-        <v>70.10987386682106</v>
+        <v>207.9427135884484</v>
       </c>
       <c r="D42" t="n">
-        <v>36.08961367010329</v>
+        <v>166.0751340881439</v>
       </c>
       <c r="E42" t="n">
-        <v>53.26474751671466</v>
+        <v>183.2502679347553</v>
       </c>
       <c r="F42" t="n">
-        <v>39.47221849488429</v>
+        <v>169.4577389129249</v>
       </c>
       <c r="G42" t="n">
-        <v>24.56182379896423</v>
+        <v>154.5473442170048</v>
       </c>
       <c r="H42" t="n">
-        <v>1.090931440934828</v>
+        <v>145.7624330852993</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>108.5499672315473</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>100.4973517299579</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>28.79556533961363</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -25749,31 +25751,31 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>84.77581017613943</v>
       </c>
       <c r="R42" t="n">
-        <v>22.6519621110418</v>
+        <v>152.6374825290824</v>
       </c>
       <c r="S42" t="n">
-        <v>74.28673481005222</v>
+        <v>204.2722552280928</v>
       </c>
       <c r="T42" t="n">
-        <v>95.54236358055856</v>
+        <v>225.5278839985992</v>
       </c>
       <c r="U42" t="n">
-        <v>113.301461986602</v>
+        <v>243.2869824046426</v>
       </c>
       <c r="V42" t="n">
-        <v>110.4254882493136</v>
+        <v>240.4110086673542</v>
       </c>
       <c r="W42" t="n">
-        <v>149.6643917895437</v>
+        <v>279.6499122075842</v>
       </c>
       <c r="X42" t="n">
-        <v>93.8853734340934</v>
+        <v>223.870893852134</v>
       </c>
       <c r="Y42" t="n">
-        <v>111.2998031008979</v>
+        <v>241.2853235189386</v>
       </c>
     </row>
     <row r="43">
@@ -25783,76 +25785,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>28.86769581891031</v>
+        <v>173.5391974632748</v>
       </c>
       <c r="C43" t="n">
-        <v>20.33202363990117</v>
+        <v>150.3175440579418</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>138.8631356105373</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>118.2314432544947</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>126.9717133511</v>
       </c>
       <c r="G43" t="n">
-        <v>24.9170573932467</v>
+        <v>154.9025778112873</v>
       </c>
       <c r="H43" t="n">
-        <v>24.05079199011104</v>
+        <v>154.0363124081516</v>
       </c>
       <c r="I43" t="n">
-        <v>24.89358702046998</v>
+        <v>154.8791074385106</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>125.4228798189026</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>86.07716731459774</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>79.85433933586287</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>78.84701260891001</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>49.38877151593371</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>77.83961513558788</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>95.77423973535767</v>
       </c>
       <c r="Q43" t="n">
-        <v>23.0479945145278</v>
+        <v>167.7194961588923</v>
       </c>
       <c r="R43" t="n">
-        <v>88.03891539497018</v>
+        <v>218.0244358130108</v>
       </c>
       <c r="S43" t="n">
-        <v>104.4923638834211</v>
+        <v>234.4778843014617</v>
       </c>
       <c r="T43" t="n">
-        <v>69.59785475854277</v>
+        <v>199.5833751765834</v>
       </c>
       <c r="U43" t="n">
-        <v>148.2653828825403</v>
+        <v>278.2509033005809</v>
       </c>
       <c r="V43" t="n">
-        <v>87.49844810168486</v>
+        <v>217.4839685197255</v>
       </c>
       <c r="W43" t="n">
-        <v>152.6120329216138</v>
+        <v>282.5975533396544</v>
       </c>
       <c r="X43" t="n">
-        <v>70.27054016286982</v>
+        <v>214.9420418072343</v>
       </c>
       <c r="Y43" t="n">
-        <v>69.81263881589402</v>
+        <v>214.4841404602585</v>
       </c>
     </row>
     <row r="44">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>291832.3022507917</v>
+        <v>589768.974118193</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>643848.3025413331</v>
+        <v>626819.942434461</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>643848.3025413331</v>
+        <v>626819.942434461</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>643848.3025413331</v>
+        <v>626819.942434461</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>630875.4647633404</v>
+        <v>643848.3025413336</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>643848.3025413336</v>
+        <v>643848.3025413337</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>643848.3025413331</v>
+        <v>643848.3025413336</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>643848.3025413331</v>
+        <v>626819.9424344614</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>643848.3025413331</v>
+        <v>315910.4327890668</v>
       </c>
     </row>
     <row r="16">
@@ -26311,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>847442.5528867173</v>
+        <v>847442.5528867169</v>
       </c>
       <c r="C2" t="n">
-        <v>847442.5528867167</v>
+        <v>847442.5528867168</v>
       </c>
       <c r="D2" t="n">
         <v>847442.5528867168</v>
       </c>
       <c r="E2" t="n">
-        <v>275619.3965701923</v>
+        <v>557004.031111627</v>
       </c>
       <c r="F2" t="n">
+        <v>591996.6122992134</v>
+      </c>
+      <c r="G2" t="n">
+        <v>591996.6122992134</v>
+      </c>
+      <c r="H2" t="n">
+        <v>591996.6122992133</v>
+      </c>
+      <c r="I2" t="n">
         <v>608078.9524001481</v>
       </c>
-      <c r="G2" t="n">
-        <v>608078.9524001481</v>
-      </c>
-      <c r="H2" t="n">
+      <c r="J2" t="n">
+        <v>608078.9524001485</v>
+      </c>
+      <c r="K2" t="n">
         <v>608078.9524001486</v>
-      </c>
-      <c r="I2" t="n">
-        <v>608078.9524001484</v>
-      </c>
-      <c r="J2" t="n">
-        <v>595826.8278320439</v>
-      </c>
-      <c r="K2" t="n">
-        <v>608078.9524001485</v>
       </c>
       <c r="L2" t="n">
         <v>608078.9524001485</v>
       </c>
       <c r="M2" t="n">
-        <v>608078.9524001485</v>
+        <v>608078.9524001487</v>
       </c>
       <c r="N2" t="n">
-        <v>608078.9524001481</v>
+        <v>591996.6122992138</v>
       </c>
       <c r="O2" t="n">
-        <v>608078.9524001481</v>
+        <v>298359.8531896743</v>
       </c>
       <c r="P2" t="n">
         <v>263367.2720020877</v>
@@ -26372,25 +26374,25 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>421649.8152818902</v>
+        <v>516124.9141743943</v>
       </c>
       <c r="F3" t="n">
-        <v>111623.5414416988</v>
+        <v>11748.78498105911</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>6.821210263296962e-11</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>5399.65756813555</v>
       </c>
       <c r="J3" t="n">
-        <v>7.098495233349684e-11</v>
+        <v>98588.75876629706</v>
       </c>
       <c r="K3" t="n">
-        <v>115737.2013154916</v>
+        <v>11748.78498105912</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26415,31 +26417,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>569049.7736743361</v>
+        <v>569049.7736743363</v>
       </c>
       <c r="C4" t="n">
-        <v>569049.7736743361</v>
+        <v>569049.7736743363</v>
       </c>
       <c r="D4" t="n">
-        <v>569049.7736743361</v>
+        <v>569049.7736743363</v>
       </c>
       <c r="E4" t="n">
-        <v>8227.187422628384</v>
+        <v>197174.3462073767</v>
       </c>
       <c r="F4" t="n">
+        <v>220671.5382438718</v>
+      </c>
+      <c r="G4" t="n">
+        <v>220671.5382438719</v>
+      </c>
+      <c r="H4" t="n">
+        <v>220671.5382438719</v>
+      </c>
+      <c r="I4" t="n">
         <v>231470.6796882289</v>
       </c>
-      <c r="G4" t="n">
-        <v>231470.6796882289</v>
-      </c>
-      <c r="H4" t="n">
-        <v>231470.679688229</v>
-      </c>
-      <c r="I4" t="n">
-        <v>231470.6796882291</v>
-      </c>
       <c r="J4" t="n">
-        <v>223243.4922656009</v>
+        <v>231470.6796882292</v>
       </c>
       <c r="K4" t="n">
         <v>231470.6796882292</v>
@@ -26448,13 +26450,13 @@
         <v>231470.6796882292</v>
       </c>
       <c r="M4" t="n">
-        <v>231470.6796882291</v>
+        <v>231470.6796882292</v>
       </c>
       <c r="N4" t="n">
-        <v>231470.6796882291</v>
+        <v>220671.5382438722</v>
       </c>
       <c r="O4" t="n">
-        <v>231470.6796882289</v>
+        <v>23497.19203649519</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -26476,22 +26478,22 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>11761.95575520552</v>
+        <v>21689.98961619793</v>
       </c>
       <c r="F5" t="n">
+        <v>22924.62537191375</v>
+      </c>
+      <c r="G5" t="n">
+        <v>22924.62537191375</v>
+      </c>
+      <c r="H5" t="n">
+        <v>22924.62537191375</v>
+      </c>
+      <c r="I5" t="n">
         <v>23492.05513703324</v>
       </c>
-      <c r="G5" t="n">
-        <v>23492.05513703324</v>
-      </c>
-      <c r="H5" t="n">
+      <c r="J5" t="n">
         <v>23492.05513703325</v>
-      </c>
-      <c r="I5" t="n">
-        <v>23492.05513703325</v>
-      </c>
-      <c r="J5" t="n">
-        <v>23059.76604712089</v>
       </c>
       <c r="K5" t="n">
         <v>23492.05513703325</v>
@@ -26503,10 +26505,10 @@
         <v>23492.05513703325</v>
       </c>
       <c r="N5" t="n">
-        <v>23492.05513703325</v>
+        <v>22924.62537191377</v>
       </c>
       <c r="O5" t="n">
-        <v>23492.05513703324</v>
+        <v>12564.30242100898</v>
       </c>
       <c r="P5" t="n">
         <v>11329.66666529316</v>
@@ -26519,46 +26521,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>244765.1792123811</v>
+        <v>244765.1792123807</v>
       </c>
       <c r="C6" t="n">
         <v>244765.1792123805</v>
       </c>
       <c r="D6" t="n">
-        <v>244765.1792123806</v>
+        <v>244765.1792123805</v>
       </c>
       <c r="E6" t="n">
-        <v>-166019.5618895318</v>
+        <v>-177985.218886342</v>
       </c>
       <c r="F6" t="n">
-        <v>241492.6761331872</v>
+        <v>336651.6637023687</v>
       </c>
       <c r="G6" t="n">
-        <v>353116.217574886</v>
+        <v>348400.4486834278</v>
       </c>
       <c r="H6" t="n">
-        <v>353116.2175748863</v>
+        <v>348400.4486834277</v>
       </c>
       <c r="I6" t="n">
-        <v>353116.2175748861</v>
+        <v>347716.5600067505</v>
       </c>
       <c r="J6" t="n">
-        <v>349523.569519322</v>
+        <v>254527.458808589</v>
       </c>
       <c r="K6" t="n">
-        <v>237379.0162593945</v>
+        <v>341367.432593827</v>
       </c>
       <c r="L6" t="n">
         <v>353116.217574886</v>
       </c>
       <c r="M6" t="n">
-        <v>353116.2175748862</v>
+        <v>353116.2175748863</v>
       </c>
       <c r="N6" t="n">
-        <v>353116.2175748859</v>
+        <v>348400.4486834278</v>
       </c>
       <c r="O6" t="n">
-        <v>353116.217574886</v>
+        <v>262298.3587321701</v>
       </c>
       <c r="P6" t="n">
         <v>252037.6053367945</v>
@@ -26692,22 +26694,22 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>5.142074842241044</v>
+        <v>123.2359484578712</v>
       </c>
       <c r="F2" t="n">
+        <v>137.921929684195</v>
+      </c>
+      <c r="G2" t="n">
+        <v>137.921929684195</v>
+      </c>
+      <c r="H2" t="n">
+        <v>137.921929684195</v>
+      </c>
+      <c r="I2" t="n">
         <v>144.6715016443645</v>
       </c>
-      <c r="G2" t="n">
-        <v>144.6715016443645</v>
-      </c>
-      <c r="H2" t="n">
-        <v>144.6715016443646</v>
-      </c>
-      <c r="I2" t="n">
-        <v>144.6715016443646</v>
-      </c>
       <c r="J2" t="n">
-        <v>139.5294268021236</v>
+        <v>144.6715016443647</v>
       </c>
       <c r="K2" t="n">
         <v>144.6715016443647</v>
@@ -26716,13 +26718,13 @@
         <v>144.6715016443647</v>
       </c>
       <c r="M2" t="n">
-        <v>144.6715016443646</v>
+        <v>144.6715016443647</v>
       </c>
       <c r="N2" t="n">
-        <v>144.6715016443646</v>
+        <v>137.9219296841952</v>
       </c>
       <c r="O2" t="n">
-        <v>144.6715016443645</v>
+        <v>14.6859812263239</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26914,25 +26916,25 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>5.142074842241044</v>
+        <v>123.2359484578712</v>
       </c>
       <c r="F2" t="n">
-        <v>139.5294268021235</v>
+        <v>14.68598122632389</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>8.526512829121202e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>6.749571960169437</v>
       </c>
       <c r="J2" t="n">
-        <v>8.873119041687105e-14</v>
+        <v>123.2359484578713</v>
       </c>
       <c r="K2" t="n">
-        <v>144.6715016443645</v>
+        <v>14.6859812263239</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27151,25 +27153,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>5.142074842241044</v>
+        <v>123.2359484578712</v>
       </c>
       <c r="K2" t="n">
-        <v>139.5294268021235</v>
+        <v>14.68598122632389</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>8.526512829121202e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>6.749571960169437</v>
       </c>
       <c r="O2" t="n">
-        <v>8.873119041687105e-14</v>
+        <v>123.2359484578713</v>
       </c>
       <c r="P2" t="n">
-        <v>144.6715016443645</v>
+        <v>14.6859812263239</v>
       </c>
     </row>
     <row r="3">
@@ -28087,76 +28089,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>5.142074842241044</v>
+        <v>123.2359484578712</v>
       </c>
       <c r="C11" t="n">
-        <v>5.142074842241044</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>5.142074842241044</v>
+        <v>123.2359484578712</v>
       </c>
       <c r="E11" t="n">
-        <v>5.142074842241044</v>
+        <v>123.2359484578712</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>122.5513256877496</v>
       </c>
       <c r="G11" t="n">
-        <v>5.142074842241044</v>
+        <v>123.2359484578712</v>
       </c>
       <c r="H11" t="n">
-        <v>5.142074842241044</v>
+        <v>123.2359484578712</v>
       </c>
       <c r="I11" t="n">
-        <v>5.142074842241044</v>
+        <v>123.2359484578712</v>
       </c>
       <c r="J11" t="n">
-        <v>5.142074842241044</v>
+        <v>116.87419793854</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>91.88120483615114</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>53.41568553442607</v>
       </c>
       <c r="M11" t="n">
-        <v>5.142074842241044</v>
+        <v>7.452579786414901</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>21.88868639101628</v>
       </c>
       <c r="P11" t="n">
-        <v>5.142074842241044</v>
+        <v>75.31191812490522</v>
       </c>
       <c r="Q11" t="n">
-        <v>5.142074842241044</v>
+        <v>123.2359484578712</v>
       </c>
       <c r="R11" t="n">
-        <v>5.142074842241044</v>
+        <v>123.2359484578712</v>
       </c>
       <c r="S11" t="n">
-        <v>5.142074842241044</v>
+        <v>123.2359484578712</v>
       </c>
       <c r="T11" t="n">
-        <v>5.142074842241044</v>
+        <v>123.2359484578712</v>
       </c>
       <c r="U11" t="n">
-        <v>5.142074842241044</v>
+        <v>123.2359484578712</v>
       </c>
       <c r="V11" t="n">
-        <v>5.142074842241044</v>
+        <v>123.2359484578712</v>
       </c>
       <c r="W11" t="n">
-        <v>2.157359114208468</v>
+        <v>123.2359484578712</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>123.2359484578712</v>
       </c>
       <c r="Y11" t="n">
-        <v>5.142074842241044</v>
+        <v>123.2359484578712</v>
       </c>
     </row>
     <row r="12">
@@ -28166,34 +28168,34 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>5.142074842241044</v>
+        <v>123.2359484578712</v>
       </c>
       <c r="C12" t="n">
-        <v>5.142074842241044</v>
+        <v>123.2359484578712</v>
       </c>
       <c r="D12" t="n">
-        <v>5.142074842241044</v>
+        <v>123.2359484578712</v>
       </c>
       <c r="E12" t="n">
-        <v>5.142074842241044</v>
+        <v>123.2359484578712</v>
       </c>
       <c r="F12" t="n">
-        <v>5.142074842241044</v>
+        <v>123.2359484578712</v>
       </c>
       <c r="G12" t="n">
-        <v>5.142074842241044</v>
+        <v>123.2359484578712</v>
       </c>
       <c r="H12" t="n">
-        <v>5.142074842241044</v>
+        <v>123.2359484578712</v>
       </c>
       <c r="I12" t="n">
-        <v>5.142074842241044</v>
+        <v>123.2359484578712</v>
       </c>
       <c r="J12" t="n">
-        <v>5.142074842241044</v>
+        <v>100.4973517299579</v>
       </c>
       <c r="K12" t="n">
-        <v>5.142074842241044</v>
+        <v>43.48154656593752</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -28211,31 +28213,31 @@
         <v>4.245097493356042</v>
       </c>
       <c r="Q12" t="n">
-        <v>5.142074842241044</v>
+        <v>84.77581017613943</v>
       </c>
       <c r="R12" t="n">
-        <v>5.142074842241044</v>
+        <v>123.2359484578712</v>
       </c>
       <c r="S12" t="n">
-        <v>5.142074842241044</v>
+        <v>123.2359484578712</v>
       </c>
       <c r="T12" t="n">
-        <v>5.142074842241044</v>
+        <v>123.2359484578712</v>
       </c>
       <c r="U12" t="n">
-        <v>5.142074842241044</v>
+        <v>123.2359484578712</v>
       </c>
       <c r="V12" t="n">
-        <v>5.142074842241044</v>
+        <v>123.2359484578712</v>
       </c>
       <c r="W12" t="n">
-        <v>5.142074842241044</v>
+        <v>123.2359484578712</v>
       </c>
       <c r="X12" t="n">
-        <v>5.142074842241044</v>
+        <v>123.2359484578712</v>
       </c>
       <c r="Y12" t="n">
-        <v>5.142074842241044</v>
+        <v>123.2359484578712</v>
       </c>
     </row>
     <row r="13">
@@ -28245,76 +28247,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>5.142074842241044</v>
+        <v>123.2359484578712</v>
       </c>
       <c r="C13" t="n">
-        <v>5.142074842241044</v>
+        <v>123.2359484578712</v>
       </c>
       <c r="D13" t="n">
-        <v>5.142074842241044</v>
+        <v>123.2359484578712</v>
       </c>
       <c r="E13" t="n">
-        <v>5.142074842241044</v>
+        <v>123.2359484578712</v>
       </c>
       <c r="F13" t="n">
-        <v>5.142074842241044</v>
+        <v>123.2359484578712</v>
       </c>
       <c r="G13" t="n">
-        <v>5.142074842241044</v>
+        <v>123.2359484578712</v>
       </c>
       <c r="H13" t="n">
-        <v>5.142074842241044</v>
+        <v>123.2359484578712</v>
       </c>
       <c r="I13" t="n">
-        <v>5.142074842241044</v>
+        <v>123.2359484578712</v>
       </c>
       <c r="J13" t="n">
-        <v>5.142074842241044</v>
+        <v>123.2359484578712</v>
       </c>
       <c r="K13" t="n">
-        <v>5.142074842241044</v>
+        <v>100.7631485409216</v>
       </c>
       <c r="L13" t="n">
-        <v>5.142074842241044</v>
+        <v>79.85433933586287</v>
       </c>
       <c r="M13" t="n">
-        <v>5.142074842241044</v>
+        <v>78.84701260891001</v>
       </c>
       <c r="N13" t="n">
-        <v>5.142074842241044</v>
+        <v>64.0747527422576</v>
       </c>
       <c r="O13" t="n">
-        <v>5.142074842241044</v>
+        <v>92.52559636191177</v>
       </c>
       <c r="P13" t="n">
-        <v>5.142074842241044</v>
+        <v>110.4602209616816</v>
       </c>
       <c r="Q13" t="n">
-        <v>5.142074842241044</v>
+        <v>123.2359484578712</v>
       </c>
       <c r="R13" t="n">
-        <v>5.142074842241044</v>
+        <v>123.2359484578712</v>
       </c>
       <c r="S13" t="n">
-        <v>5.142074842241044</v>
+        <v>123.2359484578712</v>
       </c>
       <c r="T13" t="n">
-        <v>5.142074842241044</v>
+        <v>123.2359484578712</v>
       </c>
       <c r="U13" t="n">
-        <v>5.142074842241044</v>
+        <v>123.2359484578712</v>
       </c>
       <c r="V13" t="n">
-        <v>5.142074842241044</v>
+        <v>123.2359484578712</v>
       </c>
       <c r="W13" t="n">
-        <v>5.142074842241044</v>
+        <v>123.2359484578712</v>
       </c>
       <c r="X13" t="n">
-        <v>5.142074842241044</v>
+        <v>123.2359484578712</v>
       </c>
       <c r="Y13" t="n">
-        <v>5.142074842241044</v>
+        <v>123.2359484578712</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28326,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>144.6715016443645</v>
+        <v>137.921929684195</v>
       </c>
       <c r="C14" t="n">
-        <v>144.6715016443645</v>
+        <v>137.921929684195</v>
       </c>
       <c r="D14" t="n">
-        <v>144.6715016443645</v>
+        <v>137.921929684195</v>
       </c>
       <c r="E14" t="n">
-        <v>144.6715016443645</v>
+        <v>137.921929684195</v>
       </c>
       <c r="F14" t="n">
-        <v>144.6715016443645</v>
+        <v>137.921929684195</v>
       </c>
       <c r="G14" t="n">
-        <v>144.6715016443645</v>
+        <v>137.921929684195</v>
       </c>
       <c r="H14" t="n">
-        <v>144.6715016443645</v>
+        <v>137.921929684195</v>
       </c>
       <c r="I14" t="n">
-        <v>144.6715016443645</v>
+        <v>137.921929684195</v>
       </c>
       <c r="J14" t="n">
         <v>116.87419793854</v>
@@ -28363,7 +28365,7 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>21.8886863910163</v>
+        <v>21.88868639101628</v>
       </c>
       <c r="P14" t="n">
         <v>75.31191812490522</v>
@@ -28372,28 +28374,28 @@
         <v>135.6275415645501</v>
       </c>
       <c r="R14" t="n">
-        <v>144.6715016443645</v>
+        <v>137.921929684195</v>
       </c>
       <c r="S14" t="n">
-        <v>144.6715016443645</v>
+        <v>137.921929684195</v>
       </c>
       <c r="T14" t="n">
-        <v>144.6715016443645</v>
+        <v>137.921929684195</v>
       </c>
       <c r="U14" t="n">
-        <v>144.6715016443645</v>
+        <v>137.921929684195</v>
       </c>
       <c r="V14" t="n">
-        <v>144.6715016443645</v>
+        <v>137.921929684195</v>
       </c>
       <c r="W14" t="n">
-        <v>144.6715016443645</v>
+        <v>137.921929684195</v>
       </c>
       <c r="X14" t="n">
-        <v>144.6715016443645</v>
+        <v>137.921929684195</v>
       </c>
       <c r="Y14" t="n">
-        <v>144.6715016443645</v>
+        <v>137.921929684195</v>
       </c>
     </row>
     <row r="15">
@@ -28403,25 +28405,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>144.6715016443645</v>
+        <v>137.921929684195</v>
       </c>
       <c r="C15" t="n">
-        <v>144.6715016443645</v>
+        <v>137.921929684195</v>
       </c>
       <c r="D15" t="n">
-        <v>144.6715016443645</v>
+        <v>137.921929684195</v>
       </c>
       <c r="E15" t="n">
-        <v>144.6715016443645</v>
+        <v>137.921929684195</v>
       </c>
       <c r="F15" t="n">
-        <v>144.6715016443645</v>
+        <v>137.921929684195</v>
       </c>
       <c r="G15" t="n">
-        <v>144.6715016443645</v>
+        <v>137.921929684195</v>
       </c>
       <c r="H15" t="n">
-        <v>144.6715016443645</v>
+        <v>137.921929684195</v>
       </c>
       <c r="I15" t="n">
         <v>123.2359484578712</v>
@@ -28451,28 +28453,28 @@
         <v>84.77581017613943</v>
       </c>
       <c r="R15" t="n">
-        <v>144.6715016443645</v>
+        <v>137.921929684195</v>
       </c>
       <c r="S15" t="n">
-        <v>144.6715016443645</v>
+        <v>137.921929684195</v>
       </c>
       <c r="T15" t="n">
-        <v>144.6715016443645</v>
+        <v>137.921929684195</v>
       </c>
       <c r="U15" t="n">
-        <v>144.6715016443645</v>
+        <v>137.921929684195</v>
       </c>
       <c r="V15" t="n">
-        <v>144.6715016443645</v>
+        <v>137.921929684195</v>
       </c>
       <c r="W15" t="n">
-        <v>144.6715016443645</v>
+        <v>50.92933463482065</v>
       </c>
       <c r="X15" t="n">
-        <v>144.6715016443645</v>
+        <v>137.921929684195</v>
       </c>
       <c r="Y15" t="n">
-        <v>144.6715016443645</v>
+        <v>137.921929684195</v>
       </c>
     </row>
     <row r="16">
@@ -28482,13 +28484,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>144.6715016443645</v>
+        <v>137.921929684195</v>
       </c>
       <c r="C16" t="n">
-        <v>144.6715016443645</v>
+        <v>137.921929684195</v>
       </c>
       <c r="D16" t="n">
-        <v>138.8631356105373</v>
+        <v>137.921929684195</v>
       </c>
       <c r="E16" t="n">
         <v>132.9174244808186</v>
@@ -28497,16 +28499,16 @@
         <v>126.9717133511</v>
       </c>
       <c r="G16" t="n">
-        <v>144.6715016443645</v>
+        <v>137.921929684195</v>
       </c>
       <c r="H16" t="n">
-        <v>144.6715016443645</v>
+        <v>137.921929684195</v>
       </c>
       <c r="I16" t="n">
-        <v>144.6715016443645</v>
+        <v>137.921929684195</v>
       </c>
       <c r="J16" t="n">
-        <v>140.1088610452264</v>
+        <v>137.921929684195</v>
       </c>
       <c r="K16" t="n">
         <v>100.7631485409216</v>
@@ -28527,31 +28529,31 @@
         <v>110.4602209616816</v>
       </c>
       <c r="Q16" t="n">
-        <v>144.6715016443645</v>
+        <v>137.921929684195</v>
       </c>
       <c r="R16" t="n">
-        <v>144.6715016443645</v>
+        <v>137.921929684195</v>
       </c>
       <c r="S16" t="n">
-        <v>144.6715016443645</v>
+        <v>137.921929684195</v>
       </c>
       <c r="T16" t="n">
-        <v>144.6715016443645</v>
+        <v>137.921929684195</v>
       </c>
       <c r="U16" t="n">
-        <v>144.6715016443645</v>
+        <v>137.921929684195</v>
       </c>
       <c r="V16" t="n">
-        <v>144.6715016443645</v>
+        <v>137.921929684195</v>
       </c>
       <c r="W16" t="n">
-        <v>144.6715016443645</v>
+        <v>137.921929684195</v>
       </c>
       <c r="X16" t="n">
-        <v>144.6715016443645</v>
+        <v>137.921929684195</v>
       </c>
       <c r="Y16" t="n">
-        <v>144.6715016443645</v>
+        <v>137.921929684195</v>
       </c>
     </row>
     <row r="17">
@@ -28561,34 +28563,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>144.6715016443645</v>
+        <v>137.921929684195</v>
       </c>
       <c r="C17" t="n">
-        <v>144.6715016443645</v>
+        <v>137.921929684195</v>
       </c>
       <c r="D17" t="n">
-        <v>144.6715016443645</v>
+        <v>137.921929684195</v>
       </c>
       <c r="E17" t="n">
-        <v>144.6715016443645</v>
+        <v>137.921929684195</v>
       </c>
       <c r="F17" t="n">
-        <v>144.6715016443645</v>
+        <v>137.921929684195</v>
       </c>
       <c r="G17" t="n">
-        <v>144.6715016443645</v>
+        <v>137.921929684195</v>
       </c>
       <c r="H17" t="n">
-        <v>144.6715016443645</v>
+        <v>137.921929684195</v>
       </c>
       <c r="I17" t="n">
-        <v>144.6715016443645</v>
+        <v>137.921929684195</v>
       </c>
       <c r="J17" t="n">
         <v>116.87419793854</v>
       </c>
       <c r="K17" t="n">
-        <v>91.88120483615118</v>
+        <v>91.88120483615114</v>
       </c>
       <c r="L17" t="n">
         <v>53.41568553442607</v>
@@ -28609,28 +28611,28 @@
         <v>135.6275415645501</v>
       </c>
       <c r="R17" t="n">
-        <v>144.6715016443645</v>
+        <v>137.921929684195</v>
       </c>
       <c r="S17" t="n">
-        <v>144.6715016443645</v>
+        <v>137.921929684195</v>
       </c>
       <c r="T17" t="n">
-        <v>144.6715016443645</v>
+        <v>137.921929684195</v>
       </c>
       <c r="U17" t="n">
-        <v>144.6715016443645</v>
+        <v>137.921929684195</v>
       </c>
       <c r="V17" t="n">
-        <v>144.6715016443645</v>
+        <v>137.921929684195</v>
       </c>
       <c r="W17" t="n">
-        <v>144.6715016443645</v>
+        <v>137.921929684195</v>
       </c>
       <c r="X17" t="n">
-        <v>144.6715016443645</v>
+        <v>137.921929684195</v>
       </c>
       <c r="Y17" t="n">
-        <v>144.6715016443645</v>
+        <v>137.921929684195</v>
       </c>
     </row>
     <row r="18">
@@ -28640,25 +28642,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>144.6715016443645</v>
+        <v>137.921929684195</v>
       </c>
       <c r="C18" t="n">
-        <v>144.6715016443645</v>
+        <v>137.921929684195</v>
       </c>
       <c r="D18" t="n">
-        <v>144.6715016443645</v>
+        <v>137.921929684195</v>
       </c>
       <c r="E18" t="n">
-        <v>144.6715016443645</v>
+        <v>137.921929684195</v>
       </c>
       <c r="F18" t="n">
-        <v>144.6715016443645</v>
+        <v>137.921929684195</v>
       </c>
       <c r="G18" t="n">
-        <v>144.6715016443645</v>
+        <v>137.921929684195</v>
       </c>
       <c r="H18" t="n">
-        <v>144.6715016443645</v>
+        <v>137.921929684195</v>
       </c>
       <c r="I18" t="n">
         <v>123.2359484578712</v>
@@ -28682,34 +28684,34 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>4.245097493356015</v>
+        <v>4.245097493356042</v>
       </c>
       <c r="Q18" t="n">
         <v>84.77581017613943</v>
       </c>
       <c r="R18" t="n">
-        <v>144.6715016443645</v>
+        <v>137.921929684195</v>
       </c>
       <c r="S18" t="n">
-        <v>144.6715016443645</v>
+        <v>137.921929684195</v>
       </c>
       <c r="T18" t="n">
-        <v>144.6715016443645</v>
+        <v>137.921929684195</v>
       </c>
       <c r="U18" t="n">
-        <v>144.6715016443645</v>
+        <v>137.921929684195</v>
       </c>
       <c r="V18" t="n">
-        <v>144.6715016443645</v>
+        <v>137.921929684195</v>
       </c>
       <c r="W18" t="n">
-        <v>144.6715016443645</v>
+        <v>137.921929684195</v>
       </c>
       <c r="X18" t="n">
-        <v>144.6715016443645</v>
+        <v>50.92933463482065</v>
       </c>
       <c r="Y18" t="n">
-        <v>144.6715016443645</v>
+        <v>137.921929684195</v>
       </c>
     </row>
     <row r="19">
@@ -28719,13 +28721,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>144.6715016443645</v>
+        <v>137.921929684195</v>
       </c>
       <c r="C19" t="n">
-        <v>144.6715016443645</v>
+        <v>137.921929684195</v>
       </c>
       <c r="D19" t="n">
-        <v>138.8631356105373</v>
+        <v>137.921929684195</v>
       </c>
       <c r="E19" t="n">
         <v>132.9174244808186</v>
@@ -28734,16 +28736,16 @@
         <v>126.9717133511</v>
       </c>
       <c r="G19" t="n">
-        <v>144.6715016443645</v>
+        <v>137.921929684195</v>
       </c>
       <c r="H19" t="n">
-        <v>144.6715016443645</v>
+        <v>137.921929684195</v>
       </c>
       <c r="I19" t="n">
-        <v>144.6715016443645</v>
+        <v>137.921929684195</v>
       </c>
       <c r="J19" t="n">
-        <v>140.1088610452264</v>
+        <v>137.921929684195</v>
       </c>
       <c r="K19" t="n">
         <v>100.7631485409216</v>
@@ -28764,31 +28766,31 @@
         <v>110.4602209616816</v>
       </c>
       <c r="Q19" t="n">
-        <v>144.6715016443645</v>
+        <v>137.921929684195</v>
       </c>
       <c r="R19" t="n">
-        <v>144.6715016443645</v>
+        <v>137.921929684195</v>
       </c>
       <c r="S19" t="n">
-        <v>144.6715016443645</v>
+        <v>137.921929684195</v>
       </c>
       <c r="T19" t="n">
-        <v>144.6715016443645</v>
+        <v>137.921929684195</v>
       </c>
       <c r="U19" t="n">
-        <v>144.6715016443645</v>
+        <v>137.921929684195</v>
       </c>
       <c r="V19" t="n">
-        <v>144.6715016443645</v>
+        <v>137.921929684195</v>
       </c>
       <c r="W19" t="n">
-        <v>144.6715016443645</v>
+        <v>137.921929684195</v>
       </c>
       <c r="X19" t="n">
-        <v>144.6715016443645</v>
+        <v>137.921929684195</v>
       </c>
       <c r="Y19" t="n">
-        <v>144.6715016443645</v>
+        <v>137.921929684195</v>
       </c>
     </row>
     <row r="20">
@@ -28798,28 +28800,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>144.6715016443646</v>
+        <v>137.921929684195</v>
       </c>
       <c r="C20" t="n">
-        <v>144.6715016443646</v>
+        <v>137.921929684195</v>
       </c>
       <c r="D20" t="n">
-        <v>144.6715016443646</v>
+        <v>137.921929684195</v>
       </c>
       <c r="E20" t="n">
-        <v>144.6715016443646</v>
+        <v>137.921929684195</v>
       </c>
       <c r="F20" t="n">
-        <v>144.6715016443646</v>
+        <v>137.921929684195</v>
       </c>
       <c r="G20" t="n">
-        <v>144.6715016443646</v>
+        <v>137.921929684195</v>
       </c>
       <c r="H20" t="n">
-        <v>144.6715016443646</v>
+        <v>137.921929684195</v>
       </c>
       <c r="I20" t="n">
-        <v>144.6715016443646</v>
+        <v>137.921929684195</v>
       </c>
       <c r="J20" t="n">
         <v>116.87419793854</v>
@@ -28831,7 +28833,7 @@
         <v>53.41568553442607</v>
       </c>
       <c r="M20" t="n">
-        <v>7.452579786414901</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -28846,28 +28848,28 @@
         <v>135.6275415645501</v>
       </c>
       <c r="R20" t="n">
-        <v>144.6715016443646</v>
+        <v>137.921929684195</v>
       </c>
       <c r="S20" t="n">
-        <v>144.6715016443646</v>
+        <v>137.921929684195</v>
       </c>
       <c r="T20" t="n">
-        <v>144.6715016443646</v>
+        <v>137.921929684195</v>
       </c>
       <c r="U20" t="n">
-        <v>144.6715016443646</v>
+        <v>137.921929684195</v>
       </c>
       <c r="V20" t="n">
-        <v>144.6715016443646</v>
+        <v>137.921929684195</v>
       </c>
       <c r="W20" t="n">
-        <v>144.6715016443646</v>
+        <v>137.921929684195</v>
       </c>
       <c r="X20" t="n">
-        <v>144.6715016443646</v>
+        <v>137.921929684195</v>
       </c>
       <c r="Y20" t="n">
-        <v>144.6715016443646</v>
+        <v>137.921929684195</v>
       </c>
     </row>
     <row r="21">
@@ -28877,25 +28879,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>144.6715016443646</v>
+        <v>137.921929684195</v>
       </c>
       <c r="C21" t="n">
-        <v>144.6715016443646</v>
+        <v>137.921929684195</v>
       </c>
       <c r="D21" t="n">
-        <v>144.6715016443646</v>
+        <v>137.921929684195</v>
       </c>
       <c r="E21" t="n">
-        <v>144.6715016443646</v>
+        <v>137.921929684195</v>
       </c>
       <c r="F21" t="n">
-        <v>144.6715016443646</v>
+        <v>137.921929684195</v>
       </c>
       <c r="G21" t="n">
-        <v>144.6715016443646</v>
+        <v>137.921929684195</v>
       </c>
       <c r="H21" t="n">
-        <v>144.6715016443646</v>
+        <v>137.921929684195</v>
       </c>
       <c r="I21" t="n">
         <v>123.2359484578712</v>
@@ -28925,28 +28927,28 @@
         <v>84.77581017613943</v>
       </c>
       <c r="R21" t="n">
-        <v>144.6715016443646</v>
+        <v>137.921929684195</v>
       </c>
       <c r="S21" t="n">
-        <v>144.6715016443646</v>
+        <v>137.921929684195</v>
       </c>
       <c r="T21" t="n">
-        <v>144.6715016443646</v>
+        <v>137.921929684195</v>
       </c>
       <c r="U21" t="n">
-        <v>144.6715016443646</v>
+        <v>137.921929684195</v>
       </c>
       <c r="V21" t="n">
-        <v>144.6715016443646</v>
+        <v>137.921929684195</v>
       </c>
       <c r="W21" t="n">
-        <v>144.6715016443646</v>
+        <v>137.921929684195</v>
       </c>
       <c r="X21" t="n">
-        <v>144.6715016443646</v>
+        <v>137.921929684195</v>
       </c>
       <c r="Y21" t="n">
-        <v>144.6715016443646</v>
+        <v>64.92049857346738</v>
       </c>
     </row>
     <row r="22">
@@ -28956,31 +28958,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>144.6715016443646</v>
+        <v>137.921929684195</v>
       </c>
       <c r="C22" t="n">
-        <v>144.6715016443646</v>
+        <v>137.921929684195</v>
       </c>
       <c r="D22" t="n">
-        <v>138.8631356105373</v>
+        <v>137.921929684195</v>
       </c>
       <c r="E22" t="n">
-        <v>132.9174244808157</v>
+        <v>132.9174244808186</v>
       </c>
       <c r="F22" t="n">
         <v>126.9717133511</v>
       </c>
       <c r="G22" t="n">
-        <v>144.6715016443646</v>
+        <v>137.921929684195</v>
       </c>
       <c r="H22" t="n">
-        <v>144.6715016443646</v>
+        <v>137.921929684195</v>
       </c>
       <c r="I22" t="n">
-        <v>144.6715016443646</v>
+        <v>137.921929684195</v>
       </c>
       <c r="J22" t="n">
-        <v>140.1088610452264</v>
+        <v>137.921929684195</v>
       </c>
       <c r="K22" t="n">
         <v>100.7631485409216</v>
@@ -29001,31 +29003,31 @@
         <v>110.4602209616816</v>
       </c>
       <c r="Q22" t="n">
-        <v>144.6715016443646</v>
+        <v>137.921929684195</v>
       </c>
       <c r="R22" t="n">
-        <v>144.6715016443646</v>
+        <v>137.921929684195</v>
       </c>
       <c r="S22" t="n">
-        <v>144.6715016443646</v>
+        <v>137.921929684195</v>
       </c>
       <c r="T22" t="n">
-        <v>144.6715016443646</v>
+        <v>137.921929684195</v>
       </c>
       <c r="U22" t="n">
-        <v>144.6715016443646</v>
+        <v>137.921929684195</v>
       </c>
       <c r="V22" t="n">
-        <v>144.6715016443646</v>
+        <v>137.921929684195</v>
       </c>
       <c r="W22" t="n">
-        <v>144.6715016443646</v>
+        <v>137.921929684195</v>
       </c>
       <c r="X22" t="n">
-        <v>144.6715016443646</v>
+        <v>137.921929684195</v>
       </c>
       <c r="Y22" t="n">
-        <v>144.6715016443646</v>
+        <v>137.921929684195</v>
       </c>
     </row>
     <row r="23">
@@ -29035,28 +29037,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>144.6715016443646</v>
+        <v>144.6715016443645</v>
       </c>
       <c r="C23" t="n">
-        <v>144.6715016443646</v>
+        <v>144.6715016443645</v>
       </c>
       <c r="D23" t="n">
-        <v>144.6715016443646</v>
+        <v>144.6715016443645</v>
       </c>
       <c r="E23" t="n">
-        <v>144.6715016443646</v>
+        <v>144.6715016443645</v>
       </c>
       <c r="F23" t="n">
-        <v>144.6715016443646</v>
+        <v>144.6715016443645</v>
       </c>
       <c r="G23" t="n">
-        <v>144.6715016443646</v>
+        <v>144.6715016443645</v>
       </c>
       <c r="H23" t="n">
-        <v>144.6715016443646</v>
+        <v>144.6715016443645</v>
       </c>
       <c r="I23" t="n">
-        <v>144.6715016443646</v>
+        <v>144.6715016443645</v>
       </c>
       <c r="J23" t="n">
         <v>116.87419793854</v>
@@ -29074,37 +29076,37 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>21.8886863910163</v>
+        <v>21.88868639101628</v>
       </c>
       <c r="P23" t="n">
-        <v>75.31191812490519</v>
+        <v>75.31191812490522</v>
       </c>
       <c r="Q23" t="n">
         <v>135.6275415645501</v>
       </c>
       <c r="R23" t="n">
-        <v>144.6715016443646</v>
+        <v>144.6715016443645</v>
       </c>
       <c r="S23" t="n">
-        <v>144.6715016443646</v>
+        <v>144.6715016443645</v>
       </c>
       <c r="T23" t="n">
-        <v>144.6715016443646</v>
+        <v>144.6715016443645</v>
       </c>
       <c r="U23" t="n">
-        <v>144.6715016443646</v>
+        <v>144.6715016443645</v>
       </c>
       <c r="V23" t="n">
-        <v>144.6715016443646</v>
+        <v>144.6715016443645</v>
       </c>
       <c r="W23" t="n">
-        <v>144.6715016443646</v>
+        <v>144.6715016443645</v>
       </c>
       <c r="X23" t="n">
-        <v>144.6715016443646</v>
+        <v>144.6715016443645</v>
       </c>
       <c r="Y23" t="n">
-        <v>144.6715016443646</v>
+        <v>144.6715016443645</v>
       </c>
     </row>
     <row r="24">
@@ -29114,25 +29116,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>144.6715016443646</v>
+        <v>144.6715016443645</v>
       </c>
       <c r="C24" t="n">
-        <v>144.6715016443646</v>
+        <v>144.6715016443645</v>
       </c>
       <c r="D24" t="n">
-        <v>144.6715016443646</v>
+        <v>144.6715016443645</v>
       </c>
       <c r="E24" t="n">
-        <v>144.6715016443646</v>
+        <v>144.6715016443645</v>
       </c>
       <c r="F24" t="n">
-        <v>144.6715016443646</v>
+        <v>144.6715016443645</v>
       </c>
       <c r="G24" t="n">
-        <v>144.6715016443646</v>
+        <v>144.6715016443645</v>
       </c>
       <c r="H24" t="n">
-        <v>144.6715016443646</v>
+        <v>144.6715016443645</v>
       </c>
       <c r="I24" t="n">
         <v>123.2359484578712</v>
@@ -29162,28 +29164,28 @@
         <v>84.77581017613943</v>
       </c>
       <c r="R24" t="n">
-        <v>144.6715016443646</v>
+        <v>144.6715016443645</v>
       </c>
       <c r="S24" t="n">
-        <v>144.6715016443646</v>
+        <v>144.6715016443645</v>
       </c>
       <c r="T24" t="n">
-        <v>144.6715016443646</v>
+        <v>144.6715016443645</v>
       </c>
       <c r="U24" t="n">
-        <v>144.6715016443646</v>
+        <v>144.6715016443645</v>
       </c>
       <c r="V24" t="n">
-        <v>144.6715016443646</v>
+        <v>144.6715016443645</v>
       </c>
       <c r="W24" t="n">
-        <v>144.6715016443646</v>
+        <v>144.6715016443645</v>
       </c>
       <c r="X24" t="n">
-        <v>144.6715016443646</v>
+        <v>144.6715016443645</v>
       </c>
       <c r="Y24" t="n">
-        <v>144.6715016443646</v>
+        <v>144.6715016443645</v>
       </c>
     </row>
     <row r="25">
@@ -29193,10 +29195,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>144.6715016443646</v>
+        <v>144.6715016443645</v>
       </c>
       <c r="C25" t="n">
-        <v>144.6715016443646</v>
+        <v>144.6715016443645</v>
       </c>
       <c r="D25" t="n">
         <v>138.8631356105373</v>
@@ -29208,13 +29210,13 @@
         <v>126.9717133511</v>
       </c>
       <c r="G25" t="n">
-        <v>144.6715016443646</v>
+        <v>144.6715016443645</v>
       </c>
       <c r="H25" t="n">
-        <v>144.6715016443646</v>
+        <v>144.6715016443645</v>
       </c>
       <c r="I25" t="n">
-        <v>144.6715016443646</v>
+        <v>144.6715016443645</v>
       </c>
       <c r="J25" t="n">
         <v>140.1088610452264</v>
@@ -29238,31 +29240,31 @@
         <v>110.4602209616816</v>
       </c>
       <c r="Q25" t="n">
-        <v>144.6715016443646</v>
+        <v>144.6715016443645</v>
       </c>
       <c r="R25" t="n">
-        <v>144.6715016443646</v>
+        <v>144.6715016443645</v>
       </c>
       <c r="S25" t="n">
-        <v>144.6715016443646</v>
+        <v>144.6715016443645</v>
       </c>
       <c r="T25" t="n">
-        <v>144.6715016443646</v>
+        <v>144.6715016443645</v>
       </c>
       <c r="U25" t="n">
-        <v>144.6715016443646</v>
+        <v>144.6715016443645</v>
       </c>
       <c r="V25" t="n">
-        <v>144.6715016443646</v>
+        <v>144.6715016443645</v>
       </c>
       <c r="W25" t="n">
-        <v>144.6715016443646</v>
+        <v>144.6715016443645</v>
       </c>
       <c r="X25" t="n">
-        <v>144.6715016443646</v>
+        <v>144.6715016443645</v>
       </c>
       <c r="Y25" t="n">
-        <v>144.6715016443646</v>
+        <v>144.6715016443645</v>
       </c>
     </row>
     <row r="26">
@@ -29272,28 +29274,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>139.5294268021236</v>
+        <v>144.6715016443647</v>
       </c>
       <c r="C26" t="n">
-        <v>139.5294268021236</v>
+        <v>144.6715016443647</v>
       </c>
       <c r="D26" t="n">
-        <v>139.5294268021236</v>
+        <v>144.6715016443647</v>
       </c>
       <c r="E26" t="n">
-        <v>139.5294268021236</v>
+        <v>144.6715016443647</v>
       </c>
       <c r="F26" t="n">
-        <v>139.5294268021236</v>
+        <v>144.6715016443647</v>
       </c>
       <c r="G26" t="n">
-        <v>139.5294268021236</v>
+        <v>144.6715016443647</v>
       </c>
       <c r="H26" t="n">
-        <v>139.5294268021236</v>
+        <v>144.6715016443647</v>
       </c>
       <c r="I26" t="n">
-        <v>139.5294268021236</v>
+        <v>144.6715016443647</v>
       </c>
       <c r="J26" t="n">
         <v>116.87419793854</v>
@@ -29311,37 +29313,37 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>21.88868639101628</v>
       </c>
       <c r="P26" t="n">
         <v>75.31191812490522</v>
       </c>
       <c r="Q26" t="n">
-        <v>121.6705682797007</v>
+        <v>135.6275415645501</v>
       </c>
       <c r="R26" t="n">
-        <v>139.5294268021236</v>
+        <v>144.6715016443647</v>
       </c>
       <c r="S26" t="n">
-        <v>139.5294268021236</v>
+        <v>144.6715016443647</v>
       </c>
       <c r="T26" t="n">
-        <v>139.5294268021236</v>
+        <v>144.6715016443647</v>
       </c>
       <c r="U26" t="n">
-        <v>139.5294268021236</v>
+        <v>144.6715016443647</v>
       </c>
       <c r="V26" t="n">
-        <v>139.5294268021236</v>
+        <v>144.6715016443647</v>
       </c>
       <c r="W26" t="n">
-        <v>139.5294268021236</v>
+        <v>144.6715016443647</v>
       </c>
       <c r="X26" t="n">
-        <v>139.5294268021236</v>
+        <v>144.6715016443647</v>
       </c>
       <c r="Y26" t="n">
-        <v>139.5294268021236</v>
+        <v>144.6715016443647</v>
       </c>
     </row>
     <row r="27">
@@ -29351,25 +29353,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>139.5294268021236</v>
+        <v>144.6715016443647</v>
       </c>
       <c r="C27" t="n">
-        <v>139.5294268021236</v>
+        <v>144.6715016443647</v>
       </c>
       <c r="D27" t="n">
-        <v>139.5294268021236</v>
+        <v>144.6715016443647</v>
       </c>
       <c r="E27" t="n">
-        <v>139.5294268021236</v>
+        <v>144.6715016443647</v>
       </c>
       <c r="F27" t="n">
-        <v>139.5294268021236</v>
+        <v>144.6715016443647</v>
       </c>
       <c r="G27" t="n">
-        <v>139.5294268021236</v>
+        <v>144.6715016443647</v>
       </c>
       <c r="H27" t="n">
-        <v>139.5294268021236</v>
+        <v>144.6715016443647</v>
       </c>
       <c r="I27" t="n">
         <v>123.2359484578712</v>
@@ -29378,7 +29380,7 @@
         <v>100.4973517299579</v>
       </c>
       <c r="K27" t="n">
-        <v>43.48154656593752</v>
+        <v>43.48154656593864</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -29399,28 +29401,28 @@
         <v>84.77581017613943</v>
       </c>
       <c r="R27" t="n">
-        <v>139.5294268021236</v>
+        <v>144.6715016443647</v>
       </c>
       <c r="S27" t="n">
-        <v>139.5294268021236</v>
+        <v>144.6715016443647</v>
       </c>
       <c r="T27" t="n">
-        <v>139.5294268021236</v>
+        <v>144.6715016443647</v>
       </c>
       <c r="U27" t="n">
-        <v>139.5294268021236</v>
+        <v>144.6715016443647</v>
       </c>
       <c r="V27" t="n">
-        <v>139.5294268021236</v>
+        <v>144.6715016443647</v>
       </c>
       <c r="W27" t="n">
-        <v>139.5294268021236</v>
+        <v>144.6715016443647</v>
       </c>
       <c r="X27" t="n">
-        <v>139.5294268021236</v>
+        <v>144.6715016443647</v>
       </c>
       <c r="Y27" t="n">
-        <v>139.5294268021236</v>
+        <v>144.6715016443647</v>
       </c>
     </row>
     <row r="28">
@@ -29430,10 +29432,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>139.5294268021236</v>
+        <v>144.6715016443647</v>
       </c>
       <c r="C28" t="n">
-        <v>139.5294268021236</v>
+        <v>144.6715016443647</v>
       </c>
       <c r="D28" t="n">
         <v>138.8631356105373</v>
@@ -29445,16 +29447,16 @@
         <v>126.9717133511</v>
       </c>
       <c r="G28" t="n">
-        <v>139.5294268021236</v>
+        <v>144.6715016443647</v>
       </c>
       <c r="H28" t="n">
-        <v>139.5294268021236</v>
+        <v>144.6715016443647</v>
       </c>
       <c r="I28" t="n">
-        <v>139.5294268021236</v>
+        <v>144.6715016443647</v>
       </c>
       <c r="J28" t="n">
-        <v>139.5294268021236</v>
+        <v>140.1088610452264</v>
       </c>
       <c r="K28" t="n">
         <v>100.7631485409216</v>
@@ -29475,31 +29477,31 @@
         <v>110.4602209616816</v>
       </c>
       <c r="Q28" t="n">
-        <v>139.5294268021236</v>
+        <v>144.6715016443647</v>
       </c>
       <c r="R28" t="n">
-        <v>139.5294268021236</v>
+        <v>144.6715016443647</v>
       </c>
       <c r="S28" t="n">
-        <v>139.5294268021236</v>
+        <v>144.6715016443647</v>
       </c>
       <c r="T28" t="n">
-        <v>139.5294268021236</v>
+        <v>144.6715016443647</v>
       </c>
       <c r="U28" t="n">
-        <v>139.5294268021236</v>
+        <v>144.6715016443647</v>
       </c>
       <c r="V28" t="n">
-        <v>139.5294268021236</v>
+        <v>144.6715016443647</v>
       </c>
       <c r="W28" t="n">
-        <v>139.5294268021236</v>
+        <v>144.6715016443647</v>
       </c>
       <c r="X28" t="n">
-        <v>139.5294268021236</v>
+        <v>144.6715016443647</v>
       </c>
       <c r="Y28" t="n">
-        <v>139.5294268021236</v>
+        <v>144.6715016443647</v>
       </c>
     </row>
     <row r="29">
@@ -29633,7 +29635,7 @@
         <v>4.245097493356042</v>
       </c>
       <c r="Q30" t="n">
-        <v>84.77581017613943</v>
+        <v>84.77581017614169</v>
       </c>
       <c r="R30" t="n">
         <v>144.6715016443647</v>
@@ -29867,7 +29869,7 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>4.245097493356042</v>
+        <v>4.245097493356916</v>
       </c>
       <c r="Q33" t="n">
         <v>84.77581017613943</v>
@@ -29983,28 +29985,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>144.6715016443646</v>
+        <v>144.6715016443647</v>
       </c>
       <c r="C35" t="n">
-        <v>144.6715016443646</v>
+        <v>144.6715016443647</v>
       </c>
       <c r="D35" t="n">
-        <v>144.6715016443646</v>
+        <v>144.6715016443647</v>
       </c>
       <c r="E35" t="n">
-        <v>144.6715016443646</v>
+        <v>144.6715016443647</v>
       </c>
       <c r="F35" t="n">
-        <v>144.6715016443646</v>
+        <v>144.6715016443647</v>
       </c>
       <c r="G35" t="n">
-        <v>144.6715016443646</v>
+        <v>144.6715016443647</v>
       </c>
       <c r="H35" t="n">
-        <v>144.6715016443646</v>
+        <v>144.6715016443647</v>
       </c>
       <c r="I35" t="n">
-        <v>144.6715016443646</v>
+        <v>144.6715016443647</v>
       </c>
       <c r="J35" t="n">
         <v>116.87419793854</v>
@@ -30031,28 +30033,28 @@
         <v>135.6275415645501</v>
       </c>
       <c r="R35" t="n">
-        <v>144.6715016443646</v>
+        <v>144.6715016443647</v>
       </c>
       <c r="S35" t="n">
-        <v>144.6715016443646</v>
+        <v>144.6715016443647</v>
       </c>
       <c r="T35" t="n">
-        <v>144.6715016443646</v>
+        <v>144.6715016443647</v>
       </c>
       <c r="U35" t="n">
-        <v>144.6715016443646</v>
+        <v>144.6715016443647</v>
       </c>
       <c r="V35" t="n">
-        <v>144.6715016443646</v>
+        <v>144.6715016443647</v>
       </c>
       <c r="W35" t="n">
-        <v>144.6715016443646</v>
+        <v>144.6715016443647</v>
       </c>
       <c r="X35" t="n">
-        <v>144.6715016443646</v>
+        <v>144.6715016443647</v>
       </c>
       <c r="Y35" t="n">
-        <v>144.6715016443646</v>
+        <v>144.6715016443647</v>
       </c>
     </row>
     <row r="36">
@@ -30062,25 +30064,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>144.6715016443646</v>
+        <v>144.6715016443647</v>
       </c>
       <c r="C36" t="n">
-        <v>144.6715016443646</v>
+        <v>144.6715016443647</v>
       </c>
       <c r="D36" t="n">
-        <v>144.6715016443646</v>
+        <v>144.6715016443647</v>
       </c>
       <c r="E36" t="n">
-        <v>144.6715016443646</v>
+        <v>144.6715016443647</v>
       </c>
       <c r="F36" t="n">
-        <v>144.6715016443646</v>
+        <v>144.6715016443647</v>
       </c>
       <c r="G36" t="n">
-        <v>144.6715016443646</v>
+        <v>144.6715016443647</v>
       </c>
       <c r="H36" t="n">
-        <v>144.6715016443646</v>
+        <v>144.6715016443647</v>
       </c>
       <c r="I36" t="n">
         <v>123.2359484578712</v>
@@ -30110,28 +30112,28 @@
         <v>84.77581017613943</v>
       </c>
       <c r="R36" t="n">
-        <v>144.6715016443646</v>
+        <v>144.6715016443647</v>
       </c>
       <c r="S36" t="n">
-        <v>144.6715016443646</v>
+        <v>144.6715016443647</v>
       </c>
       <c r="T36" t="n">
-        <v>144.6715016443646</v>
+        <v>144.6715016443647</v>
       </c>
       <c r="U36" t="n">
-        <v>144.6715016443646</v>
+        <v>144.6715016443647</v>
       </c>
       <c r="V36" t="n">
-        <v>144.6715016443646</v>
+        <v>144.6715016443647</v>
       </c>
       <c r="W36" t="n">
-        <v>144.6715016443646</v>
+        <v>144.6715016443647</v>
       </c>
       <c r="X36" t="n">
-        <v>144.6715016443646</v>
+        <v>144.6715016443647</v>
       </c>
       <c r="Y36" t="n">
-        <v>144.6715016443646</v>
+        <v>144.6715016443647</v>
       </c>
     </row>
     <row r="37">
@@ -30141,10 +30143,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>144.6715016443646</v>
+        <v>144.6715016443647</v>
       </c>
       <c r="C37" t="n">
-        <v>144.6715016443646</v>
+        <v>144.6715016443647</v>
       </c>
       <c r="D37" t="n">
         <v>138.8631356105373</v>
@@ -30156,13 +30158,13 @@
         <v>126.9717133511</v>
       </c>
       <c r="G37" t="n">
-        <v>144.6715016443646</v>
+        <v>144.6715016443647</v>
       </c>
       <c r="H37" t="n">
-        <v>144.6715016443646</v>
+        <v>144.6715016443647</v>
       </c>
       <c r="I37" t="n">
-        <v>144.6715016443646</v>
+        <v>144.6715016443647</v>
       </c>
       <c r="J37" t="n">
         <v>140.1088610452264</v>
@@ -30177,7 +30179,7 @@
         <v>78.84701260891001</v>
       </c>
       <c r="N37" t="n">
-        <v>64.0747527422576</v>
+        <v>64.07475274226042</v>
       </c>
       <c r="O37" t="n">
         <v>92.52559636191177</v>
@@ -30186,31 +30188,31 @@
         <v>110.4602209616816</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.6715016443646</v>
+        <v>144.6715016443647</v>
       </c>
       <c r="R37" t="n">
-        <v>144.6715016443646</v>
+        <v>144.6715016443647</v>
       </c>
       <c r="S37" t="n">
-        <v>144.6715016443646</v>
+        <v>144.6715016443647</v>
       </c>
       <c r="T37" t="n">
-        <v>144.6715016443646</v>
+        <v>144.6715016443647</v>
       </c>
       <c r="U37" t="n">
-        <v>144.6715016443646</v>
+        <v>144.6715016443647</v>
       </c>
       <c r="V37" t="n">
-        <v>144.6715016443646</v>
+        <v>144.6715016443647</v>
       </c>
       <c r="W37" t="n">
-        <v>144.6715016443646</v>
+        <v>144.6715016443647</v>
       </c>
       <c r="X37" t="n">
-        <v>144.6715016443646</v>
+        <v>144.6715016443647</v>
       </c>
       <c r="Y37" t="n">
-        <v>144.6715016443646</v>
+        <v>144.6715016443647</v>
       </c>
     </row>
     <row r="38">
@@ -30220,28 +30222,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>144.6715016443646</v>
+        <v>137.9219296841952</v>
       </c>
       <c r="C38" t="n">
-        <v>144.6715016443646</v>
+        <v>137.9219296841952</v>
       </c>
       <c r="D38" t="n">
-        <v>144.6715016443646</v>
+        <v>137.9219296841952</v>
       </c>
       <c r="E38" t="n">
-        <v>144.6715016443646</v>
+        <v>137.9219296841952</v>
       </c>
       <c r="F38" t="n">
-        <v>144.6715016443646</v>
+        <v>137.9219296841952</v>
       </c>
       <c r="G38" t="n">
-        <v>144.6715016443646</v>
+        <v>137.9219296841952</v>
       </c>
       <c r="H38" t="n">
-        <v>144.6715016443646</v>
+        <v>137.9219296841952</v>
       </c>
       <c r="I38" t="n">
-        <v>144.6715016443646</v>
+        <v>137.9219296841952</v>
       </c>
       <c r="J38" t="n">
         <v>116.87419793854</v>
@@ -30253,7 +30255,7 @@
         <v>53.41568553442607</v>
       </c>
       <c r="M38" t="n">
-        <v>7.452579786414881</v>
+        <v>7.452579786414901</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -30268,28 +30270,28 @@
         <v>135.6275415645501</v>
       </c>
       <c r="R38" t="n">
-        <v>144.6715016443646</v>
+        <v>137.9219296841952</v>
       </c>
       <c r="S38" t="n">
-        <v>144.6715016443646</v>
+        <v>137.9219296841952</v>
       </c>
       <c r="T38" t="n">
-        <v>144.6715016443646</v>
+        <v>137.9219296841952</v>
       </c>
       <c r="U38" t="n">
-        <v>144.6715016443646</v>
+        <v>137.9219296841952</v>
       </c>
       <c r="V38" t="n">
-        <v>144.6715016443646</v>
+        <v>137.9219296841952</v>
       </c>
       <c r="W38" t="n">
-        <v>144.6715016443646</v>
+        <v>137.9219296841952</v>
       </c>
       <c r="X38" t="n">
-        <v>144.6715016443646</v>
+        <v>137.9219296841952</v>
       </c>
       <c r="Y38" t="n">
-        <v>144.6715016443646</v>
+        <v>137.9219296841952</v>
       </c>
     </row>
     <row r="39">
@@ -30299,25 +30301,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>144.6715016443646</v>
+        <v>137.9219296841952</v>
       </c>
       <c r="C39" t="n">
-        <v>144.6715016443646</v>
+        <v>137.9219296841952</v>
       </c>
       <c r="D39" t="n">
-        <v>144.6715016443646</v>
+        <v>137.9219296841952</v>
       </c>
       <c r="E39" t="n">
-        <v>144.6715016443646</v>
+        <v>137.9219296841952</v>
       </c>
       <c r="F39" t="n">
-        <v>144.6715016443646</v>
+        <v>137.9219296841952</v>
       </c>
       <c r="G39" t="n">
-        <v>144.6715016443646</v>
+        <v>137.9219296841952</v>
       </c>
       <c r="H39" t="n">
-        <v>144.6715016443646</v>
+        <v>137.9219296841952</v>
       </c>
       <c r="I39" t="n">
         <v>123.2359484578712</v>
@@ -30326,7 +30328,7 @@
         <v>100.4973517299579</v>
       </c>
       <c r="K39" t="n">
-        <v>43.4815465659375</v>
+        <v>43.48154656593752</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -30347,28 +30349,28 @@
         <v>84.77581017613943</v>
       </c>
       <c r="R39" t="n">
-        <v>144.6715016443646</v>
+        <v>137.9219296841952</v>
       </c>
       <c r="S39" t="n">
-        <v>144.6715016443646</v>
+        <v>137.9219296841952</v>
       </c>
       <c r="T39" t="n">
-        <v>144.6715016443646</v>
+        <v>137.9219296841952</v>
       </c>
       <c r="U39" t="n">
-        <v>144.6715016443646</v>
+        <v>137.9219296841952</v>
       </c>
       <c r="V39" t="n">
-        <v>144.6715016443646</v>
+        <v>137.9219296841952</v>
       </c>
       <c r="W39" t="n">
-        <v>144.6715016443646</v>
+        <v>137.9219296841952</v>
       </c>
       <c r="X39" t="n">
-        <v>144.6715016443646</v>
+        <v>137.9219296841952</v>
       </c>
       <c r="Y39" t="n">
-        <v>144.6715016443646</v>
+        <v>137.9219296841952</v>
       </c>
     </row>
     <row r="40">
@@ -30378,31 +30380,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>144.6715016443646</v>
+        <v>137.9219296841952</v>
       </c>
       <c r="C40" t="n">
-        <v>144.6715016443646</v>
+        <v>137.9219296841952</v>
       </c>
       <c r="D40" t="n">
-        <v>138.8631356105373</v>
+        <v>137.9219296841952</v>
       </c>
       <c r="E40" t="n">
         <v>132.9174244808186</v>
       </c>
       <c r="F40" t="n">
-        <v>126.9717133511</v>
+        <v>65.81039179245836</v>
       </c>
       <c r="G40" t="n">
-        <v>144.6715016443646</v>
+        <v>137.9219296841952</v>
       </c>
       <c r="H40" t="n">
-        <v>144.6715016443646</v>
+        <v>137.9219296841952</v>
       </c>
       <c r="I40" t="n">
-        <v>144.6715016443646</v>
+        <v>137.9219296841952</v>
       </c>
       <c r="J40" t="n">
-        <v>140.1088610452264</v>
+        <v>137.9219296841952</v>
       </c>
       <c r="K40" t="n">
         <v>100.7631485409216</v>
@@ -30417,37 +30419,37 @@
         <v>64.0747527422576</v>
       </c>
       <c r="O40" t="n">
-        <v>92.52559636191177</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
         <v>110.4602209616816</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.6715016443646</v>
+        <v>137.9219296841952</v>
       </c>
       <c r="R40" t="n">
-        <v>144.6715016443646</v>
+        <v>137.9219296841952</v>
       </c>
       <c r="S40" t="n">
-        <v>144.6715016443646</v>
+        <v>137.9219296841952</v>
       </c>
       <c r="T40" t="n">
-        <v>144.6715016443646</v>
+        <v>137.9219296841952</v>
       </c>
       <c r="U40" t="n">
-        <v>144.6715016443646</v>
+        <v>137.9219296841952</v>
       </c>
       <c r="V40" t="n">
-        <v>144.6715016443646</v>
+        <v>137.9219296841952</v>
       </c>
       <c r="W40" t="n">
-        <v>144.6715016443646</v>
+        <v>137.9219296841952</v>
       </c>
       <c r="X40" t="n">
-        <v>144.6715016443646</v>
+        <v>137.9219296841952</v>
       </c>
       <c r="Y40" t="n">
-        <v>144.6715016443646</v>
+        <v>137.9219296841952</v>
       </c>
     </row>
     <row r="41">
@@ -30457,76 +30459,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>144.6715016443645</v>
+        <v>14.6859812263239</v>
       </c>
       <c r="C41" t="n">
-        <v>144.6715016443645</v>
+        <v>14.6859812263239</v>
       </c>
       <c r="D41" t="n">
-        <v>144.6715016443645</v>
+        <v>14.6859812263239</v>
       </c>
       <c r="E41" t="n">
-        <v>144.6715016443645</v>
+        <v>14.6859812263239</v>
       </c>
       <c r="F41" t="n">
-        <v>144.6715016443645</v>
+        <v>14.6859812263239</v>
       </c>
       <c r="G41" t="n">
-        <v>144.6715016443645</v>
+        <v>14.6859812263239</v>
       </c>
       <c r="H41" t="n">
-        <v>144.6715016443645</v>
+        <v>14.6859812263239</v>
       </c>
       <c r="I41" t="n">
-        <v>144.6715016443645</v>
+        <v>14.6859812263239</v>
       </c>
       <c r="J41" t="n">
-        <v>116.87419793854</v>
+        <v>14.6859812263239</v>
       </c>
       <c r="K41" t="n">
-        <v>91.88120483615114</v>
+        <v>14.6859812263239</v>
       </c>
       <c r="L41" t="n">
-        <v>53.41568553442607</v>
+        <v>14.6859812263239</v>
       </c>
       <c r="M41" t="n">
-        <v>7.452579786414901</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>21.88868639101628</v>
+        <v>14.6859812263239</v>
       </c>
       <c r="P41" t="n">
-        <v>75.31191812490522</v>
+        <v>14.6859812263239</v>
       </c>
       <c r="Q41" t="n">
-        <v>135.6275415645501</v>
+        <v>14.6859812263239</v>
       </c>
       <c r="R41" t="n">
-        <v>144.6715016443645</v>
+        <v>14.6859812263239</v>
       </c>
       <c r="S41" t="n">
-        <v>144.6715016443645</v>
+        <v>14.6859812263239</v>
       </c>
       <c r="T41" t="n">
-        <v>144.6715016443645</v>
+        <v>14.6859812263239</v>
       </c>
       <c r="U41" t="n">
-        <v>144.6715016443645</v>
+        <v>14.6859812263239</v>
       </c>
       <c r="V41" t="n">
-        <v>144.6715016443645</v>
+        <v>14.6859812263239</v>
       </c>
       <c r="W41" t="n">
-        <v>144.6715016443645</v>
+        <v>14.6859812263239</v>
       </c>
       <c r="X41" t="n">
-        <v>144.6715016443645</v>
+        <v>14.6859812263239</v>
       </c>
       <c r="Y41" t="n">
-        <v>144.6715016443645</v>
+        <v>14.6859812263239</v>
       </c>
     </row>
     <row r="42">
@@ -30536,34 +30538,34 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>144.6715016443645</v>
+        <v>14.6859812263239</v>
       </c>
       <c r="C42" t="n">
-        <v>144.6715016443645</v>
+        <v>6.838661922737199</v>
       </c>
       <c r="D42" t="n">
-        <v>144.6715016443645</v>
+        <v>14.6859812263239</v>
       </c>
       <c r="E42" t="n">
-        <v>144.6715016443645</v>
+        <v>14.6859812263239</v>
       </c>
       <c r="F42" t="n">
-        <v>144.6715016443645</v>
+        <v>14.6859812263239</v>
       </c>
       <c r="G42" t="n">
-        <v>144.6715016443645</v>
+        <v>14.6859812263239</v>
       </c>
       <c r="H42" t="n">
-        <v>144.6715016443645</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>123.2359484578712</v>
+        <v>14.6859812263239</v>
       </c>
       <c r="J42" t="n">
-        <v>100.4973517299579</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>43.48154656593752</v>
+        <v>14.6859812263239</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -30578,34 +30580,34 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>4.245097493356015</v>
+        <v>4.245097493356042</v>
       </c>
       <c r="Q42" t="n">
-        <v>84.77581017613943</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>144.6715016443645</v>
+        <v>14.6859812263239</v>
       </c>
       <c r="S42" t="n">
-        <v>144.6715016443645</v>
+        <v>14.6859812263239</v>
       </c>
       <c r="T42" t="n">
-        <v>144.6715016443645</v>
+        <v>14.6859812263239</v>
       </c>
       <c r="U42" t="n">
-        <v>144.6715016443645</v>
+        <v>14.6859812263239</v>
       </c>
       <c r="V42" t="n">
-        <v>144.6715016443645</v>
+        <v>14.6859812263239</v>
       </c>
       <c r="W42" t="n">
-        <v>144.6715016443645</v>
+        <v>14.6859812263239</v>
       </c>
       <c r="X42" t="n">
-        <v>144.6715016443645</v>
+        <v>14.6859812263239</v>
       </c>
       <c r="Y42" t="n">
-        <v>144.6715016443645</v>
+        <v>14.6859812263239</v>
       </c>
     </row>
     <row r="43">
@@ -30615,76 +30617,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>144.6715016443645</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>144.6715016443645</v>
+        <v>14.6859812263239</v>
       </c>
       <c r="D43" t="n">
-        <v>138.8631356105373</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>132.9174244808186</v>
+        <v>14.6859812263239</v>
       </c>
       <c r="F43" t="n">
-        <v>126.9717133511</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>144.6715016443645</v>
+        <v>14.6859812263239</v>
       </c>
       <c r="H43" t="n">
-        <v>144.6715016443645</v>
+        <v>14.6859812263239</v>
       </c>
       <c r="I43" t="n">
-        <v>144.6715016443645</v>
+        <v>14.6859812263239</v>
       </c>
       <c r="J43" t="n">
-        <v>140.1088610452264</v>
+        <v>14.6859812263239</v>
       </c>
       <c r="K43" t="n">
-        <v>100.7631485409216</v>
+        <v>14.6859812263239</v>
       </c>
       <c r="L43" t="n">
-        <v>79.85433933586287</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>78.84701260891001</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>64.0747527422576</v>
+        <v>14.6859812263239</v>
       </c>
       <c r="O43" t="n">
-        <v>92.52559636191177</v>
+        <v>14.6859812263239</v>
       </c>
       <c r="P43" t="n">
-        <v>110.4602209616816</v>
+        <v>14.6859812263239</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.6715016443645</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>144.6715016443645</v>
+        <v>14.6859812263239</v>
       </c>
       <c r="S43" t="n">
-        <v>144.6715016443645</v>
+        <v>14.6859812263239</v>
       </c>
       <c r="T43" t="n">
-        <v>144.6715016443645</v>
+        <v>14.6859812263239</v>
       </c>
       <c r="U43" t="n">
-        <v>144.6715016443645</v>
+        <v>14.6859812263239</v>
       </c>
       <c r="V43" t="n">
-        <v>144.6715016443645</v>
+        <v>14.6859812263239</v>
       </c>
       <c r="W43" t="n">
-        <v>144.6715016443645</v>
+        <v>14.6859812263239</v>
       </c>
       <c r="X43" t="n">
-        <v>144.6715016443645</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>144.6715016443645</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -36261,7 +36263,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>-2.899014361901209e-12</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/0/Output_4_34.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/0/Output_4_34.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2177042.197878844</v>
+        <v>2128647.140406381</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10791456.43481704</v>
+        <v>10626100.04206371</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7667915.026985904</v>
+        <v>7687445.879360694</v>
       </c>
     </row>
     <row r="11">
@@ -23257,28 +23257,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>234.933685007748</v>
+        <v>215.5286286457696</v>
       </c>
       <c r="C11" t="n">
-        <v>322.4677940726305</v>
+        <v>179.8267892527809</v>
       </c>
       <c r="D11" t="n">
-        <v>183.4048148149262</v>
+        <v>163.9997584529478</v>
       </c>
       <c r="E11" t="n">
-        <v>229.0027795387495</v>
+        <v>209.5977231767711</v>
       </c>
       <c r="F11" t="n">
-        <v>273.8792765832289</v>
+        <v>253.7895974511289</v>
       </c>
       <c r="G11" t="n">
-        <v>301.1768074979208</v>
+        <v>281.7717511359425</v>
       </c>
       <c r="H11" t="n">
-        <v>228.1144385812757</v>
+        <v>208.7093822192973</v>
       </c>
       <c r="I11" t="n">
-        <v>137.9823490766691</v>
+        <v>118.5772927146907</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23302,31 +23302,31 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>12.39159310667887</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>95.84954294526449</v>
+        <v>76.44448658328611</v>
       </c>
       <c r="S11" t="n">
-        <v>117.0525007539091</v>
+        <v>97.64744439193068</v>
       </c>
       <c r="T11" t="n">
-        <v>93.98236809216189</v>
+        <v>88.80099300341776</v>
       </c>
       <c r="U11" t="n">
-        <v>124.6397949849116</v>
+        <v>105.2347386229332</v>
       </c>
       <c r="V11" t="n">
-        <v>184.9922337026532</v>
+        <v>165.5871773406748</v>
       </c>
       <c r="W11" t="n">
-        <v>193.7763131810017</v>
+        <v>174.3712568190234</v>
       </c>
       <c r="X11" t="n">
-        <v>218.2326909030895</v>
+        <v>198.8276345411111</v>
       </c>
       <c r="Y11" t="n">
-        <v>251.7736628186264</v>
+        <v>232.368606456648</v>
       </c>
     </row>
     <row r="12">
@@ -23336,25 +23336,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>72.32368618005982</v>
+        <v>52.91862981808143</v>
       </c>
       <c r="C12" t="n">
-        <v>91.54542705331438</v>
+        <v>72.14037069133599</v>
       </c>
       <c r="D12" t="n">
-        <v>57.52516685659661</v>
+        <v>38.12011049461822</v>
       </c>
       <c r="E12" t="n">
-        <v>74.70030070320799</v>
+        <v>55.29524434122959</v>
       </c>
       <c r="F12" t="n">
-        <v>60.90777168137761</v>
+        <v>41.50271531939921</v>
       </c>
       <c r="G12" t="n">
-        <v>45.99737698545755</v>
+        <v>26.59232062347915</v>
       </c>
       <c r="H12" t="n">
-        <v>22.52648462742815</v>
+        <v>3.121428265449754</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -23384,28 +23384,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>44.08751529753512</v>
+        <v>24.68245893555672</v>
       </c>
       <c r="S12" t="n">
-        <v>95.72228799654555</v>
+        <v>76.31723163456715</v>
       </c>
       <c r="T12" t="n">
-        <v>116.9779167670519</v>
+        <v>97.57286040507348</v>
       </c>
       <c r="U12" t="n">
-        <v>134.7370151730953</v>
+        <v>115.3319588111169</v>
       </c>
       <c r="V12" t="n">
-        <v>131.861041435807</v>
+        <v>112.4559850738285</v>
       </c>
       <c r="W12" t="n">
-        <v>171.099944976037</v>
+        <v>151.6948886140586</v>
       </c>
       <c r="X12" t="n">
-        <v>115.3209266205867</v>
+        <v>95.91587025860832</v>
       </c>
       <c r="Y12" t="n">
-        <v>132.7353562873913</v>
+        <v>113.3302999254129</v>
       </c>
     </row>
     <row r="13">
@@ -23415,31 +23415,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>50.30324900540363</v>
+        <v>30.89819264342523</v>
       </c>
       <c r="C13" t="n">
-        <v>41.76757682639449</v>
+        <v>22.36252046441609</v>
       </c>
       <c r="D13" t="n">
-        <v>15.62718715266608</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>9.681476022947422</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>3.73576489322879</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>46.35261057974002</v>
+        <v>26.94755421776163</v>
       </c>
       <c r="H13" t="n">
-        <v>45.48634517660436</v>
+        <v>26.08128881462596</v>
       </c>
       <c r="I13" t="n">
-        <v>46.3291402069633</v>
+        <v>26.92408384498491</v>
       </c>
       <c r="J13" t="n">
-        <v>16.87291258735527</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23460,31 +23460,31 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>44.48354770102112</v>
+        <v>25.07849133904273</v>
       </c>
       <c r="R13" t="n">
-        <v>109.4744685814635</v>
+        <v>90.0694122194851</v>
       </c>
       <c r="S13" t="n">
-        <v>125.9279170699144</v>
+        <v>106.522860707936</v>
       </c>
       <c r="T13" t="n">
-        <v>91.03340794503609</v>
+        <v>71.62835158305769</v>
       </c>
       <c r="U13" t="n">
-        <v>169.7009360690336</v>
+        <v>150.2958797070553</v>
       </c>
       <c r="V13" t="n">
-        <v>108.9340012881782</v>
+        <v>89.52894492619978</v>
       </c>
       <c r="W13" t="n">
-        <v>174.0475861081071</v>
+        <v>154.6425297461287</v>
       </c>
       <c r="X13" t="n">
-        <v>91.70609334936314</v>
+        <v>72.30103698738475</v>
       </c>
       <c r="Y13" t="n">
-        <v>91.24819200238734</v>
+        <v>71.84313564040895</v>
       </c>
     </row>
     <row r="14">
@@ -23494,28 +23494,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>220.2477037814241</v>
+        <v>215.5286286457696</v>
       </c>
       <c r="C14" t="n">
-        <v>184.5458643884354</v>
+        <v>179.8267892527809</v>
       </c>
       <c r="D14" t="n">
-        <v>168.7188335886024</v>
+        <v>163.9997584529478</v>
       </c>
       <c r="E14" t="n">
-        <v>214.3167983124256</v>
+        <v>209.5977231767711</v>
       </c>
       <c r="F14" t="n">
-        <v>258.5086725867834</v>
+        <v>253.7895974511289</v>
       </c>
       <c r="G14" t="n">
-        <v>286.490826271597</v>
+        <v>281.7717511359425</v>
       </c>
       <c r="H14" t="n">
-        <v>213.4284573549518</v>
+        <v>208.7093822192973</v>
       </c>
       <c r="I14" t="n">
-        <v>123.2963678503452</v>
+        <v>118.5772927146907</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23542,28 +23542,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>81.16356171894063</v>
+        <v>76.44448658328611</v>
       </c>
       <c r="S14" t="n">
-        <v>102.3665195275852</v>
+        <v>97.64744439193068</v>
       </c>
       <c r="T14" t="n">
-        <v>79.29638686583802</v>
+        <v>74.5773117301835</v>
       </c>
       <c r="U14" t="n">
-        <v>109.9538137585877</v>
+        <v>105.2347386229332</v>
       </c>
       <c r="V14" t="n">
-        <v>170.3062524763293</v>
+        <v>165.5871773406748</v>
       </c>
       <c r="W14" t="n">
-        <v>179.0903319546779</v>
+        <v>174.3712568190234</v>
       </c>
       <c r="X14" t="n">
-        <v>203.5467096767657</v>
+        <v>198.8276345411111</v>
       </c>
       <c r="Y14" t="n">
-        <v>237.0876815923025</v>
+        <v>232.368606456648</v>
       </c>
     </row>
     <row r="15">
@@ -23573,25 +23573,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>57.63770495373595</v>
+        <v>52.91862981808143</v>
       </c>
       <c r="C15" t="n">
-        <v>76.85944582699051</v>
+        <v>72.14037069133599</v>
       </c>
       <c r="D15" t="n">
-        <v>42.83918563027274</v>
+        <v>38.12011049461822</v>
       </c>
       <c r="E15" t="n">
-        <v>60.01431947688411</v>
+        <v>55.29524434122959</v>
       </c>
       <c r="F15" t="n">
-        <v>46.22179045505374</v>
+        <v>41.50271531939921</v>
       </c>
       <c r="G15" t="n">
-        <v>31.31139575913367</v>
+        <v>26.59232062347915</v>
       </c>
       <c r="H15" t="n">
-        <v>7.840503401104275</v>
+        <v>3.121428265449754</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -23621,28 +23621,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>29.40153407121124</v>
+        <v>24.68245893555672</v>
       </c>
       <c r="S15" t="n">
-        <v>81.03630677022167</v>
+        <v>76.31723163456715</v>
       </c>
       <c r="T15" t="n">
-        <v>102.291935540728</v>
+        <v>97.57286040507348</v>
       </c>
       <c r="U15" t="n">
-        <v>120.0510339467714</v>
+        <v>115.3319588111169</v>
       </c>
       <c r="V15" t="n">
-        <v>117.1750602094831</v>
+        <v>112.4559850738285</v>
       </c>
       <c r="W15" t="n">
-        <v>243.4065587990875</v>
+        <v>151.6948886140586</v>
       </c>
       <c r="X15" t="n">
-        <v>100.6349453942628</v>
+        <v>95.91587025860832</v>
       </c>
       <c r="Y15" t="n">
-        <v>118.0493750610674</v>
+        <v>113.3302999254129</v>
       </c>
     </row>
     <row r="16">
@@ -23652,13 +23652,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>35.61726777907975</v>
+        <v>30.89819264342523</v>
       </c>
       <c r="C16" t="n">
-        <v>27.08159560007061</v>
+        <v>22.36252046441609</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9412059263422066</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23667,16 +23667,16 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>31.66662935341615</v>
+        <v>26.94755421776163</v>
       </c>
       <c r="H16" t="n">
-        <v>30.80036395028048</v>
+        <v>26.08128881462596</v>
       </c>
       <c r="I16" t="n">
-        <v>31.64315898063943</v>
+        <v>26.92408384498491</v>
       </c>
       <c r="J16" t="n">
-        <v>2.186931361031398</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23697,31 +23697,31 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>29.79756647469725</v>
+        <v>25.07849133904273</v>
       </c>
       <c r="R16" t="n">
-        <v>94.78848735513962</v>
+        <v>90.0694122194851</v>
       </c>
       <c r="S16" t="n">
-        <v>111.2419358435905</v>
+        <v>106.522860707936</v>
       </c>
       <c r="T16" t="n">
-        <v>76.34742671871221</v>
+        <v>71.62835158305769</v>
       </c>
       <c r="U16" t="n">
-        <v>155.0149548427098</v>
+        <v>197.4710892632813</v>
       </c>
       <c r="V16" t="n">
-        <v>94.24802006185431</v>
+        <v>89.52894492619978</v>
       </c>
       <c r="W16" t="n">
-        <v>159.3616048817833</v>
+        <v>154.6425297461287</v>
       </c>
       <c r="X16" t="n">
-        <v>77.02011212303927</v>
+        <v>72.30103698738475</v>
       </c>
       <c r="Y16" t="n">
-        <v>76.56221077606347</v>
+        <v>71.84313564040895</v>
       </c>
     </row>
     <row r="17">
@@ -23731,28 +23731,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>220.2477037814241</v>
+        <v>213.4981318212546</v>
       </c>
       <c r="C17" t="n">
-        <v>184.5458643884354</v>
+        <v>177.7962924282659</v>
       </c>
       <c r="D17" t="n">
-        <v>168.7188335886024</v>
+        <v>161.9692616284328</v>
       </c>
       <c r="E17" t="n">
-        <v>214.3167983124256</v>
+        <v>207.5672263522561</v>
       </c>
       <c r="F17" t="n">
-        <v>258.5086725867834</v>
+        <v>251.7591006266139</v>
       </c>
       <c r="G17" t="n">
-        <v>286.490826271597</v>
+        <v>279.7412543114274</v>
       </c>
       <c r="H17" t="n">
-        <v>213.4284573549518</v>
+        <v>206.6788853947823</v>
       </c>
       <c r="I17" t="n">
-        <v>123.2963678503452</v>
+        <v>116.5467958901757</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23779,28 +23779,28 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>81.16356171894063</v>
+        <v>74.41398975877109</v>
       </c>
       <c r="S17" t="n">
-        <v>102.3665195275852</v>
+        <v>95.61694756741566</v>
       </c>
       <c r="T17" t="n">
-        <v>79.29638686583802</v>
+        <v>72.54681490566848</v>
       </c>
       <c r="U17" t="n">
-        <v>109.9538137585877</v>
+        <v>103.2042417984182</v>
       </c>
       <c r="V17" t="n">
-        <v>170.3062524763293</v>
+        <v>163.5566805161598</v>
       </c>
       <c r="W17" t="n">
-        <v>179.0903319546779</v>
+        <v>172.3407599945083</v>
       </c>
       <c r="X17" t="n">
-        <v>203.5467096767657</v>
+        <v>196.7971377165961</v>
       </c>
       <c r="Y17" t="n">
-        <v>237.0876815923025</v>
+        <v>230.338109632133</v>
       </c>
     </row>
     <row r="18">
@@ -23810,25 +23810,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>57.63770495373595</v>
+        <v>50.88813299356642</v>
       </c>
       <c r="C18" t="n">
-        <v>76.85944582699051</v>
+        <v>70.10987386682098</v>
       </c>
       <c r="D18" t="n">
-        <v>42.83918563027274</v>
+        <v>36.0896136701032</v>
       </c>
       <c r="E18" t="n">
-        <v>60.01431947688411</v>
+        <v>53.26474751671458</v>
       </c>
       <c r="F18" t="n">
-        <v>46.22179045505374</v>
+        <v>39.4722184948842</v>
       </c>
       <c r="G18" t="n">
-        <v>31.31139575913367</v>
+        <v>24.56182379896414</v>
       </c>
       <c r="H18" t="n">
-        <v>7.840503401104275</v>
+        <v>1.090931440934742</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -23858,28 +23858,28 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>29.40153407121124</v>
+        <v>22.65196211104171</v>
       </c>
       <c r="S18" t="n">
-        <v>81.03630677022167</v>
+        <v>74.28673481005214</v>
       </c>
       <c r="T18" t="n">
-        <v>102.291935540728</v>
+        <v>95.54236358055847</v>
       </c>
       <c r="U18" t="n">
-        <v>120.0510339467714</v>
+        <v>113.3014619866019</v>
       </c>
       <c r="V18" t="n">
-        <v>117.1750602094831</v>
+        <v>110.4254882493135</v>
       </c>
       <c r="W18" t="n">
-        <v>156.4139637497131</v>
+        <v>149.6643917895436</v>
       </c>
       <c r="X18" t="n">
-        <v>187.6275404436373</v>
+        <v>93.88537343409331</v>
       </c>
       <c r="Y18" t="n">
-        <v>118.0493750610674</v>
+        <v>111.2998031008979</v>
       </c>
     </row>
     <row r="19">
@@ -23889,13 +23889,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>35.61726777907975</v>
+        <v>28.86769581891022</v>
       </c>
       <c r="C19" t="n">
-        <v>27.08159560007061</v>
+        <v>20.33202363990108</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9412059263422066</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -23904,16 +23904,16 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>31.66662935341615</v>
+        <v>24.91705739324662</v>
       </c>
       <c r="H19" t="n">
-        <v>30.80036395028048</v>
+        <v>24.05079199011095</v>
       </c>
       <c r="I19" t="n">
-        <v>31.64315898063943</v>
+        <v>24.89358702046989</v>
       </c>
       <c r="J19" t="n">
-        <v>2.186931361031398</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23934,31 +23934,31 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>29.79756647469725</v>
+        <v>23.04799451452772</v>
       </c>
       <c r="R19" t="n">
-        <v>94.78848735513962</v>
+        <v>88.03891539497009</v>
       </c>
       <c r="S19" t="n">
-        <v>111.2419358435905</v>
+        <v>104.492363883421</v>
       </c>
       <c r="T19" t="n">
-        <v>76.34742671871221</v>
+        <v>69.59785475854268</v>
       </c>
       <c r="U19" t="n">
-        <v>155.0149548427098</v>
+        <v>148.2653828825403</v>
       </c>
       <c r="V19" t="n">
-        <v>94.24802006185431</v>
+        <v>87.49844810168477</v>
       </c>
       <c r="W19" t="n">
-        <v>159.3616048817833</v>
+        <v>152.6120329216137</v>
       </c>
       <c r="X19" t="n">
-        <v>77.02011212303927</v>
+        <v>70.27054016286974</v>
       </c>
       <c r="Y19" t="n">
-        <v>76.56221077606347</v>
+        <v>69.81263881589393</v>
       </c>
     </row>
     <row r="20">
@@ -23968,28 +23968,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>220.2477037814241</v>
+        <v>213.4981318212546</v>
       </c>
       <c r="C20" t="n">
-        <v>184.5458643884354</v>
+        <v>177.7962924282659</v>
       </c>
       <c r="D20" t="n">
-        <v>168.7188335886024</v>
+        <v>161.9692616284328</v>
       </c>
       <c r="E20" t="n">
-        <v>214.3167983124256</v>
+        <v>207.5672263522561</v>
       </c>
       <c r="F20" t="n">
-        <v>258.5086725867834</v>
+        <v>251.7591006266139</v>
       </c>
       <c r="G20" t="n">
-        <v>286.490826271597</v>
+        <v>279.7412543114274</v>
       </c>
       <c r="H20" t="n">
-        <v>213.4284573549518</v>
+        <v>206.6788853947823</v>
       </c>
       <c r="I20" t="n">
-        <v>123.2963678503452</v>
+        <v>116.5467958901757</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24001,7 +24001,7 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>7.452579786414901</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -24016,28 +24016,28 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>81.16356171894063</v>
+        <v>74.41398975877109</v>
       </c>
       <c r="S20" t="n">
-        <v>102.3665195275852</v>
+        <v>95.61694756741566</v>
       </c>
       <c r="T20" t="n">
-        <v>79.29638686583802</v>
+        <v>72.54681490566848</v>
       </c>
       <c r="U20" t="n">
-        <v>109.9538137585877</v>
+        <v>103.2042417984182</v>
       </c>
       <c r="V20" t="n">
-        <v>170.3062524763293</v>
+        <v>163.5566805161598</v>
       </c>
       <c r="W20" t="n">
-        <v>179.0903319546779</v>
+        <v>172.3407599945083</v>
       </c>
       <c r="X20" t="n">
-        <v>203.5467096767657</v>
+        <v>196.7971377165961</v>
       </c>
       <c r="Y20" t="n">
-        <v>237.0876815923025</v>
+        <v>230.338109632133</v>
       </c>
     </row>
     <row r="21">
@@ -24047,25 +24047,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>57.63770495373595</v>
+        <v>50.88813299356642</v>
       </c>
       <c r="C21" t="n">
-        <v>76.85944582699051</v>
+        <v>70.10987386682098</v>
       </c>
       <c r="D21" t="n">
-        <v>42.83918563027274</v>
+        <v>36.0896136701032</v>
       </c>
       <c r="E21" t="n">
-        <v>60.01431947688411</v>
+        <v>53.26474751671458</v>
       </c>
       <c r="F21" t="n">
-        <v>46.22179045505374</v>
+        <v>39.4722184948842</v>
       </c>
       <c r="G21" t="n">
-        <v>31.31139575913367</v>
+        <v>24.56182379896414</v>
       </c>
       <c r="H21" t="n">
-        <v>7.840503401104275</v>
+        <v>1.090931440934742</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -24095,28 +24095,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>29.40153407121124</v>
+        <v>22.65196211104171</v>
       </c>
       <c r="S21" t="n">
-        <v>81.03630677022167</v>
+        <v>74.28673481005214</v>
       </c>
       <c r="T21" t="n">
-        <v>102.291935540728</v>
+        <v>95.54236358055847</v>
       </c>
       <c r="U21" t="n">
-        <v>120.0510339467714</v>
+        <v>113.3014619866019</v>
       </c>
       <c r="V21" t="n">
-        <v>117.1750602094831</v>
+        <v>110.4254882493135</v>
       </c>
       <c r="W21" t="n">
-        <v>156.4139637497131</v>
+        <v>149.6643917895436</v>
       </c>
       <c r="X21" t="n">
-        <v>100.6349453942628</v>
+        <v>93.88537343409331</v>
       </c>
       <c r="Y21" t="n">
-        <v>191.050806171795</v>
+        <v>111.2998031008979</v>
       </c>
     </row>
     <row r="22">
@@ -24126,13 +24126,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>35.61726777907975</v>
+        <v>28.86769581891022</v>
       </c>
       <c r="C22" t="n">
-        <v>27.08159560007061</v>
+        <v>20.33202363990108</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9412059263422066</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24141,16 +24141,16 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>31.66662935341615</v>
+        <v>24.91705739324662</v>
       </c>
       <c r="H22" t="n">
-        <v>30.80036395028048</v>
+        <v>24.05079199011095</v>
       </c>
       <c r="I22" t="n">
-        <v>31.64315898063943</v>
+        <v>24.89358702046989</v>
       </c>
       <c r="J22" t="n">
-        <v>2.186931361031398</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24171,31 +24171,31 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>29.79756647469725</v>
+        <v>23.04799451452772</v>
       </c>
       <c r="R22" t="n">
-        <v>94.78848735513962</v>
+        <v>88.03891539497009</v>
       </c>
       <c r="S22" t="n">
-        <v>111.2419358435905</v>
+        <v>104.492363883421</v>
       </c>
       <c r="T22" t="n">
-        <v>76.34742671871221</v>
+        <v>69.59785475854268</v>
       </c>
       <c r="U22" t="n">
-        <v>155.0149548427098</v>
+        <v>148.2653828825403</v>
       </c>
       <c r="V22" t="n">
-        <v>94.24802006185431</v>
+        <v>87.49844810168477</v>
       </c>
       <c r="W22" t="n">
-        <v>159.3616048817833</v>
+        <v>152.6120329216137</v>
       </c>
       <c r="X22" t="n">
-        <v>77.02011212303927</v>
+        <v>70.27054016286974</v>
       </c>
       <c r="Y22" t="n">
-        <v>76.56221077606347</v>
+        <v>69.81263881589393</v>
       </c>
     </row>
     <row r="23">
@@ -24205,28 +24205,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>213.4981318212547</v>
+        <v>213.4981318212546</v>
       </c>
       <c r="C23" t="n">
-        <v>177.796292428266</v>
+        <v>177.7962924282659</v>
       </c>
       <c r="D23" t="n">
-        <v>161.9692616284329</v>
+        <v>161.9692616284328</v>
       </c>
       <c r="E23" t="n">
         <v>207.5672263522561</v>
       </c>
       <c r="F23" t="n">
-        <v>251.759100626614</v>
+        <v>251.7591006266139</v>
       </c>
       <c r="G23" t="n">
-        <v>279.7412543114276</v>
+        <v>279.7412543114274</v>
       </c>
       <c r="H23" t="n">
-        <v>206.6788853947824</v>
+        <v>206.6788853947823</v>
       </c>
       <c r="I23" t="n">
-        <v>116.5467958901758</v>
+        <v>116.5467958901757</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24253,28 +24253,28 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>74.41398975877118</v>
+        <v>74.41398975877109</v>
       </c>
       <c r="S23" t="n">
-        <v>95.61694756741575</v>
+        <v>95.61694756741566</v>
       </c>
       <c r="T23" t="n">
-        <v>72.54681490566857</v>
+        <v>72.54681490566848</v>
       </c>
       <c r="U23" t="n">
-        <v>103.2042417984183</v>
+        <v>103.2042417984182</v>
       </c>
       <c r="V23" t="n">
-        <v>163.5566805161599</v>
+        <v>163.5566805161598</v>
       </c>
       <c r="W23" t="n">
-        <v>172.3407599945084</v>
+        <v>172.3407599945083</v>
       </c>
       <c r="X23" t="n">
-        <v>196.7971377165962</v>
+        <v>196.7971377165961</v>
       </c>
       <c r="Y23" t="n">
-        <v>230.3381096321331</v>
+        <v>230.338109632133</v>
       </c>
     </row>
     <row r="24">
@@ -24284,25 +24284,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>50.8881329935665</v>
+        <v>50.88813299356642</v>
       </c>
       <c r="C24" t="n">
-        <v>70.10987386682106</v>
+        <v>70.10987386682098</v>
       </c>
       <c r="D24" t="n">
-        <v>36.08961367010329</v>
+        <v>36.0896136701032</v>
       </c>
       <c r="E24" t="n">
-        <v>53.26474751671466</v>
+        <v>53.26474751671458</v>
       </c>
       <c r="F24" t="n">
-        <v>39.47221849488429</v>
+        <v>39.4722184948842</v>
       </c>
       <c r="G24" t="n">
-        <v>24.56182379896423</v>
+        <v>24.56182379896414</v>
       </c>
       <c r="H24" t="n">
-        <v>1.090931440934828</v>
+        <v>1.090931440934742</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -24332,25 +24332,25 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>22.6519621110418</v>
+        <v>22.65196211104171</v>
       </c>
       <c r="S24" t="n">
-        <v>74.28673481005222</v>
+        <v>74.28673481005214</v>
       </c>
       <c r="T24" t="n">
-        <v>95.54236358055856</v>
+        <v>95.54236358055847</v>
       </c>
       <c r="U24" t="n">
-        <v>113.301461986602</v>
+        <v>113.3014619866019</v>
       </c>
       <c r="V24" t="n">
-        <v>110.4254882493136</v>
+        <v>110.4254882493135</v>
       </c>
       <c r="W24" t="n">
-        <v>149.6643917895437</v>
+        <v>149.6643917895436</v>
       </c>
       <c r="X24" t="n">
-        <v>93.8853734340934</v>
+        <v>93.88537343409331</v>
       </c>
       <c r="Y24" t="n">
         <v>111.2998031008979</v>
@@ -24363,10 +24363,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>28.86769581891031</v>
+        <v>28.86769581891022</v>
       </c>
       <c r="C25" t="n">
-        <v>20.33202363990117</v>
+        <v>20.33202363990108</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -24378,13 +24378,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>24.9170573932467</v>
+        <v>24.91705739324662</v>
       </c>
       <c r="H25" t="n">
-        <v>24.05079199011104</v>
+        <v>24.05079199011095</v>
       </c>
       <c r="I25" t="n">
-        <v>24.89358702046998</v>
+        <v>24.89358702046989</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24408,31 +24408,31 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>23.0479945145278</v>
+        <v>23.04799451452772</v>
       </c>
       <c r="R25" t="n">
-        <v>88.03891539497018</v>
+        <v>88.03891539497009</v>
       </c>
       <c r="S25" t="n">
-        <v>104.4923638834211</v>
+        <v>104.492363883421</v>
       </c>
       <c r="T25" t="n">
-        <v>69.59785475854277</v>
+        <v>69.59785475854268</v>
       </c>
       <c r="U25" t="n">
         <v>148.2653828825403</v>
       </c>
       <c r="V25" t="n">
-        <v>87.49844810168486</v>
+        <v>87.49844810168477</v>
       </c>
       <c r="W25" t="n">
-        <v>152.6120329216138</v>
+        <v>152.6120329216137</v>
       </c>
       <c r="X25" t="n">
-        <v>70.27054016286982</v>
+        <v>70.27054016286974</v>
       </c>
       <c r="Y25" t="n">
-        <v>69.81263881589402</v>
+        <v>69.81263881589393</v>
       </c>
     </row>
     <row r="26">
@@ -24442,37 +24442,37 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>213.4981318212545</v>
+        <v>335.4058371182109</v>
       </c>
       <c r="C26" t="n">
-        <v>177.7962924282658</v>
+        <v>299.7039977252221</v>
       </c>
       <c r="D26" t="n">
-        <v>161.9692616284327</v>
+        <v>283.8769669253891</v>
       </c>
       <c r="E26" t="n">
-        <v>207.567226352256</v>
+        <v>329.4749316492123</v>
       </c>
       <c r="F26" t="n">
-        <v>251.7591006266138</v>
+        <v>373.6668059235701</v>
       </c>
       <c r="G26" t="n">
-        <v>279.7412543114273</v>
+        <v>401.6489596083837</v>
       </c>
       <c r="H26" t="n">
-        <v>206.6788853947822</v>
+        <v>328.5865906917385</v>
       </c>
       <c r="I26" t="n">
-        <v>116.5467958901756</v>
+        <v>238.4545011871319</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>94.11040159113165</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>69.1174084887428</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>30.65188918701773</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -24484,34 +24484,34 @@
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>52.54812177749687</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>112.8637452171417</v>
       </c>
       <c r="R26" t="n">
-        <v>74.41398975877101</v>
+        <v>217.0570299833691</v>
       </c>
       <c r="S26" t="n">
-        <v>95.61694756741558</v>
+        <v>217.5246528643719</v>
       </c>
       <c r="T26" t="n">
-        <v>72.5468149056684</v>
+        <v>194.4545202026247</v>
       </c>
       <c r="U26" t="n">
-        <v>103.2042417984181</v>
+        <v>225.1119470953744</v>
       </c>
       <c r="V26" t="n">
-        <v>163.5566805161597</v>
+        <v>285.4643858131161</v>
       </c>
       <c r="W26" t="n">
-        <v>172.3407599945083</v>
+        <v>294.2484652914646</v>
       </c>
       <c r="X26" t="n">
-        <v>196.797137716596</v>
+        <v>318.7048430135524</v>
       </c>
       <c r="Y26" t="n">
-        <v>230.3381096321329</v>
+        <v>352.2458149290892</v>
       </c>
     </row>
     <row r="27">
@@ -24521,34 +24521,34 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>50.88813299356633</v>
+        <v>172.7958382905227</v>
       </c>
       <c r="C27" t="n">
-        <v>70.10987386682089</v>
+        <v>192.0175791637772</v>
       </c>
       <c r="D27" t="n">
-        <v>36.08961367010312</v>
+        <v>157.9973189670595</v>
       </c>
       <c r="E27" t="n">
-        <v>53.26474751671449</v>
+        <v>175.1724528136708</v>
       </c>
       <c r="F27" t="n">
-        <v>39.47221849488412</v>
+        <v>161.3799237918404</v>
       </c>
       <c r="G27" t="n">
-        <v>24.56182379896406</v>
+        <v>146.4695290959204</v>
       </c>
       <c r="H27" t="n">
-        <v>1.090931440934657</v>
+        <v>122.998636737891</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>100.4721521104629</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>77.73355538254961</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>20.71775021852918</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -24566,31 +24566,31 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>62.01201382873111</v>
       </c>
       <c r="R27" t="n">
-        <v>22.65196211104163</v>
+        <v>144.5596674079979</v>
       </c>
       <c r="S27" t="n">
-        <v>74.28673481005205</v>
+        <v>196.1944401070084</v>
       </c>
       <c r="T27" t="n">
-        <v>95.54236358055839</v>
+        <v>217.4500688775148</v>
       </c>
       <c r="U27" t="n">
-        <v>113.3014619866018</v>
+        <v>235.2091672835581</v>
       </c>
       <c r="V27" t="n">
-        <v>110.4254882493134</v>
+        <v>232.3331935462698</v>
       </c>
       <c r="W27" t="n">
-        <v>149.6643917895435</v>
+        <v>271.5720970864998</v>
       </c>
       <c r="X27" t="n">
-        <v>93.88537343409322</v>
+        <v>215.7930787310495</v>
       </c>
       <c r="Y27" t="n">
-        <v>111.2998031008978</v>
+        <v>233.2075083978541</v>
       </c>
     </row>
     <row r="28">
@@ -24600,76 +24600,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>28.86769581891014</v>
+        <v>150.7754011158665</v>
       </c>
       <c r="C28" t="n">
-        <v>20.332023639901</v>
+        <v>165.0035252842657</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>116.0993392631289</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>132.9174244808186</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>104.2079170036916</v>
       </c>
       <c r="G28" t="n">
-        <v>24.91705739324653</v>
+        <v>169.5885590376112</v>
       </c>
       <c r="H28" t="n">
-        <v>24.05079199011087</v>
+        <v>168.7222936344755</v>
       </c>
       <c r="I28" t="n">
-        <v>24.89358702046981</v>
+        <v>146.8012923174261</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>140.1088610452264</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>77.99935219351332</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>79.85433933586287</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>56.08321626150166</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>64.0747527422576</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>92.52559636191177</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>110.4602209616816</v>
       </c>
       <c r="Q28" t="n">
-        <v>23.04799451452763</v>
+        <v>144.955699811484</v>
       </c>
       <c r="R28" t="n">
-        <v>88.03891539497</v>
+        <v>209.9466206919263</v>
       </c>
       <c r="S28" t="n">
-        <v>104.4923638834209</v>
+        <v>249.1638655277856</v>
       </c>
       <c r="T28" t="n">
-        <v>69.5978547585426</v>
+        <v>214.2693564029072</v>
       </c>
       <c r="U28" t="n">
-        <v>148.2653828825402</v>
+        <v>292.9368845269048</v>
       </c>
       <c r="V28" t="n">
-        <v>87.49844810168469</v>
+        <v>209.406153398641</v>
       </c>
       <c r="W28" t="n">
-        <v>152.6120329216136</v>
+        <v>274.51973821857</v>
       </c>
       <c r="X28" t="n">
-        <v>70.27054016286965</v>
+        <v>192.178245459826</v>
       </c>
       <c r="Y28" t="n">
-        <v>69.81263881589385</v>
+        <v>191.7203441128502</v>
       </c>
     </row>
     <row r="29">
@@ -24679,28 +24679,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>213.4981318212545</v>
+        <v>213.4981318212546</v>
       </c>
       <c r="C29" t="n">
-        <v>177.7962924282658</v>
+        <v>177.7962924282659</v>
       </c>
       <c r="D29" t="n">
-        <v>161.9692616284327</v>
+        <v>161.9692616284328</v>
       </c>
       <c r="E29" t="n">
-        <v>207.5672263522559</v>
+        <v>207.5672263522561</v>
       </c>
       <c r="F29" t="n">
-        <v>251.7591006266138</v>
+        <v>251.7591006266139</v>
       </c>
       <c r="G29" t="n">
-        <v>279.7412543114273</v>
+        <v>279.7412543114274</v>
       </c>
       <c r="H29" t="n">
-        <v>206.6788853947822</v>
+        <v>206.6788853947823</v>
       </c>
       <c r="I29" t="n">
-        <v>116.5467958901756</v>
+        <v>116.5467958901757</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24727,28 +24727,28 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>74.41398975877098</v>
+        <v>74.41398975877109</v>
       </c>
       <c r="S29" t="n">
-        <v>95.61694756741555</v>
+        <v>95.61694756741566</v>
       </c>
       <c r="T29" t="n">
-        <v>72.54681490566837</v>
+        <v>72.54681490566848</v>
       </c>
       <c r="U29" t="n">
-        <v>103.2042417984181</v>
+        <v>103.2042417984182</v>
       </c>
       <c r="V29" t="n">
-        <v>163.5566805161597</v>
+        <v>163.5566805161598</v>
       </c>
       <c r="W29" t="n">
-        <v>172.3407599945082</v>
+        <v>172.3407599945083</v>
       </c>
       <c r="X29" t="n">
-        <v>196.797137716596</v>
+        <v>196.7971377165961</v>
       </c>
       <c r="Y29" t="n">
-        <v>230.3381096321329</v>
+        <v>230.338109632133</v>
       </c>
     </row>
     <row r="30">
@@ -24758,25 +24758,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>50.8881329935663</v>
+        <v>50.88813299356642</v>
       </c>
       <c r="C30" t="n">
-        <v>70.10987386682086</v>
+        <v>70.10987386682098</v>
       </c>
       <c r="D30" t="n">
-        <v>36.08961367010309</v>
+        <v>36.0896136701032</v>
       </c>
       <c r="E30" t="n">
-        <v>53.26474751671446</v>
+        <v>53.26474751671458</v>
       </c>
       <c r="F30" t="n">
-        <v>39.47221849488409</v>
+        <v>39.4722184948842</v>
       </c>
       <c r="G30" t="n">
-        <v>24.56182379896403</v>
+        <v>24.56182379896414</v>
       </c>
       <c r="H30" t="n">
-        <v>1.090931440934629</v>
+        <v>1.090931440934742</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -24806,28 +24806,28 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>22.6519621110416</v>
+        <v>22.65196211104171</v>
       </c>
       <c r="S30" t="n">
-        <v>74.28673481005202</v>
+        <v>74.28673481005214</v>
       </c>
       <c r="T30" t="n">
-        <v>95.54236358055836</v>
+        <v>95.54236358055847</v>
       </c>
       <c r="U30" t="n">
-        <v>113.3014619866018</v>
+        <v>113.3014619866019</v>
       </c>
       <c r="V30" t="n">
-        <v>110.4254882493134</v>
+        <v>110.4254882493135</v>
       </c>
       <c r="W30" t="n">
-        <v>149.6643917895435</v>
+        <v>149.6643917895436</v>
       </c>
       <c r="X30" t="n">
-        <v>93.8853734340932</v>
+        <v>93.88537343409331</v>
       </c>
       <c r="Y30" t="n">
-        <v>111.2998031008977</v>
+        <v>111.2998031008979</v>
       </c>
     </row>
     <row r="31">
@@ -24837,10 +24837,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>28.86769581891011</v>
+        <v>28.86769581891022</v>
       </c>
       <c r="C31" t="n">
-        <v>20.33202363990097</v>
+        <v>20.33202363990108</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24852,13 +24852,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>24.91705739324651</v>
+        <v>24.91705739324662</v>
       </c>
       <c r="H31" t="n">
-        <v>24.05079199011084</v>
+        <v>24.05079199011095</v>
       </c>
       <c r="I31" t="n">
-        <v>24.89358702046978</v>
+        <v>24.89358702046989</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24882,31 +24882,31 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>23.0479945145276</v>
+        <v>23.04799451452772</v>
       </c>
       <c r="R31" t="n">
-        <v>88.03891539496998</v>
+        <v>88.03891539497009</v>
       </c>
       <c r="S31" t="n">
-        <v>104.4923638834209</v>
+        <v>104.492363883421</v>
       </c>
       <c r="T31" t="n">
-        <v>69.59785475854257</v>
+        <v>69.59785475854268</v>
       </c>
       <c r="U31" t="n">
-        <v>148.2653828825401</v>
+        <v>148.2653828825403</v>
       </c>
       <c r="V31" t="n">
-        <v>87.49844810168466</v>
+        <v>87.49844810168477</v>
       </c>
       <c r="W31" t="n">
-        <v>152.6120329216136</v>
+        <v>152.6120329216137</v>
       </c>
       <c r="X31" t="n">
-        <v>70.27054016286962</v>
+        <v>70.27054016286974</v>
       </c>
       <c r="Y31" t="n">
-        <v>69.81263881589382</v>
+        <v>69.81263881589393</v>
       </c>
     </row>
     <row r="32">
@@ -24916,28 +24916,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>213.4981318212545</v>
+        <v>215.5286286457696</v>
       </c>
       <c r="C32" t="n">
-        <v>177.7962924282658</v>
+        <v>179.8267892527809</v>
       </c>
       <c r="D32" t="n">
-        <v>161.9692616284327</v>
+        <v>163.9997584529478</v>
       </c>
       <c r="E32" t="n">
-        <v>207.567226352256</v>
+        <v>209.5977231767711</v>
       </c>
       <c r="F32" t="n">
-        <v>251.7591006266138</v>
+        <v>253.7895974511289</v>
       </c>
       <c r="G32" t="n">
-        <v>279.7412543114273</v>
+        <v>281.7717511359425</v>
       </c>
       <c r="H32" t="n">
-        <v>206.6788853947822</v>
+        <v>208.7093822192973</v>
       </c>
       <c r="I32" t="n">
-        <v>116.5467958901756</v>
+        <v>118.5772927146907</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24964,28 +24964,28 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>74.41398975877101</v>
+        <v>76.44448658328611</v>
       </c>
       <c r="S32" t="n">
-        <v>95.61694756741558</v>
+        <v>97.64744439193068</v>
       </c>
       <c r="T32" t="n">
-        <v>72.5468149056684</v>
+        <v>74.5773117301835</v>
       </c>
       <c r="U32" t="n">
-        <v>103.2042417984181</v>
+        <v>105.2347386229332</v>
       </c>
       <c r="V32" t="n">
-        <v>163.5566805161597</v>
+        <v>165.5871773406748</v>
       </c>
       <c r="W32" t="n">
-        <v>172.3407599945083</v>
+        <v>174.3712568190234</v>
       </c>
       <c r="X32" t="n">
-        <v>196.797137716596</v>
+        <v>198.8276345411111</v>
       </c>
       <c r="Y32" t="n">
-        <v>230.3381096321329</v>
+        <v>232.368606456648</v>
       </c>
     </row>
     <row r="33">
@@ -24995,25 +24995,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>50.88813299356633</v>
+        <v>52.91862981808143</v>
       </c>
       <c r="C33" t="n">
-        <v>70.10987386682089</v>
+        <v>72.14037069133599</v>
       </c>
       <c r="D33" t="n">
-        <v>36.08961367010312</v>
+        <v>38.12011049461822</v>
       </c>
       <c r="E33" t="n">
-        <v>53.26474751671449</v>
+        <v>55.29524434122959</v>
       </c>
       <c r="F33" t="n">
-        <v>39.47221849488412</v>
+        <v>41.50271531939921</v>
       </c>
       <c r="G33" t="n">
-        <v>24.56182379896406</v>
+        <v>26.59232062347915</v>
       </c>
       <c r="H33" t="n">
-        <v>1.090931440934657</v>
+        <v>3.121428265449754</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -25043,28 +25043,28 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>22.65196211104163</v>
+        <v>24.68245893555672</v>
       </c>
       <c r="S33" t="n">
-        <v>74.28673481005205</v>
+        <v>76.31723163456715</v>
       </c>
       <c r="T33" t="n">
-        <v>95.54236358055839</v>
+        <v>97.57286040507348</v>
       </c>
       <c r="U33" t="n">
-        <v>113.3014619866018</v>
+        <v>115.3319588111169</v>
       </c>
       <c r="V33" t="n">
-        <v>110.4254882493134</v>
+        <v>112.4559850738285</v>
       </c>
       <c r="W33" t="n">
-        <v>149.6643917895435</v>
+        <v>151.6948886140586</v>
       </c>
       <c r="X33" t="n">
-        <v>93.88537343409322</v>
+        <v>95.91587025860832</v>
       </c>
       <c r="Y33" t="n">
-        <v>111.2998031008978</v>
+        <v>113.3302999254129</v>
       </c>
     </row>
     <row r="34">
@@ -25074,10 +25074,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>28.86769581891014</v>
+        <v>30.89819264342523</v>
       </c>
       <c r="C34" t="n">
-        <v>20.332023639901</v>
+        <v>22.36252046441609</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -25089,13 +25089,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>24.91705739324653</v>
+        <v>26.94755421776163</v>
       </c>
       <c r="H34" t="n">
-        <v>24.05079199011087</v>
+        <v>26.08128881462596</v>
       </c>
       <c r="I34" t="n">
-        <v>24.89358702046981</v>
+        <v>26.92408384498491</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25119,31 +25119,31 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>23.04799451452763</v>
+        <v>25.07849133904273</v>
       </c>
       <c r="R34" t="n">
-        <v>88.03891539497</v>
+        <v>90.0694122194851</v>
       </c>
       <c r="S34" t="n">
-        <v>104.4923638834209</v>
+        <v>106.522860707936</v>
       </c>
       <c r="T34" t="n">
-        <v>69.5978547585426</v>
+        <v>71.62835158305769</v>
       </c>
       <c r="U34" t="n">
-        <v>148.2653828825402</v>
+        <v>150.2958797070553</v>
       </c>
       <c r="V34" t="n">
-        <v>87.49844810168469</v>
+        <v>89.52894492619978</v>
       </c>
       <c r="W34" t="n">
-        <v>152.6120329216136</v>
+        <v>154.6425297461287</v>
       </c>
       <c r="X34" t="n">
-        <v>70.27054016286965</v>
+        <v>72.30103698738475</v>
       </c>
       <c r="Y34" t="n">
-        <v>69.81263881589385</v>
+        <v>119.018345196634</v>
       </c>
     </row>
     <row r="35">
@@ -25153,28 +25153,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>213.4981318212545</v>
+        <v>215.5286286457696</v>
       </c>
       <c r="C35" t="n">
-        <v>177.7962924282658</v>
+        <v>179.8267892527809</v>
       </c>
       <c r="D35" t="n">
-        <v>161.9692616284327</v>
+        <v>163.9997584529478</v>
       </c>
       <c r="E35" t="n">
-        <v>207.567226352256</v>
+        <v>209.5977231767711</v>
       </c>
       <c r="F35" t="n">
-        <v>251.7591006266138</v>
+        <v>253.7895974511289</v>
       </c>
       <c r="G35" t="n">
-        <v>279.7412543114273</v>
+        <v>281.7717511359425</v>
       </c>
       <c r="H35" t="n">
-        <v>206.6788853947822</v>
+        <v>208.7093822192973</v>
       </c>
       <c r="I35" t="n">
-        <v>116.5467958901756</v>
+        <v>118.5772927146907</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25201,28 +25201,28 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>74.41398975877101</v>
+        <v>76.44448658328611</v>
       </c>
       <c r="S35" t="n">
-        <v>95.61694756741558</v>
+        <v>97.64744439193068</v>
       </c>
       <c r="T35" t="n">
-        <v>72.5468149056684</v>
+        <v>74.5773117301835</v>
       </c>
       <c r="U35" t="n">
-        <v>103.2042417984181</v>
+        <v>105.2347386229332</v>
       </c>
       <c r="V35" t="n">
-        <v>163.5566805161597</v>
+        <v>165.5871773406748</v>
       </c>
       <c r="W35" t="n">
-        <v>172.3407599945083</v>
+        <v>174.3712568190234</v>
       </c>
       <c r="X35" t="n">
-        <v>196.797137716596</v>
+        <v>198.8276345411111</v>
       </c>
       <c r="Y35" t="n">
-        <v>230.3381096321329</v>
+        <v>232.368606456648</v>
       </c>
     </row>
     <row r="36">
@@ -25232,25 +25232,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>50.88813299356633</v>
+        <v>52.91862981808143</v>
       </c>
       <c r="C36" t="n">
-        <v>70.10987386682089</v>
+        <v>72.14037069133599</v>
       </c>
       <c r="D36" t="n">
-        <v>36.08961367010312</v>
+        <v>38.12011049461822</v>
       </c>
       <c r="E36" t="n">
-        <v>53.26474751671449</v>
+        <v>55.29524434122959</v>
       </c>
       <c r="F36" t="n">
-        <v>39.47221849488412</v>
+        <v>41.50271531939921</v>
       </c>
       <c r="G36" t="n">
-        <v>24.56182379896406</v>
+        <v>26.59232062347915</v>
       </c>
       <c r="H36" t="n">
-        <v>1.090931440934657</v>
+        <v>3.121428265449754</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -25280,28 +25280,28 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>22.65196211104163</v>
+        <v>24.68245893555672</v>
       </c>
       <c r="S36" t="n">
-        <v>74.28673481005205</v>
+        <v>76.31723163456715</v>
       </c>
       <c r="T36" t="n">
-        <v>95.54236358055839</v>
+        <v>97.57286040507348</v>
       </c>
       <c r="U36" t="n">
-        <v>113.3014619866018</v>
+        <v>115.3319588111169</v>
       </c>
       <c r="V36" t="n">
-        <v>110.4254882493134</v>
+        <v>112.4559850738285</v>
       </c>
       <c r="W36" t="n">
-        <v>149.6643917895435</v>
+        <v>151.6948886140586</v>
       </c>
       <c r="X36" t="n">
-        <v>93.88537343409322</v>
+        <v>95.91587025860832</v>
       </c>
       <c r="Y36" t="n">
-        <v>111.2998031008978</v>
+        <v>113.3302999254129</v>
       </c>
     </row>
     <row r="37">
@@ -25311,10 +25311,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>28.86769581891014</v>
+        <v>30.89819264342523</v>
       </c>
       <c r="C37" t="n">
-        <v>20.332023639901</v>
+        <v>22.36252046441609</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -25326,13 +25326,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>24.91705739324653</v>
+        <v>26.94755421776163</v>
       </c>
       <c r="H37" t="n">
-        <v>24.05079199011087</v>
+        <v>26.08128881462596</v>
       </c>
       <c r="I37" t="n">
-        <v>24.89358702046981</v>
+        <v>26.92408384498491</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25353,34 +25353,34 @@
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>47.17520955622595</v>
       </c>
       <c r="Q37" t="n">
-        <v>23.04799451452763</v>
+        <v>25.07849133904273</v>
       </c>
       <c r="R37" t="n">
-        <v>88.03891539497</v>
+        <v>90.0694122194851</v>
       </c>
       <c r="S37" t="n">
-        <v>104.4923638834209</v>
+        <v>106.522860707936</v>
       </c>
       <c r="T37" t="n">
-        <v>69.5978547585426</v>
+        <v>71.62835158305769</v>
       </c>
       <c r="U37" t="n">
-        <v>148.2653828825402</v>
+        <v>150.2958797070553</v>
       </c>
       <c r="V37" t="n">
-        <v>87.49844810168469</v>
+        <v>89.52894492619978</v>
       </c>
       <c r="W37" t="n">
-        <v>152.6120329216136</v>
+        <v>154.6425297461287</v>
       </c>
       <c r="X37" t="n">
-        <v>70.27054016286965</v>
+        <v>72.30103698738475</v>
       </c>
       <c r="Y37" t="n">
-        <v>69.81263881589385</v>
+        <v>71.84313564040895</v>
       </c>
     </row>
     <row r="38">
@@ -25390,28 +25390,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>220.247703781424</v>
+        <v>215.5286286457696</v>
       </c>
       <c r="C38" t="n">
-        <v>184.5458643884352</v>
+        <v>179.8267892527809</v>
       </c>
       <c r="D38" t="n">
-        <v>168.7188335886022</v>
+        <v>163.9997584529478</v>
       </c>
       <c r="E38" t="n">
-        <v>214.3167983124254</v>
+        <v>209.5977231767711</v>
       </c>
       <c r="F38" t="n">
-        <v>258.5086725867832</v>
+        <v>253.7895974511289</v>
       </c>
       <c r="G38" t="n">
-        <v>286.4908262715968</v>
+        <v>281.7717511359425</v>
       </c>
       <c r="H38" t="n">
-        <v>213.4284573549517</v>
+        <v>208.7093822192973</v>
       </c>
       <c r="I38" t="n">
-        <v>123.296367850345</v>
+        <v>118.5772927146907</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25438,28 +25438,28 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>81.16356171894046</v>
+        <v>76.44448658328611</v>
       </c>
       <c r="S38" t="n">
-        <v>102.366519527585</v>
+        <v>97.64744439193068</v>
       </c>
       <c r="T38" t="n">
-        <v>79.29638686583785</v>
+        <v>74.5773117301835</v>
       </c>
       <c r="U38" t="n">
-        <v>109.9538137585875</v>
+        <v>105.2347386229332</v>
       </c>
       <c r="V38" t="n">
-        <v>170.3062524763292</v>
+        <v>165.5871773406748</v>
       </c>
       <c r="W38" t="n">
-        <v>179.0903319546777</v>
+        <v>174.3712568190234</v>
       </c>
       <c r="X38" t="n">
-        <v>203.5467096767655</v>
+        <v>198.8276345411111</v>
       </c>
       <c r="Y38" t="n">
-        <v>237.0876815923024</v>
+        <v>232.368606456648</v>
       </c>
     </row>
     <row r="39">
@@ -25469,25 +25469,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>57.63770495373578</v>
+        <v>52.91862981808143</v>
       </c>
       <c r="C39" t="n">
-        <v>76.85944582699034</v>
+        <v>72.14037069133599</v>
       </c>
       <c r="D39" t="n">
-        <v>42.83918563027257</v>
+        <v>38.12011049461822</v>
       </c>
       <c r="E39" t="n">
-        <v>60.01431947688394</v>
+        <v>55.29524434122959</v>
       </c>
       <c r="F39" t="n">
-        <v>46.22179045505356</v>
+        <v>41.50271531939921</v>
       </c>
       <c r="G39" t="n">
-        <v>31.3113957591335</v>
+        <v>26.59232062347915</v>
       </c>
       <c r="H39" t="n">
-        <v>7.840503401104105</v>
+        <v>3.121428265449754</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -25517,28 +25517,28 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>29.40153407121107</v>
+        <v>24.68245893555672</v>
       </c>
       <c r="S39" t="n">
-        <v>81.0363067702215</v>
+        <v>76.31723163456715</v>
       </c>
       <c r="T39" t="n">
-        <v>102.2919355407278</v>
+        <v>97.57286040507348</v>
       </c>
       <c r="U39" t="n">
-        <v>120.0510339467712</v>
+        <v>115.3319588111169</v>
       </c>
       <c r="V39" t="n">
-        <v>117.1750602094829</v>
+        <v>112.4559850738285</v>
       </c>
       <c r="W39" t="n">
-        <v>156.4139637497129</v>
+        <v>151.6948886140586</v>
       </c>
       <c r="X39" t="n">
-        <v>100.6349453942627</v>
+        <v>95.91587025860832</v>
       </c>
       <c r="Y39" t="n">
-        <v>118.0493750610672</v>
+        <v>113.3302999254129</v>
       </c>
     </row>
     <row r="40">
@@ -25548,31 +25548,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>35.61726777907958</v>
+        <v>30.89819264342523</v>
       </c>
       <c r="C40" t="n">
-        <v>27.08159560007044</v>
+        <v>22.36252046441609</v>
       </c>
       <c r="D40" t="n">
-        <v>0.941205926342036</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>61.1613215586416</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>31.66662935341598</v>
+        <v>26.94755421776163</v>
       </c>
       <c r="H40" t="n">
-        <v>30.80036395028031</v>
+        <v>26.08128881462596</v>
       </c>
       <c r="I40" t="n">
-        <v>31.64315898063926</v>
+        <v>26.92408384498491</v>
       </c>
       <c r="J40" t="n">
-        <v>2.186931361031228</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25587,37 +25587,37 @@
         <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>92.52559636191177</v>
+        <v>47.17520955622612</v>
       </c>
       <c r="P40" t="n">
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>29.79756647469708</v>
+        <v>25.07849133904273</v>
       </c>
       <c r="R40" t="n">
-        <v>94.78848735513945</v>
+        <v>90.0694122194851</v>
       </c>
       <c r="S40" t="n">
-        <v>111.2419358435903</v>
+        <v>106.522860707936</v>
       </c>
       <c r="T40" t="n">
-        <v>76.34742671871204</v>
+        <v>71.62835158305769</v>
       </c>
       <c r="U40" t="n">
-        <v>155.0149548427096</v>
+        <v>150.2958797070553</v>
       </c>
       <c r="V40" t="n">
-        <v>94.24802006185413</v>
+        <v>89.52894492619978</v>
       </c>
       <c r="W40" t="n">
-        <v>159.3616048817831</v>
+        <v>154.6425297461287</v>
       </c>
       <c r="X40" t="n">
-        <v>77.0201121230391</v>
+        <v>72.30103698738475</v>
       </c>
       <c r="Y40" t="n">
-        <v>76.5622107760633</v>
+        <v>71.84313564040895</v>
       </c>
     </row>
     <row r="41">
@@ -25627,76 +25627,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>343.4836522392953</v>
+        <v>236.2619281686629</v>
       </c>
       <c r="C41" t="n">
-        <v>307.7818128463065</v>
+        <v>200.5600887756742</v>
       </c>
       <c r="D41" t="n">
-        <v>291.9547820464735</v>
+        <v>184.7330579758411</v>
       </c>
       <c r="E41" t="n">
-        <v>337.5527467702967</v>
+        <v>230.3310226996644</v>
       </c>
       <c r="F41" t="n">
-        <v>381.7446210446545</v>
+        <v>274.5228969740222</v>
       </c>
       <c r="G41" t="n">
-        <v>409.7267747294681</v>
+        <v>302.5050506588357</v>
       </c>
       <c r="H41" t="n">
-        <v>336.664405812823</v>
+        <v>229.4426817421906</v>
       </c>
       <c r="I41" t="n">
-        <v>246.5323163082164</v>
+        <v>139.310592237584</v>
       </c>
       <c r="J41" t="n">
-        <v>102.1882167122161</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>77.19522360982722</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>38.72970430810216</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>7.452579786414901</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>7.202705164692361</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>60.6259368985813</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>120.9415603382261</v>
+        <v>13.71983626759379</v>
       </c>
       <c r="R41" t="n">
-        <v>204.3995101768118</v>
+        <v>97.17778610617941</v>
       </c>
       <c r="S41" t="n">
-        <v>225.6024679854563</v>
+        <v>118.380743914824</v>
       </c>
       <c r="T41" t="n">
-        <v>202.5323353237092</v>
+        <v>95.3106112530768</v>
       </c>
       <c r="U41" t="n">
-        <v>233.1897622164589</v>
+        <v>125.9680381458265</v>
       </c>
       <c r="V41" t="n">
-        <v>293.5422009342005</v>
+        <v>186.3204768635681</v>
       </c>
       <c r="W41" t="n">
-        <v>302.326280412549</v>
+        <v>195.1045563419167</v>
       </c>
       <c r="X41" t="n">
-        <v>326.7826581346368</v>
+        <v>219.5609340640044</v>
       </c>
       <c r="Y41" t="n">
-        <v>360.3236300501737</v>
+        <v>253.1019059795413</v>
       </c>
     </row>
     <row r="42">
@@ -25706,34 +25706,34 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>180.8736534116071</v>
+        <v>73.65192934097473</v>
       </c>
       <c r="C42" t="n">
-        <v>207.9427135884484</v>
+        <v>92.87367021422929</v>
       </c>
       <c r="D42" t="n">
-        <v>166.0751340881439</v>
+        <v>58.85341001751152</v>
       </c>
       <c r="E42" t="n">
-        <v>183.2502679347553</v>
+        <v>76.0285438641229</v>
       </c>
       <c r="F42" t="n">
-        <v>169.4577389129249</v>
+        <v>62.23601484229252</v>
       </c>
       <c r="G42" t="n">
-        <v>154.5473442170048</v>
+        <v>47.32562014637246</v>
       </c>
       <c r="H42" t="n">
-        <v>145.7624330852993</v>
+        <v>23.85472778834306</v>
       </c>
       <c r="I42" t="n">
-        <v>108.5499672315473</v>
+        <v>1.328243160914909</v>
       </c>
       <c r="J42" t="n">
-        <v>100.4973517299579</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>28.79556533961363</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -25751,31 +25751,31 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>84.77581017613943</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>152.6374825290824</v>
+        <v>45.41575845845003</v>
       </c>
       <c r="S42" t="n">
-        <v>204.2722552280928</v>
+        <v>97.05053115746045</v>
       </c>
       <c r="T42" t="n">
-        <v>225.5278839985992</v>
+        <v>118.3061599279668</v>
       </c>
       <c r="U42" t="n">
-        <v>243.2869824046426</v>
+        <v>136.0652583340102</v>
       </c>
       <c r="V42" t="n">
-        <v>240.4110086673542</v>
+        <v>133.1892845967218</v>
       </c>
       <c r="W42" t="n">
-        <v>279.6499122075842</v>
+        <v>172.4281881369519</v>
       </c>
       <c r="X42" t="n">
-        <v>223.870893852134</v>
+        <v>116.6491697815016</v>
       </c>
       <c r="Y42" t="n">
-        <v>241.2853235189386</v>
+        <v>134.0635994483062</v>
       </c>
     </row>
     <row r="43">
@@ -25785,76 +25785,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>173.5391974632748</v>
+        <v>51.63149216631854</v>
       </c>
       <c r="C43" t="n">
-        <v>150.3175440579418</v>
+        <v>43.0958199873094</v>
       </c>
       <c r="D43" t="n">
-        <v>138.8631356105373</v>
+        <v>16.95543031358099</v>
       </c>
       <c r="E43" t="n">
-        <v>118.2314432544947</v>
+        <v>11.00971918386233</v>
       </c>
       <c r="F43" t="n">
-        <v>126.9717133511</v>
+        <v>5.064008054143699</v>
       </c>
       <c r="G43" t="n">
-        <v>154.9025778112873</v>
+        <v>47.68085374065493</v>
       </c>
       <c r="H43" t="n">
-        <v>154.0363124081516</v>
+        <v>46.81458833751927</v>
       </c>
       <c r="I43" t="n">
-        <v>154.8791074385106</v>
+        <v>169.5650886648345</v>
       </c>
       <c r="J43" t="n">
-        <v>125.4228798189026</v>
+        <v>18.20115574827018</v>
       </c>
       <c r="K43" t="n">
-        <v>86.07716731459774</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>79.85433933586287</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>78.84701260891001</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>49.38877151593371</v>
+        <v>64.0747527422576</v>
       </c>
       <c r="O43" t="n">
-        <v>77.83961513558788</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>95.77423973535767</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>167.7194961588923</v>
+        <v>45.81179086193603</v>
       </c>
       <c r="R43" t="n">
-        <v>218.0244358130108</v>
+        <v>232.7104170393347</v>
       </c>
       <c r="S43" t="n">
-        <v>234.4778843014617</v>
+        <v>127.2561602308293</v>
       </c>
       <c r="T43" t="n">
-        <v>199.5833751765834</v>
+        <v>92.361651105951</v>
       </c>
       <c r="U43" t="n">
-        <v>278.2509033005809</v>
+        <v>171.0291792299486</v>
       </c>
       <c r="V43" t="n">
-        <v>217.4839685197255</v>
+        <v>110.2622444490931</v>
       </c>
       <c r="W43" t="n">
-        <v>282.5975533396544</v>
+        <v>297.2835345659783</v>
       </c>
       <c r="X43" t="n">
-        <v>214.9420418072343</v>
+        <v>93.03433651027805</v>
       </c>
       <c r="Y43" t="n">
-        <v>214.4841404602585</v>
+        <v>92.57643516330225</v>
       </c>
     </row>
     <row r="44">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>589768.974118193</v>
+        <v>638725.602712701</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>626819.942434461</v>
+        <v>638725.6027127011</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>626819.942434461</v>
+        <v>643848.3025413331</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>626819.942434461</v>
+        <v>643848.3025413331</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>643848.3025413336</v>
+        <v>336289.791001748</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>643848.3025413337</v>
+        <v>643848.3025413331</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>643848.3025413336</v>
+        <v>638725.6027127011</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>643848.3025413336</v>
+        <v>638725.6027127011</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>626819.9424344614</v>
+        <v>638725.6027127011</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>315910.4327890668</v>
+        <v>586417.9760123838</v>
       </c>
     </row>
     <row r="16">
@@ -26313,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>847442.5528867174</v>
+      </c>
+      <c r="C2" t="n">
+        <v>847442.552886717</v>
+      </c>
+      <c r="D2" t="n">
         <v>847442.5528867169</v>
       </c>
-      <c r="C2" t="n">
-        <v>847442.5528867168</v>
-      </c>
-      <c r="D2" t="n">
-        <v>847442.5528867168</v>
-      </c>
       <c r="E2" t="n">
-        <v>557004.031111627</v>
+        <v>603240.8470064393</v>
       </c>
       <c r="F2" t="n">
-        <v>591996.6122992134</v>
+        <v>603240.8470064395</v>
       </c>
       <c r="G2" t="n">
-        <v>591996.6122992134</v>
+        <v>608078.9524001484</v>
       </c>
       <c r="H2" t="n">
-        <v>591996.6122992133</v>
+        <v>608078.9524001484</v>
       </c>
       <c r="I2" t="n">
-        <v>608078.9524001481</v>
+        <v>608078.9524001484</v>
       </c>
       <c r="J2" t="n">
-        <v>608078.9524001485</v>
+        <v>317607.0248349846</v>
       </c>
       <c r="K2" t="n">
-        <v>608078.9524001486</v>
+        <v>608078.9524001483</v>
       </c>
       <c r="L2" t="n">
-        <v>608078.9524001485</v>
+        <v>603240.8470064393</v>
       </c>
       <c r="M2" t="n">
-        <v>608078.9524001487</v>
+        <v>603240.8470064395</v>
       </c>
       <c r="N2" t="n">
-        <v>591996.6122992138</v>
+        <v>603240.8470064395</v>
       </c>
       <c r="O2" t="n">
-        <v>298359.8531896743</v>
+        <v>553839.1995672516</v>
       </c>
       <c r="P2" t="n">
         <v>263367.2720020877</v>
@@ -26374,25 +26374,25 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>516124.9141743943</v>
+        <v>531648.959263977</v>
       </c>
       <c r="F3" t="n">
-        <v>11748.78498105911</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1624.397459612001</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>5399.65756813555</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>98588.75876629706</v>
+        <v>16586.63961831465</v>
       </c>
       <c r="K3" t="n">
-        <v>11748.78498105912</v>
+        <v>97526.164237565</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26417,46 +26417,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>569049.7736743363</v>
+        <v>569049.7736743361</v>
       </c>
       <c r="C4" t="n">
-        <v>569049.7736743363</v>
+        <v>569049.7736743361</v>
       </c>
       <c r="D4" t="n">
-        <v>569049.7736743363</v>
+        <v>569049.7736743361</v>
       </c>
       <c r="E4" t="n">
-        <v>197174.3462073767</v>
+        <v>228221.9370213378</v>
       </c>
       <c r="F4" t="n">
-        <v>220671.5382438718</v>
+        <v>228221.9370213379</v>
       </c>
       <c r="G4" t="n">
-        <v>220671.5382438719</v>
+        <v>231470.6796882291</v>
       </c>
       <c r="H4" t="n">
-        <v>220671.5382438719</v>
+        <v>231470.6796882291</v>
       </c>
       <c r="I4" t="n">
-        <v>231470.6796882289</v>
+        <v>231470.6796882291</v>
       </c>
       <c r="J4" t="n">
-        <v>231470.6796882292</v>
+        <v>36421.4883576159</v>
       </c>
       <c r="K4" t="n">
-        <v>231470.6796882292</v>
+        <v>231470.6796882291</v>
       </c>
       <c r="L4" t="n">
-        <v>231470.6796882292</v>
+        <v>228221.9370213379</v>
       </c>
       <c r="M4" t="n">
-        <v>231470.6796882292</v>
+        <v>228221.9370213378</v>
       </c>
       <c r="N4" t="n">
-        <v>220671.5382438722</v>
+        <v>228221.9370213379</v>
       </c>
       <c r="O4" t="n">
-        <v>23497.19203649519</v>
+        <v>195049.1913306132</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -26478,37 +26478,37 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>21689.98961619793</v>
+        <v>23321.35329949309</v>
       </c>
       <c r="F5" t="n">
-        <v>22924.62537191375</v>
+        <v>23321.35329949309</v>
       </c>
       <c r="G5" t="n">
-        <v>22924.62537191375</v>
+        <v>23492.05513703325</v>
       </c>
       <c r="H5" t="n">
-        <v>22924.62537191375</v>
+        <v>23492.05513703325</v>
       </c>
       <c r="I5" t="n">
-        <v>23492.05513703324</v>
+        <v>23492.05513703325</v>
       </c>
       <c r="J5" t="n">
-        <v>23492.05513703325</v>
+        <v>13243.39626042343</v>
       </c>
       <c r="K5" t="n">
         <v>23492.05513703325</v>
       </c>
       <c r="L5" t="n">
-        <v>23492.05513703325</v>
+        <v>23321.35329949309</v>
       </c>
       <c r="M5" t="n">
-        <v>23492.05513703325</v>
+        <v>23321.35329949309</v>
       </c>
       <c r="N5" t="n">
-        <v>22924.62537191377</v>
+        <v>23321.35329949309</v>
       </c>
       <c r="O5" t="n">
-        <v>12564.30242100898</v>
+        <v>21578.32554190298</v>
       </c>
       <c r="P5" t="n">
         <v>11329.66666529316</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>244765.1792123807</v>
+        <v>244712.4401521887</v>
       </c>
       <c r="C6" t="n">
-        <v>244765.1792123805</v>
+        <v>244712.4401521884</v>
       </c>
       <c r="D6" t="n">
-        <v>244765.1792123805</v>
+        <v>244712.4401521882</v>
       </c>
       <c r="E6" t="n">
-        <v>-177985.218886342</v>
+        <v>-187186.5447526869</v>
       </c>
       <c r="F6" t="n">
-        <v>336651.6637023687</v>
+        <v>344462.4145112902</v>
       </c>
       <c r="G6" t="n">
-        <v>348400.4486834278</v>
+        <v>344398.9751584178</v>
       </c>
       <c r="H6" t="n">
-        <v>348400.4486834277</v>
+        <v>346023.3726180298</v>
       </c>
       <c r="I6" t="n">
-        <v>347716.5600067505</v>
+        <v>346023.3726180298</v>
       </c>
       <c r="J6" t="n">
-        <v>254527.458808589</v>
+        <v>235719.3636545636</v>
       </c>
       <c r="K6" t="n">
-        <v>341367.432593827</v>
+        <v>248497.2083804647</v>
       </c>
       <c r="L6" t="n">
-        <v>353116.217574886</v>
+        <v>344462.4145112901</v>
       </c>
       <c r="M6" t="n">
-        <v>353116.2175748863</v>
+        <v>344462.4145112903</v>
       </c>
       <c r="N6" t="n">
-        <v>348400.4486834278</v>
+        <v>344462.4145112902</v>
       </c>
       <c r="O6" t="n">
-        <v>262298.3587321701</v>
+        <v>328523.5508898527</v>
       </c>
       <c r="P6" t="n">
-        <v>252037.6053367945</v>
+        <v>234806.1815447012</v>
       </c>
     </row>
   </sheetData>
@@ -26694,37 +26694,37 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>123.2359484578712</v>
+        <v>142.6410048198496</v>
       </c>
       <c r="F2" t="n">
-        <v>137.921929684195</v>
+        <v>142.6410048198496</v>
       </c>
       <c r="G2" t="n">
-        <v>137.921929684195</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="H2" t="n">
-        <v>137.921929684195</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="I2" t="n">
-        <v>144.6715016443645</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="J2" t="n">
-        <v>144.6715016443647</v>
+        <v>22.76379634740833</v>
       </c>
       <c r="K2" t="n">
-        <v>144.6715016443647</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="L2" t="n">
-        <v>144.6715016443647</v>
+        <v>142.6410048198496</v>
       </c>
       <c r="M2" t="n">
-        <v>144.6715016443647</v>
+        <v>142.6410048198496</v>
       </c>
       <c r="N2" t="n">
-        <v>137.9219296841952</v>
+        <v>142.6410048198496</v>
       </c>
       <c r="O2" t="n">
-        <v>14.6859812263239</v>
+        <v>121.9077052969563</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26916,25 +26916,25 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>123.2359484578712</v>
+        <v>142.6410048198496</v>
       </c>
       <c r="F2" t="n">
-        <v>14.68598122632389</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>2.030496824515001</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>6.749571960169437</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>123.2359484578713</v>
+        <v>20.73329952289332</v>
       </c>
       <c r="K2" t="n">
-        <v>14.6859812263239</v>
+        <v>121.9077052969563</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27153,25 +27153,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>123.2359484578712</v>
+        <v>142.6410048198496</v>
       </c>
       <c r="K2" t="n">
-        <v>14.68598122632389</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>2.030496824515001</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>6.749571960169437</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>123.2359484578713</v>
+        <v>20.73329952289332</v>
       </c>
       <c r="P2" t="n">
-        <v>14.6859812263239</v>
+        <v>121.9077052969563</v>
       </c>
     </row>
     <row r="3">
@@ -28089,28 +28089,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>123.2359484578712</v>
+        <v>142.6410048198496</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>142.6410048198496</v>
       </c>
       <c r="D11" t="n">
-        <v>123.2359484578712</v>
+        <v>142.6410048198496</v>
       </c>
       <c r="E11" t="n">
-        <v>123.2359484578712</v>
+        <v>142.6410048198496</v>
       </c>
       <c r="F11" t="n">
-        <v>122.5513256877496</v>
+        <v>142.6410048198496</v>
       </c>
       <c r="G11" t="n">
-        <v>123.2359484578712</v>
+        <v>142.6410048198496</v>
       </c>
       <c r="H11" t="n">
-        <v>123.2359484578712</v>
+        <v>142.6410048198496</v>
       </c>
       <c r="I11" t="n">
-        <v>123.2359484578712</v>
+        <v>142.6410048198496</v>
       </c>
       <c r="J11" t="n">
         <v>116.87419793854</v>
@@ -28134,31 +28134,31 @@
         <v>75.31191812490522</v>
       </c>
       <c r="Q11" t="n">
-        <v>123.2359484578712</v>
+        <v>135.6275415645501</v>
       </c>
       <c r="R11" t="n">
-        <v>123.2359484578712</v>
+        <v>142.6410048198496</v>
       </c>
       <c r="S11" t="n">
-        <v>123.2359484578712</v>
+        <v>142.6410048198496</v>
       </c>
       <c r="T11" t="n">
-        <v>123.2359484578712</v>
+        <v>128.4173235466153</v>
       </c>
       <c r="U11" t="n">
-        <v>123.2359484578712</v>
+        <v>142.6410048198496</v>
       </c>
       <c r="V11" t="n">
-        <v>123.2359484578712</v>
+        <v>142.6410048198496</v>
       </c>
       <c r="W11" t="n">
-        <v>123.2359484578712</v>
+        <v>142.6410048198496</v>
       </c>
       <c r="X11" t="n">
-        <v>123.2359484578712</v>
+        <v>142.6410048198496</v>
       </c>
       <c r="Y11" t="n">
-        <v>123.2359484578712</v>
+        <v>142.6410048198496</v>
       </c>
     </row>
     <row r="12">
@@ -28168,25 +28168,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>123.2359484578712</v>
+        <v>142.6410048198496</v>
       </c>
       <c r="C12" t="n">
-        <v>123.2359484578712</v>
+        <v>142.6410048198496</v>
       </c>
       <c r="D12" t="n">
-        <v>123.2359484578712</v>
+        <v>142.6410048198496</v>
       </c>
       <c r="E12" t="n">
-        <v>123.2359484578712</v>
+        <v>142.6410048198496</v>
       </c>
       <c r="F12" t="n">
-        <v>123.2359484578712</v>
+        <v>142.6410048198496</v>
       </c>
       <c r="G12" t="n">
-        <v>123.2359484578712</v>
+        <v>142.6410048198496</v>
       </c>
       <c r="H12" t="n">
-        <v>123.2359484578712</v>
+        <v>142.6410048198496</v>
       </c>
       <c r="I12" t="n">
         <v>123.2359484578712</v>
@@ -28216,28 +28216,28 @@
         <v>84.77581017613943</v>
       </c>
       <c r="R12" t="n">
-        <v>123.2359484578712</v>
+        <v>142.6410048198496</v>
       </c>
       <c r="S12" t="n">
-        <v>123.2359484578712</v>
+        <v>142.6410048198496</v>
       </c>
       <c r="T12" t="n">
-        <v>123.2359484578712</v>
+        <v>142.6410048198496</v>
       </c>
       <c r="U12" t="n">
-        <v>123.2359484578712</v>
+        <v>142.6410048198496</v>
       </c>
       <c r="V12" t="n">
-        <v>123.2359484578712</v>
+        <v>142.6410048198496</v>
       </c>
       <c r="W12" t="n">
-        <v>123.2359484578712</v>
+        <v>142.6410048198496</v>
       </c>
       <c r="X12" t="n">
-        <v>123.2359484578712</v>
+        <v>142.6410048198496</v>
       </c>
       <c r="Y12" t="n">
-        <v>123.2359484578712</v>
+        <v>142.6410048198496</v>
       </c>
     </row>
     <row r="13">
@@ -28247,31 +28247,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>123.2359484578712</v>
+        <v>142.6410048198496</v>
       </c>
       <c r="C13" t="n">
-        <v>123.2359484578712</v>
+        <v>142.6410048198496</v>
       </c>
       <c r="D13" t="n">
-        <v>123.2359484578712</v>
+        <v>138.8631356105373</v>
       </c>
       <c r="E13" t="n">
-        <v>123.2359484578712</v>
+        <v>132.9174244808186</v>
       </c>
       <c r="F13" t="n">
-        <v>123.2359484578712</v>
+        <v>126.9717133511</v>
       </c>
       <c r="G13" t="n">
-        <v>123.2359484578712</v>
+        <v>142.6410048198496</v>
       </c>
       <c r="H13" t="n">
-        <v>123.2359484578712</v>
+        <v>142.6410048198496</v>
       </c>
       <c r="I13" t="n">
-        <v>123.2359484578712</v>
+        <v>142.6410048198496</v>
       </c>
       <c r="J13" t="n">
-        <v>123.2359484578712</v>
+        <v>140.1088610452264</v>
       </c>
       <c r="K13" t="n">
         <v>100.7631485409216</v>
@@ -28292,31 +28292,31 @@
         <v>110.4602209616816</v>
       </c>
       <c r="Q13" t="n">
-        <v>123.2359484578712</v>
+        <v>142.6410048198496</v>
       </c>
       <c r="R13" t="n">
-        <v>123.2359484578712</v>
+        <v>142.6410048198496</v>
       </c>
       <c r="S13" t="n">
-        <v>123.2359484578712</v>
+        <v>142.6410048198496</v>
       </c>
       <c r="T13" t="n">
-        <v>123.2359484578712</v>
+        <v>142.6410048198496</v>
       </c>
       <c r="U13" t="n">
-        <v>123.2359484578712</v>
+        <v>142.6410048198496</v>
       </c>
       <c r="V13" t="n">
-        <v>123.2359484578712</v>
+        <v>142.6410048198496</v>
       </c>
       <c r="W13" t="n">
-        <v>123.2359484578712</v>
+        <v>142.6410048198496</v>
       </c>
       <c r="X13" t="n">
-        <v>123.2359484578712</v>
+        <v>142.6410048198496</v>
       </c>
       <c r="Y13" t="n">
-        <v>123.2359484578712</v>
+        <v>142.6410048198496</v>
       </c>
     </row>
     <row r="14">
@@ -28326,28 +28326,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>137.921929684195</v>
+        <v>142.6410048198496</v>
       </c>
       <c r="C14" t="n">
-        <v>137.921929684195</v>
+        <v>142.6410048198496</v>
       </c>
       <c r="D14" t="n">
-        <v>137.921929684195</v>
+        <v>142.6410048198496</v>
       </c>
       <c r="E14" t="n">
-        <v>137.921929684195</v>
+        <v>142.6410048198496</v>
       </c>
       <c r="F14" t="n">
-        <v>137.921929684195</v>
+        <v>142.6410048198496</v>
       </c>
       <c r="G14" t="n">
-        <v>137.921929684195</v>
+        <v>142.6410048198496</v>
       </c>
       <c r="H14" t="n">
-        <v>137.921929684195</v>
+        <v>142.6410048198496</v>
       </c>
       <c r="I14" t="n">
-        <v>137.921929684195</v>
+        <v>142.6410048198496</v>
       </c>
       <c r="J14" t="n">
         <v>116.87419793854</v>
@@ -28374,28 +28374,28 @@
         <v>135.6275415645501</v>
       </c>
       <c r="R14" t="n">
-        <v>137.921929684195</v>
+        <v>142.6410048198496</v>
       </c>
       <c r="S14" t="n">
-        <v>137.921929684195</v>
+        <v>142.6410048198496</v>
       </c>
       <c r="T14" t="n">
-        <v>137.921929684195</v>
+        <v>142.6410048198496</v>
       </c>
       <c r="U14" t="n">
-        <v>137.921929684195</v>
+        <v>142.6410048198496</v>
       </c>
       <c r="V14" t="n">
-        <v>137.921929684195</v>
+        <v>142.6410048198496</v>
       </c>
       <c r="W14" t="n">
-        <v>137.921929684195</v>
+        <v>142.6410048198496</v>
       </c>
       <c r="X14" t="n">
-        <v>137.921929684195</v>
+        <v>142.6410048198496</v>
       </c>
       <c r="Y14" t="n">
-        <v>137.921929684195</v>
+        <v>142.6410048198496</v>
       </c>
     </row>
     <row r="15">
@@ -28405,25 +28405,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>137.921929684195</v>
+        <v>142.6410048198496</v>
       </c>
       <c r="C15" t="n">
-        <v>137.921929684195</v>
+        <v>142.6410048198496</v>
       </c>
       <c r="D15" t="n">
-        <v>137.921929684195</v>
+        <v>142.6410048198496</v>
       </c>
       <c r="E15" t="n">
-        <v>137.921929684195</v>
+        <v>142.6410048198496</v>
       </c>
       <c r="F15" t="n">
-        <v>137.921929684195</v>
+        <v>142.6410048198496</v>
       </c>
       <c r="G15" t="n">
-        <v>137.921929684195</v>
+        <v>142.6410048198496</v>
       </c>
       <c r="H15" t="n">
-        <v>137.921929684195</v>
+        <v>142.6410048198496</v>
       </c>
       <c r="I15" t="n">
         <v>123.2359484578712</v>
@@ -28453,28 +28453,28 @@
         <v>84.77581017613943</v>
       </c>
       <c r="R15" t="n">
-        <v>137.921929684195</v>
+        <v>142.6410048198496</v>
       </c>
       <c r="S15" t="n">
-        <v>137.921929684195</v>
+        <v>142.6410048198496</v>
       </c>
       <c r="T15" t="n">
-        <v>137.921929684195</v>
+        <v>142.6410048198496</v>
       </c>
       <c r="U15" t="n">
-        <v>137.921929684195</v>
+        <v>142.6410048198496</v>
       </c>
       <c r="V15" t="n">
-        <v>137.921929684195</v>
+        <v>142.6410048198496</v>
       </c>
       <c r="W15" t="n">
-        <v>50.92933463482065</v>
+        <v>142.6410048198496</v>
       </c>
       <c r="X15" t="n">
-        <v>137.921929684195</v>
+        <v>142.6410048198496</v>
       </c>
       <c r="Y15" t="n">
-        <v>137.921929684195</v>
+        <v>142.6410048198496</v>
       </c>
     </row>
     <row r="16">
@@ -28484,13 +28484,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>137.921929684195</v>
+        <v>142.6410048198496</v>
       </c>
       <c r="C16" t="n">
-        <v>137.921929684195</v>
+        <v>142.6410048198496</v>
       </c>
       <c r="D16" t="n">
-        <v>137.921929684195</v>
+        <v>138.8631356105373</v>
       </c>
       <c r="E16" t="n">
         <v>132.9174244808186</v>
@@ -28499,16 +28499,16 @@
         <v>126.9717133511</v>
       </c>
       <c r="G16" t="n">
-        <v>137.921929684195</v>
+        <v>142.6410048198496</v>
       </c>
       <c r="H16" t="n">
-        <v>137.921929684195</v>
+        <v>142.6410048198496</v>
       </c>
       <c r="I16" t="n">
-        <v>137.921929684195</v>
+        <v>142.6410048198496</v>
       </c>
       <c r="J16" t="n">
-        <v>137.921929684195</v>
+        <v>140.1088610452264</v>
       </c>
       <c r="K16" t="n">
         <v>100.7631485409216</v>
@@ -28529,31 +28529,31 @@
         <v>110.4602209616816</v>
       </c>
       <c r="Q16" t="n">
-        <v>137.921929684195</v>
+        <v>142.6410048198496</v>
       </c>
       <c r="R16" t="n">
-        <v>137.921929684195</v>
+        <v>142.6410048198496</v>
       </c>
       <c r="S16" t="n">
-        <v>137.921929684195</v>
+        <v>142.6410048198496</v>
       </c>
       <c r="T16" t="n">
-        <v>137.921929684195</v>
+        <v>142.6410048198496</v>
       </c>
       <c r="U16" t="n">
-        <v>137.921929684195</v>
+        <v>95.46579526362353</v>
       </c>
       <c r="V16" t="n">
-        <v>137.921929684195</v>
+        <v>142.6410048198496</v>
       </c>
       <c r="W16" t="n">
-        <v>137.921929684195</v>
+        <v>142.6410048198496</v>
       </c>
       <c r="X16" t="n">
-        <v>137.921929684195</v>
+        <v>142.6410048198496</v>
       </c>
       <c r="Y16" t="n">
-        <v>137.921929684195</v>
+        <v>142.6410048198496</v>
       </c>
     </row>
     <row r="17">
@@ -28563,28 +28563,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>137.921929684195</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="C17" t="n">
-        <v>137.921929684195</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="D17" t="n">
-        <v>137.921929684195</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="E17" t="n">
-        <v>137.921929684195</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="F17" t="n">
-        <v>137.921929684195</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="G17" t="n">
-        <v>137.921929684195</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="H17" t="n">
-        <v>137.921929684195</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="I17" t="n">
-        <v>137.921929684195</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="J17" t="n">
         <v>116.87419793854</v>
@@ -28611,28 +28611,28 @@
         <v>135.6275415645501</v>
       </c>
       <c r="R17" t="n">
-        <v>137.921929684195</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="S17" t="n">
-        <v>137.921929684195</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="T17" t="n">
-        <v>137.921929684195</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="U17" t="n">
-        <v>137.921929684195</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="V17" t="n">
-        <v>137.921929684195</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="W17" t="n">
-        <v>137.921929684195</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="X17" t="n">
-        <v>137.921929684195</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="Y17" t="n">
-        <v>137.921929684195</v>
+        <v>144.6715016443646</v>
       </c>
     </row>
     <row r="18">
@@ -28642,25 +28642,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>137.921929684195</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="C18" t="n">
-        <v>137.921929684195</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="D18" t="n">
-        <v>137.921929684195</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="E18" t="n">
-        <v>137.921929684195</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="F18" t="n">
-        <v>137.921929684195</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="G18" t="n">
-        <v>137.921929684195</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="H18" t="n">
-        <v>137.921929684195</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="I18" t="n">
         <v>123.2359484578712</v>
@@ -28690,28 +28690,28 @@
         <v>84.77581017613943</v>
       </c>
       <c r="R18" t="n">
-        <v>137.921929684195</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="S18" t="n">
-        <v>137.921929684195</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="T18" t="n">
-        <v>137.921929684195</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="U18" t="n">
-        <v>137.921929684195</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="V18" t="n">
-        <v>137.921929684195</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="W18" t="n">
-        <v>137.921929684195</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="X18" t="n">
-        <v>50.92933463482065</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="Y18" t="n">
-        <v>137.921929684195</v>
+        <v>144.6715016443646</v>
       </c>
     </row>
     <row r="19">
@@ -28721,13 +28721,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>137.921929684195</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="C19" t="n">
-        <v>137.921929684195</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="D19" t="n">
-        <v>137.921929684195</v>
+        <v>138.8631356105373</v>
       </c>
       <c r="E19" t="n">
         <v>132.9174244808186</v>
@@ -28736,16 +28736,16 @@
         <v>126.9717133511</v>
       </c>
       <c r="G19" t="n">
-        <v>137.921929684195</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="H19" t="n">
-        <v>137.921929684195</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="I19" t="n">
-        <v>137.921929684195</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="J19" t="n">
-        <v>137.921929684195</v>
+        <v>140.1088610452264</v>
       </c>
       <c r="K19" t="n">
         <v>100.7631485409216</v>
@@ -28766,31 +28766,31 @@
         <v>110.4602209616816</v>
       </c>
       <c r="Q19" t="n">
-        <v>137.921929684195</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="R19" t="n">
-        <v>137.921929684195</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="S19" t="n">
-        <v>137.921929684195</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="T19" t="n">
-        <v>137.921929684195</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="U19" t="n">
-        <v>137.921929684195</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="V19" t="n">
-        <v>137.921929684195</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="W19" t="n">
-        <v>137.921929684195</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="X19" t="n">
-        <v>137.921929684195</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="Y19" t="n">
-        <v>137.921929684195</v>
+        <v>144.6715016443646</v>
       </c>
     </row>
     <row r="20">
@@ -28800,28 +28800,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>137.921929684195</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="C20" t="n">
-        <v>137.921929684195</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="D20" t="n">
-        <v>137.921929684195</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="E20" t="n">
-        <v>137.921929684195</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="F20" t="n">
-        <v>137.921929684195</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="G20" t="n">
-        <v>137.921929684195</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="H20" t="n">
-        <v>137.921929684195</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="I20" t="n">
-        <v>137.921929684195</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="J20" t="n">
         <v>116.87419793854</v>
@@ -28833,7 +28833,7 @@
         <v>53.41568553442607</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>7.452579786414901</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -28848,28 +28848,28 @@
         <v>135.6275415645501</v>
       </c>
       <c r="R20" t="n">
-        <v>137.921929684195</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="S20" t="n">
-        <v>137.921929684195</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="T20" t="n">
-        <v>137.921929684195</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="U20" t="n">
-        <v>137.921929684195</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="V20" t="n">
-        <v>137.921929684195</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="W20" t="n">
-        <v>137.921929684195</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="X20" t="n">
-        <v>137.921929684195</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="Y20" t="n">
-        <v>137.921929684195</v>
+        <v>144.6715016443646</v>
       </c>
     </row>
     <row r="21">
@@ -28879,25 +28879,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>137.921929684195</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="C21" t="n">
-        <v>137.921929684195</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="D21" t="n">
-        <v>137.921929684195</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="E21" t="n">
-        <v>137.921929684195</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="F21" t="n">
-        <v>137.921929684195</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="G21" t="n">
-        <v>137.921929684195</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="H21" t="n">
-        <v>137.921929684195</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="I21" t="n">
         <v>123.2359484578712</v>
@@ -28927,28 +28927,28 @@
         <v>84.77581017613943</v>
       </c>
       <c r="R21" t="n">
-        <v>137.921929684195</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="S21" t="n">
-        <v>137.921929684195</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="T21" t="n">
-        <v>137.921929684195</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="U21" t="n">
-        <v>137.921929684195</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="V21" t="n">
-        <v>137.921929684195</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="W21" t="n">
-        <v>137.921929684195</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="X21" t="n">
-        <v>137.921929684195</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="Y21" t="n">
-        <v>64.92049857346738</v>
+        <v>144.6715016443646</v>
       </c>
     </row>
     <row r="22">
@@ -28958,13 +28958,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>137.921929684195</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="C22" t="n">
-        <v>137.921929684195</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="D22" t="n">
-        <v>137.921929684195</v>
+        <v>138.8631356105373</v>
       </c>
       <c r="E22" t="n">
         <v>132.9174244808186</v>
@@ -28973,16 +28973,16 @@
         <v>126.9717133511</v>
       </c>
       <c r="G22" t="n">
-        <v>137.921929684195</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="H22" t="n">
-        <v>137.921929684195</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="I22" t="n">
-        <v>137.921929684195</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="J22" t="n">
-        <v>137.921929684195</v>
+        <v>140.1088610452264</v>
       </c>
       <c r="K22" t="n">
         <v>100.7631485409216</v>
@@ -29003,31 +29003,31 @@
         <v>110.4602209616816</v>
       </c>
       <c r="Q22" t="n">
-        <v>137.921929684195</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="R22" t="n">
-        <v>137.921929684195</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="S22" t="n">
-        <v>137.921929684195</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="T22" t="n">
-        <v>137.921929684195</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="U22" t="n">
-        <v>137.921929684195</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="V22" t="n">
-        <v>137.921929684195</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="W22" t="n">
-        <v>137.921929684195</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="X22" t="n">
-        <v>137.921929684195</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="Y22" t="n">
-        <v>137.921929684195</v>
+        <v>144.6715016443646</v>
       </c>
     </row>
     <row r="23">
@@ -29037,28 +29037,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>144.6715016443645</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="C23" t="n">
-        <v>144.6715016443645</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="D23" t="n">
-        <v>144.6715016443645</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="E23" t="n">
-        <v>144.6715016443645</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="F23" t="n">
-        <v>144.6715016443645</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="G23" t="n">
-        <v>144.6715016443645</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="H23" t="n">
-        <v>144.6715016443645</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="I23" t="n">
-        <v>144.6715016443645</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="J23" t="n">
         <v>116.87419793854</v>
@@ -29085,28 +29085,28 @@
         <v>135.6275415645501</v>
       </c>
       <c r="R23" t="n">
-        <v>144.6715016443645</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="S23" t="n">
-        <v>144.6715016443645</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="T23" t="n">
-        <v>144.6715016443645</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="U23" t="n">
-        <v>144.6715016443645</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="V23" t="n">
-        <v>144.6715016443645</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="W23" t="n">
-        <v>144.6715016443645</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="X23" t="n">
-        <v>144.6715016443645</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="Y23" t="n">
-        <v>144.6715016443645</v>
+        <v>144.6715016443646</v>
       </c>
     </row>
     <row r="24">
@@ -29116,25 +29116,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>144.6715016443645</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="C24" t="n">
-        <v>144.6715016443645</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="D24" t="n">
-        <v>144.6715016443645</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="E24" t="n">
-        <v>144.6715016443645</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="F24" t="n">
-        <v>144.6715016443645</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="G24" t="n">
-        <v>144.6715016443645</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="H24" t="n">
-        <v>144.6715016443645</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="I24" t="n">
         <v>123.2359484578712</v>
@@ -29164,28 +29164,28 @@
         <v>84.77581017613943</v>
       </c>
       <c r="R24" t="n">
-        <v>144.6715016443645</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="S24" t="n">
-        <v>144.6715016443645</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="T24" t="n">
-        <v>144.6715016443645</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="U24" t="n">
-        <v>144.6715016443645</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="V24" t="n">
-        <v>144.6715016443645</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="W24" t="n">
-        <v>144.6715016443645</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="X24" t="n">
-        <v>144.6715016443645</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="Y24" t="n">
-        <v>144.6715016443645</v>
+        <v>144.6715016443646</v>
       </c>
     </row>
     <row r="25">
@@ -29195,10 +29195,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>144.6715016443645</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="C25" t="n">
-        <v>144.6715016443645</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="D25" t="n">
         <v>138.8631356105373</v>
@@ -29210,13 +29210,13 @@
         <v>126.9717133511</v>
       </c>
       <c r="G25" t="n">
-        <v>144.6715016443645</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="H25" t="n">
-        <v>144.6715016443645</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="I25" t="n">
-        <v>144.6715016443645</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="J25" t="n">
         <v>140.1088610452264</v>
@@ -29240,31 +29240,31 @@
         <v>110.4602209616816</v>
       </c>
       <c r="Q25" t="n">
-        <v>144.6715016443645</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="R25" t="n">
-        <v>144.6715016443645</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="S25" t="n">
-        <v>144.6715016443645</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="T25" t="n">
-        <v>144.6715016443645</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="U25" t="n">
-        <v>144.6715016443645</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="V25" t="n">
-        <v>144.6715016443645</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="W25" t="n">
-        <v>144.6715016443645</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="X25" t="n">
-        <v>144.6715016443645</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="Y25" t="n">
-        <v>144.6715016443645</v>
+        <v>144.6715016443646</v>
       </c>
     </row>
     <row r="26">
@@ -29274,37 +29274,37 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>144.6715016443647</v>
+        <v>22.76379634740833</v>
       </c>
       <c r="C26" t="n">
-        <v>144.6715016443647</v>
+        <v>22.76379634740833</v>
       </c>
       <c r="D26" t="n">
-        <v>144.6715016443647</v>
+        <v>22.76379634740833</v>
       </c>
       <c r="E26" t="n">
-        <v>144.6715016443647</v>
+        <v>22.76379634740833</v>
       </c>
       <c r="F26" t="n">
-        <v>144.6715016443647</v>
+        <v>22.76379634740833</v>
       </c>
       <c r="G26" t="n">
-        <v>144.6715016443647</v>
+        <v>22.76379634740833</v>
       </c>
       <c r="H26" t="n">
-        <v>144.6715016443647</v>
+        <v>22.76379634740833</v>
       </c>
       <c r="I26" t="n">
-        <v>144.6715016443647</v>
+        <v>22.76379634740833</v>
       </c>
       <c r="J26" t="n">
-        <v>116.87419793854</v>
+        <v>22.76379634740833</v>
       </c>
       <c r="K26" t="n">
-        <v>91.88120483615114</v>
+        <v>22.76379634740833</v>
       </c>
       <c r="L26" t="n">
-        <v>53.41568553442607</v>
+        <v>22.76379634740833</v>
       </c>
       <c r="M26" t="n">
         <v>7.452579786414901</v>
@@ -29316,34 +29316,34 @@
         <v>21.88868639101628</v>
       </c>
       <c r="P26" t="n">
-        <v>75.31191812490522</v>
+        <v>22.76379634740833</v>
       </c>
       <c r="Q26" t="n">
-        <v>135.6275415645501</v>
+        <v>22.76379634740833</v>
       </c>
       <c r="R26" t="n">
-        <v>144.6715016443647</v>
+        <v>2.028461419766613</v>
       </c>
       <c r="S26" t="n">
-        <v>144.6715016443647</v>
+        <v>22.76379634740833</v>
       </c>
       <c r="T26" t="n">
-        <v>144.6715016443647</v>
+        <v>22.76379634740833</v>
       </c>
       <c r="U26" t="n">
-        <v>144.6715016443647</v>
+        <v>22.76379634740833</v>
       </c>
       <c r="V26" t="n">
-        <v>144.6715016443647</v>
+        <v>22.76379634740833</v>
       </c>
       <c r="W26" t="n">
-        <v>144.6715016443647</v>
+        <v>22.76379634740833</v>
       </c>
       <c r="X26" t="n">
-        <v>144.6715016443647</v>
+        <v>22.76379634740833</v>
       </c>
       <c r="Y26" t="n">
-        <v>144.6715016443647</v>
+        <v>22.76379634740833</v>
       </c>
     </row>
     <row r="27">
@@ -29353,34 +29353,34 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>144.6715016443647</v>
+        <v>22.76379634740833</v>
       </c>
       <c r="C27" t="n">
-        <v>144.6715016443647</v>
+        <v>22.76379634740833</v>
       </c>
       <c r="D27" t="n">
-        <v>144.6715016443647</v>
+        <v>22.76379634740833</v>
       </c>
       <c r="E27" t="n">
-        <v>144.6715016443647</v>
+        <v>22.76379634740833</v>
       </c>
       <c r="F27" t="n">
-        <v>144.6715016443647</v>
+        <v>22.76379634740833</v>
       </c>
       <c r="G27" t="n">
-        <v>144.6715016443647</v>
+        <v>22.76379634740833</v>
       </c>
       <c r="H27" t="n">
-        <v>144.6715016443647</v>
+        <v>22.76379634740833</v>
       </c>
       <c r="I27" t="n">
-        <v>123.2359484578712</v>
+        <v>22.76379634740833</v>
       </c>
       <c r="J27" t="n">
-        <v>100.4973517299579</v>
+        <v>22.76379634740833</v>
       </c>
       <c r="K27" t="n">
-        <v>43.48154656593864</v>
+        <v>22.76379634740833</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -29398,31 +29398,31 @@
         <v>4.245097493356042</v>
       </c>
       <c r="Q27" t="n">
-        <v>84.77581017613943</v>
+        <v>22.76379634740833</v>
       </c>
       <c r="R27" t="n">
-        <v>144.6715016443647</v>
+        <v>22.76379634740833</v>
       </c>
       <c r="S27" t="n">
-        <v>144.6715016443647</v>
+        <v>22.76379634740833</v>
       </c>
       <c r="T27" t="n">
-        <v>144.6715016443647</v>
+        <v>22.76379634740833</v>
       </c>
       <c r="U27" t="n">
-        <v>144.6715016443647</v>
+        <v>22.76379634740833</v>
       </c>
       <c r="V27" t="n">
-        <v>144.6715016443647</v>
+        <v>22.76379634740833</v>
       </c>
       <c r="W27" t="n">
-        <v>144.6715016443647</v>
+        <v>22.76379634740833</v>
       </c>
       <c r="X27" t="n">
-        <v>144.6715016443647</v>
+        <v>22.76379634740833</v>
       </c>
       <c r="Y27" t="n">
-        <v>144.6715016443647</v>
+        <v>22.76379634740833</v>
       </c>
     </row>
     <row r="28">
@@ -29432,76 +29432,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>144.6715016443647</v>
+        <v>22.76379634740833</v>
       </c>
       <c r="C28" t="n">
-        <v>144.6715016443647</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>138.8631356105373</v>
+        <v>22.76379634740833</v>
       </c>
       <c r="E28" t="n">
-        <v>132.9174244808186</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>126.9717133511</v>
+        <v>22.76379634740833</v>
       </c>
       <c r="G28" t="n">
-        <v>144.6715016443647</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>144.6715016443647</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>144.6715016443647</v>
+        <v>22.76379634740833</v>
       </c>
       <c r="J28" t="n">
-        <v>140.1088610452264</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>100.7631485409216</v>
+        <v>22.76379634740833</v>
       </c>
       <c r="L28" t="n">
-        <v>79.85433933586287</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>78.84701260891001</v>
+        <v>22.76379634740833</v>
       </c>
       <c r="N28" t="n">
-        <v>64.0747527422576</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>92.52559636191177</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>110.4602209616816</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>144.6715016443647</v>
+        <v>22.76379634740833</v>
       </c>
       <c r="R28" t="n">
-        <v>144.6715016443647</v>
+        <v>22.76379634740833</v>
       </c>
       <c r="S28" t="n">
-        <v>144.6715016443647</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>144.6715016443647</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>144.6715016443647</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>144.6715016443647</v>
+        <v>22.76379634740833</v>
       </c>
       <c r="W28" t="n">
-        <v>144.6715016443647</v>
+        <v>22.76379634740833</v>
       </c>
       <c r="X28" t="n">
-        <v>144.6715016443647</v>
+        <v>22.76379634740833</v>
       </c>
       <c r="Y28" t="n">
-        <v>144.6715016443647</v>
+        <v>22.76379634740833</v>
       </c>
     </row>
     <row r="29">
@@ -29511,28 +29511,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>144.6715016443647</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="C29" t="n">
-        <v>144.6715016443647</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="D29" t="n">
-        <v>144.6715016443647</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="E29" t="n">
-        <v>144.6715016443647</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="F29" t="n">
-        <v>144.6715016443647</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="G29" t="n">
-        <v>144.6715016443647</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="H29" t="n">
-        <v>144.6715016443647</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="I29" t="n">
-        <v>144.6715016443647</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="J29" t="n">
         <v>116.87419793854</v>
@@ -29559,28 +29559,28 @@
         <v>135.6275415645501</v>
       </c>
       <c r="R29" t="n">
-        <v>144.6715016443647</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="S29" t="n">
-        <v>144.6715016443647</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="T29" t="n">
-        <v>144.6715016443647</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="U29" t="n">
-        <v>144.6715016443647</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="V29" t="n">
-        <v>144.6715016443647</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="W29" t="n">
-        <v>144.6715016443647</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="X29" t="n">
-        <v>144.6715016443647</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="Y29" t="n">
-        <v>144.6715016443647</v>
+        <v>144.6715016443646</v>
       </c>
     </row>
     <row r="30">
@@ -29590,25 +29590,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>144.6715016443647</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="C30" t="n">
-        <v>144.6715016443647</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="D30" t="n">
-        <v>144.6715016443647</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="E30" t="n">
-        <v>144.6715016443647</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="F30" t="n">
-        <v>144.6715016443647</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="G30" t="n">
-        <v>144.6715016443647</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="H30" t="n">
-        <v>144.6715016443647</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="I30" t="n">
         <v>123.2359484578712</v>
@@ -29635,31 +29635,31 @@
         <v>4.245097493356042</v>
       </c>
       <c r="Q30" t="n">
-        <v>84.77581017614169</v>
+        <v>84.77581017613943</v>
       </c>
       <c r="R30" t="n">
-        <v>144.6715016443647</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="S30" t="n">
-        <v>144.6715016443647</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="T30" t="n">
-        <v>144.6715016443647</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="U30" t="n">
-        <v>144.6715016443647</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="V30" t="n">
-        <v>144.6715016443647</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="W30" t="n">
-        <v>144.6715016443647</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="X30" t="n">
-        <v>144.6715016443647</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="Y30" t="n">
-        <v>144.6715016443647</v>
+        <v>144.6715016443646</v>
       </c>
     </row>
     <row r="31">
@@ -29669,10 +29669,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>144.6715016443647</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="C31" t="n">
-        <v>144.6715016443647</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="D31" t="n">
         <v>138.8631356105373</v>
@@ -29684,13 +29684,13 @@
         <v>126.9717133511</v>
       </c>
       <c r="G31" t="n">
-        <v>144.6715016443647</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="H31" t="n">
-        <v>144.6715016443647</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="I31" t="n">
-        <v>144.6715016443647</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="J31" t="n">
         <v>140.1088610452264</v>
@@ -29714,31 +29714,31 @@
         <v>110.4602209616816</v>
       </c>
       <c r="Q31" t="n">
-        <v>144.6715016443647</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="R31" t="n">
-        <v>144.6715016443647</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="S31" t="n">
-        <v>144.6715016443647</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="T31" t="n">
-        <v>144.6715016443647</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="U31" t="n">
-        <v>144.6715016443647</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="V31" t="n">
-        <v>144.6715016443647</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="W31" t="n">
-        <v>144.6715016443647</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="X31" t="n">
-        <v>144.6715016443647</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="Y31" t="n">
-        <v>144.6715016443647</v>
+        <v>144.6715016443646</v>
       </c>
     </row>
     <row r="32">
@@ -29748,28 +29748,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>144.6715016443647</v>
+        <v>142.6410048198496</v>
       </c>
       <c r="C32" t="n">
-        <v>144.6715016443647</v>
+        <v>142.6410048198496</v>
       </c>
       <c r="D32" t="n">
-        <v>144.6715016443647</v>
+        <v>142.6410048198496</v>
       </c>
       <c r="E32" t="n">
-        <v>144.6715016443647</v>
+        <v>142.6410048198496</v>
       </c>
       <c r="F32" t="n">
-        <v>144.6715016443647</v>
+        <v>142.6410048198496</v>
       </c>
       <c r="G32" t="n">
-        <v>144.6715016443647</v>
+        <v>142.6410048198496</v>
       </c>
       <c r="H32" t="n">
-        <v>144.6715016443647</v>
+        <v>142.6410048198496</v>
       </c>
       <c r="I32" t="n">
-        <v>144.6715016443647</v>
+        <v>142.6410048198496</v>
       </c>
       <c r="J32" t="n">
         <v>116.87419793854</v>
@@ -29796,28 +29796,28 @@
         <v>135.6275415645501</v>
       </c>
       <c r="R32" t="n">
-        <v>144.6715016443647</v>
+        <v>142.6410048198496</v>
       </c>
       <c r="S32" t="n">
-        <v>144.6715016443647</v>
+        <v>142.6410048198496</v>
       </c>
       <c r="T32" t="n">
-        <v>144.6715016443647</v>
+        <v>142.6410048198496</v>
       </c>
       <c r="U32" t="n">
-        <v>144.6715016443647</v>
+        <v>142.6410048198496</v>
       </c>
       <c r="V32" t="n">
-        <v>144.6715016443647</v>
+        <v>142.6410048198496</v>
       </c>
       <c r="W32" t="n">
-        <v>144.6715016443647</v>
+        <v>142.6410048198496</v>
       </c>
       <c r="X32" t="n">
-        <v>144.6715016443647</v>
+        <v>142.6410048198496</v>
       </c>
       <c r="Y32" t="n">
-        <v>144.6715016443647</v>
+        <v>142.6410048198496</v>
       </c>
     </row>
     <row r="33">
@@ -29827,25 +29827,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>144.6715016443647</v>
+        <v>142.6410048198496</v>
       </c>
       <c r="C33" t="n">
-        <v>144.6715016443647</v>
+        <v>142.6410048198496</v>
       </c>
       <c r="D33" t="n">
-        <v>144.6715016443647</v>
+        <v>142.6410048198496</v>
       </c>
       <c r="E33" t="n">
-        <v>144.6715016443647</v>
+        <v>142.6410048198496</v>
       </c>
       <c r="F33" t="n">
-        <v>144.6715016443647</v>
+        <v>142.6410048198496</v>
       </c>
       <c r="G33" t="n">
-        <v>144.6715016443647</v>
+        <v>142.6410048198496</v>
       </c>
       <c r="H33" t="n">
-        <v>144.6715016443647</v>
+        <v>142.6410048198496</v>
       </c>
       <c r="I33" t="n">
         <v>123.2359484578712</v>
@@ -29869,34 +29869,34 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>4.245097493356916</v>
+        <v>4.245097493356042</v>
       </c>
       <c r="Q33" t="n">
         <v>84.77581017613943</v>
       </c>
       <c r="R33" t="n">
-        <v>144.6715016443647</v>
+        <v>142.6410048198496</v>
       </c>
       <c r="S33" t="n">
-        <v>144.6715016443647</v>
+        <v>142.6410048198496</v>
       </c>
       <c r="T33" t="n">
-        <v>144.6715016443647</v>
+        <v>142.6410048198496</v>
       </c>
       <c r="U33" t="n">
-        <v>144.6715016443647</v>
+        <v>142.6410048198496</v>
       </c>
       <c r="V33" t="n">
-        <v>144.6715016443647</v>
+        <v>142.6410048198496</v>
       </c>
       <c r="W33" t="n">
-        <v>144.6715016443647</v>
+        <v>142.6410048198496</v>
       </c>
       <c r="X33" t="n">
-        <v>144.6715016443647</v>
+        <v>142.6410048198496</v>
       </c>
       <c r="Y33" t="n">
-        <v>144.6715016443647</v>
+        <v>142.6410048198496</v>
       </c>
     </row>
     <row r="34">
@@ -29906,10 +29906,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>144.6715016443647</v>
+        <v>142.6410048198496</v>
       </c>
       <c r="C34" t="n">
-        <v>144.6715016443647</v>
+        <v>142.6410048198496</v>
       </c>
       <c r="D34" t="n">
         <v>138.8631356105373</v>
@@ -29921,13 +29921,13 @@
         <v>126.9717133511</v>
       </c>
       <c r="G34" t="n">
-        <v>144.6715016443647</v>
+        <v>142.6410048198496</v>
       </c>
       <c r="H34" t="n">
-        <v>144.6715016443647</v>
+        <v>142.6410048198496</v>
       </c>
       <c r="I34" t="n">
-        <v>144.6715016443647</v>
+        <v>142.6410048198496</v>
       </c>
       <c r="J34" t="n">
         <v>140.1088610452264</v>
@@ -29951,31 +29951,31 @@
         <v>110.4602209616816</v>
       </c>
       <c r="Q34" t="n">
-        <v>144.6715016443647</v>
+        <v>142.6410048198496</v>
       </c>
       <c r="R34" t="n">
-        <v>144.6715016443647</v>
+        <v>142.6410048198496</v>
       </c>
       <c r="S34" t="n">
-        <v>144.6715016443647</v>
+        <v>142.6410048198496</v>
       </c>
       <c r="T34" t="n">
-        <v>144.6715016443647</v>
+        <v>142.6410048198496</v>
       </c>
       <c r="U34" t="n">
-        <v>144.6715016443647</v>
+        <v>142.6410048198496</v>
       </c>
       <c r="V34" t="n">
-        <v>144.6715016443647</v>
+        <v>142.6410048198496</v>
       </c>
       <c r="W34" t="n">
-        <v>144.6715016443647</v>
+        <v>142.6410048198496</v>
       </c>
       <c r="X34" t="n">
-        <v>144.6715016443647</v>
+        <v>142.6410048198496</v>
       </c>
       <c r="Y34" t="n">
-        <v>144.6715016443647</v>
+        <v>95.46579526362451</v>
       </c>
     </row>
     <row r="35">
@@ -29985,28 +29985,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>144.6715016443647</v>
+        <v>142.6410048198496</v>
       </c>
       <c r="C35" t="n">
-        <v>144.6715016443647</v>
+        <v>142.6410048198496</v>
       </c>
       <c r="D35" t="n">
-        <v>144.6715016443647</v>
+        <v>142.6410048198496</v>
       </c>
       <c r="E35" t="n">
-        <v>144.6715016443647</v>
+        <v>142.6410048198496</v>
       </c>
       <c r="F35" t="n">
-        <v>144.6715016443647</v>
+        <v>142.6410048198496</v>
       </c>
       <c r="G35" t="n">
-        <v>144.6715016443647</v>
+        <v>142.6410048198496</v>
       </c>
       <c r="H35" t="n">
-        <v>144.6715016443647</v>
+        <v>142.6410048198496</v>
       </c>
       <c r="I35" t="n">
-        <v>144.6715016443647</v>
+        <v>142.6410048198496</v>
       </c>
       <c r="J35" t="n">
         <v>116.87419793854</v>
@@ -30033,28 +30033,28 @@
         <v>135.6275415645501</v>
       </c>
       <c r="R35" t="n">
-        <v>144.6715016443647</v>
+        <v>142.6410048198496</v>
       </c>
       <c r="S35" t="n">
-        <v>144.6715016443647</v>
+        <v>142.6410048198496</v>
       </c>
       <c r="T35" t="n">
-        <v>144.6715016443647</v>
+        <v>142.6410048198496</v>
       </c>
       <c r="U35" t="n">
-        <v>144.6715016443647</v>
+        <v>142.6410048198496</v>
       </c>
       <c r="V35" t="n">
-        <v>144.6715016443647</v>
+        <v>142.6410048198496</v>
       </c>
       <c r="W35" t="n">
-        <v>144.6715016443647</v>
+        <v>142.6410048198496</v>
       </c>
       <c r="X35" t="n">
-        <v>144.6715016443647</v>
+        <v>142.6410048198496</v>
       </c>
       <c r="Y35" t="n">
-        <v>144.6715016443647</v>
+        <v>142.6410048198496</v>
       </c>
     </row>
     <row r="36">
@@ -30064,25 +30064,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>144.6715016443647</v>
+        <v>142.6410048198496</v>
       </c>
       <c r="C36" t="n">
-        <v>144.6715016443647</v>
+        <v>142.6410048198496</v>
       </c>
       <c r="D36" t="n">
-        <v>144.6715016443647</v>
+        <v>142.6410048198496</v>
       </c>
       <c r="E36" t="n">
-        <v>144.6715016443647</v>
+        <v>142.6410048198496</v>
       </c>
       <c r="F36" t="n">
-        <v>144.6715016443647</v>
+        <v>142.6410048198496</v>
       </c>
       <c r="G36" t="n">
-        <v>144.6715016443647</v>
+        <v>142.6410048198496</v>
       </c>
       <c r="H36" t="n">
-        <v>144.6715016443647</v>
+        <v>142.6410048198496</v>
       </c>
       <c r="I36" t="n">
         <v>123.2359484578712</v>
@@ -30112,28 +30112,28 @@
         <v>84.77581017613943</v>
       </c>
       <c r="R36" t="n">
-        <v>144.6715016443647</v>
+        <v>142.6410048198496</v>
       </c>
       <c r="S36" t="n">
-        <v>144.6715016443647</v>
+        <v>142.6410048198496</v>
       </c>
       <c r="T36" t="n">
-        <v>144.6715016443647</v>
+        <v>142.6410048198496</v>
       </c>
       <c r="U36" t="n">
-        <v>144.6715016443647</v>
+        <v>142.6410048198496</v>
       </c>
       <c r="V36" t="n">
-        <v>144.6715016443647</v>
+        <v>142.6410048198496</v>
       </c>
       <c r="W36" t="n">
-        <v>144.6715016443647</v>
+        <v>142.6410048198496</v>
       </c>
       <c r="X36" t="n">
-        <v>144.6715016443647</v>
+        <v>142.6410048198496</v>
       </c>
       <c r="Y36" t="n">
-        <v>144.6715016443647</v>
+        <v>142.6410048198496</v>
       </c>
     </row>
     <row r="37">
@@ -30143,10 +30143,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>144.6715016443647</v>
+        <v>142.6410048198496</v>
       </c>
       <c r="C37" t="n">
-        <v>144.6715016443647</v>
+        <v>142.6410048198496</v>
       </c>
       <c r="D37" t="n">
         <v>138.8631356105373</v>
@@ -30158,13 +30158,13 @@
         <v>126.9717133511</v>
       </c>
       <c r="G37" t="n">
-        <v>144.6715016443647</v>
+        <v>142.6410048198496</v>
       </c>
       <c r="H37" t="n">
-        <v>144.6715016443647</v>
+        <v>142.6410048198496</v>
       </c>
       <c r="I37" t="n">
-        <v>144.6715016443647</v>
+        <v>142.6410048198496</v>
       </c>
       <c r="J37" t="n">
         <v>140.1088610452264</v>
@@ -30179,40 +30179,40 @@
         <v>78.84701260891001</v>
       </c>
       <c r="N37" t="n">
-        <v>64.07475274226042</v>
+        <v>64.0747527422576</v>
       </c>
       <c r="O37" t="n">
         <v>92.52559636191177</v>
       </c>
       <c r="P37" t="n">
-        <v>110.4602209616816</v>
+        <v>63.28501140545559</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.6715016443647</v>
+        <v>142.6410048198496</v>
       </c>
       <c r="R37" t="n">
-        <v>144.6715016443647</v>
+        <v>142.6410048198496</v>
       </c>
       <c r="S37" t="n">
-        <v>144.6715016443647</v>
+        <v>142.6410048198496</v>
       </c>
       <c r="T37" t="n">
-        <v>144.6715016443647</v>
+        <v>142.6410048198496</v>
       </c>
       <c r="U37" t="n">
-        <v>144.6715016443647</v>
+        <v>142.6410048198496</v>
       </c>
       <c r="V37" t="n">
-        <v>144.6715016443647</v>
+        <v>142.6410048198496</v>
       </c>
       <c r="W37" t="n">
-        <v>144.6715016443647</v>
+        <v>142.6410048198496</v>
       </c>
       <c r="X37" t="n">
-        <v>144.6715016443647</v>
+        <v>142.6410048198496</v>
       </c>
       <c r="Y37" t="n">
-        <v>144.6715016443647</v>
+        <v>142.6410048198496</v>
       </c>
     </row>
     <row r="38">
@@ -30222,28 +30222,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>137.9219296841952</v>
+        <v>142.6410048198496</v>
       </c>
       <c r="C38" t="n">
-        <v>137.9219296841952</v>
+        <v>142.6410048198496</v>
       </c>
       <c r="D38" t="n">
-        <v>137.9219296841952</v>
+        <v>142.6410048198496</v>
       </c>
       <c r="E38" t="n">
-        <v>137.9219296841952</v>
+        <v>142.6410048198496</v>
       </c>
       <c r="F38" t="n">
-        <v>137.9219296841952</v>
+        <v>142.6410048198496</v>
       </c>
       <c r="G38" t="n">
-        <v>137.9219296841952</v>
+        <v>142.6410048198496</v>
       </c>
       <c r="H38" t="n">
-        <v>137.9219296841952</v>
+        <v>142.6410048198496</v>
       </c>
       <c r="I38" t="n">
-        <v>137.9219296841952</v>
+        <v>142.6410048198496</v>
       </c>
       <c r="J38" t="n">
         <v>116.87419793854</v>
@@ -30270,28 +30270,28 @@
         <v>135.6275415645501</v>
       </c>
       <c r="R38" t="n">
-        <v>137.9219296841952</v>
+        <v>142.6410048198496</v>
       </c>
       <c r="S38" t="n">
-        <v>137.9219296841952</v>
+        <v>142.6410048198496</v>
       </c>
       <c r="T38" t="n">
-        <v>137.9219296841952</v>
+        <v>142.6410048198496</v>
       </c>
       <c r="U38" t="n">
-        <v>137.9219296841952</v>
+        <v>142.6410048198496</v>
       </c>
       <c r="V38" t="n">
-        <v>137.9219296841952</v>
+        <v>142.6410048198496</v>
       </c>
       <c r="W38" t="n">
-        <v>137.9219296841952</v>
+        <v>142.6410048198496</v>
       </c>
       <c r="X38" t="n">
-        <v>137.9219296841952</v>
+        <v>142.6410048198496</v>
       </c>
       <c r="Y38" t="n">
-        <v>137.9219296841952</v>
+        <v>142.6410048198496</v>
       </c>
     </row>
     <row r="39">
@@ -30301,25 +30301,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>137.9219296841952</v>
+        <v>142.6410048198496</v>
       </c>
       <c r="C39" t="n">
-        <v>137.9219296841952</v>
+        <v>142.6410048198496</v>
       </c>
       <c r="D39" t="n">
-        <v>137.9219296841952</v>
+        <v>142.6410048198496</v>
       </c>
       <c r="E39" t="n">
-        <v>137.9219296841952</v>
+        <v>142.6410048198496</v>
       </c>
       <c r="F39" t="n">
-        <v>137.9219296841952</v>
+        <v>142.6410048198496</v>
       </c>
       <c r="G39" t="n">
-        <v>137.9219296841952</v>
+        <v>142.6410048198496</v>
       </c>
       <c r="H39" t="n">
-        <v>137.9219296841952</v>
+        <v>142.6410048198496</v>
       </c>
       <c r="I39" t="n">
         <v>123.2359484578712</v>
@@ -30349,28 +30349,28 @@
         <v>84.77581017613943</v>
       </c>
       <c r="R39" t="n">
-        <v>137.9219296841952</v>
+        <v>142.6410048198496</v>
       </c>
       <c r="S39" t="n">
-        <v>137.9219296841952</v>
+        <v>142.6410048198496</v>
       </c>
       <c r="T39" t="n">
-        <v>137.9219296841952</v>
+        <v>142.6410048198496</v>
       </c>
       <c r="U39" t="n">
-        <v>137.9219296841952</v>
+        <v>142.6410048198496</v>
       </c>
       <c r="V39" t="n">
-        <v>137.9219296841952</v>
+        <v>142.6410048198496</v>
       </c>
       <c r="W39" t="n">
-        <v>137.9219296841952</v>
+        <v>142.6410048198496</v>
       </c>
       <c r="X39" t="n">
-        <v>137.9219296841952</v>
+        <v>142.6410048198496</v>
       </c>
       <c r="Y39" t="n">
-        <v>137.9219296841952</v>
+        <v>142.6410048198496</v>
       </c>
     </row>
     <row r="40">
@@ -30380,31 +30380,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>137.9219296841952</v>
+        <v>142.6410048198496</v>
       </c>
       <c r="C40" t="n">
-        <v>137.9219296841952</v>
+        <v>142.6410048198496</v>
       </c>
       <c r="D40" t="n">
-        <v>137.9219296841952</v>
+        <v>138.8631356105373</v>
       </c>
       <c r="E40" t="n">
         <v>132.9174244808186</v>
       </c>
       <c r="F40" t="n">
-        <v>65.81039179245836</v>
+        <v>126.9717133511</v>
       </c>
       <c r="G40" t="n">
-        <v>137.9219296841952</v>
+        <v>142.6410048198496</v>
       </c>
       <c r="H40" t="n">
-        <v>137.9219296841952</v>
+        <v>142.6410048198496</v>
       </c>
       <c r="I40" t="n">
-        <v>137.9219296841952</v>
+        <v>142.6410048198496</v>
       </c>
       <c r="J40" t="n">
-        <v>137.9219296841952</v>
+        <v>140.1088610452264</v>
       </c>
       <c r="K40" t="n">
         <v>100.7631485409216</v>
@@ -30419,37 +30419,37 @@
         <v>64.0747527422576</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>45.35038680568565</v>
       </c>
       <c r="P40" t="n">
         <v>110.4602209616816</v>
       </c>
       <c r="Q40" t="n">
-        <v>137.9219296841952</v>
+        <v>142.6410048198496</v>
       </c>
       <c r="R40" t="n">
-        <v>137.9219296841952</v>
+        <v>142.6410048198496</v>
       </c>
       <c r="S40" t="n">
-        <v>137.9219296841952</v>
+        <v>142.6410048198496</v>
       </c>
       <c r="T40" t="n">
-        <v>137.9219296841952</v>
+        <v>142.6410048198496</v>
       </c>
       <c r="U40" t="n">
-        <v>137.9219296841952</v>
+        <v>142.6410048198496</v>
       </c>
       <c r="V40" t="n">
-        <v>137.9219296841952</v>
+        <v>142.6410048198496</v>
       </c>
       <c r="W40" t="n">
-        <v>137.9219296841952</v>
+        <v>142.6410048198496</v>
       </c>
       <c r="X40" t="n">
-        <v>137.9219296841952</v>
+        <v>142.6410048198496</v>
       </c>
       <c r="Y40" t="n">
-        <v>137.9219296841952</v>
+        <v>142.6410048198496</v>
       </c>
     </row>
     <row r="41">
@@ -30459,76 +30459,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>14.6859812263239</v>
+        <v>121.9077052969563</v>
       </c>
       <c r="C41" t="n">
-        <v>14.6859812263239</v>
+        <v>121.9077052969563</v>
       </c>
       <c r="D41" t="n">
-        <v>14.6859812263239</v>
+        <v>121.9077052969563</v>
       </c>
       <c r="E41" t="n">
-        <v>14.6859812263239</v>
+        <v>121.9077052969563</v>
       </c>
       <c r="F41" t="n">
-        <v>14.6859812263239</v>
+        <v>121.9077052969563</v>
       </c>
       <c r="G41" t="n">
-        <v>14.6859812263239</v>
+        <v>121.9077052969563</v>
       </c>
       <c r="H41" t="n">
-        <v>14.6859812263239</v>
+        <v>121.9077052969563</v>
       </c>
       <c r="I41" t="n">
-        <v>14.6859812263239</v>
+        <v>121.9077052969563</v>
       </c>
       <c r="J41" t="n">
-        <v>14.6859812263239</v>
+        <v>116.87419793854</v>
       </c>
       <c r="K41" t="n">
-        <v>14.6859812263239</v>
+        <v>91.8812048361512</v>
       </c>
       <c r="L41" t="n">
-        <v>14.6859812263239</v>
+        <v>53.41568553442607</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>7.452579786414901</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>14.6859812263239</v>
+        <v>21.88868639101628</v>
       </c>
       <c r="P41" t="n">
-        <v>14.6859812263239</v>
+        <v>75.31191812490522</v>
       </c>
       <c r="Q41" t="n">
-        <v>14.6859812263239</v>
+        <v>121.9077052969563</v>
       </c>
       <c r="R41" t="n">
-        <v>14.6859812263239</v>
+        <v>121.9077052969563</v>
       </c>
       <c r="S41" t="n">
-        <v>14.6859812263239</v>
+        <v>121.9077052969563</v>
       </c>
       <c r="T41" t="n">
-        <v>14.6859812263239</v>
+        <v>121.9077052969563</v>
       </c>
       <c r="U41" t="n">
-        <v>14.6859812263239</v>
+        <v>121.9077052969563</v>
       </c>
       <c r="V41" t="n">
-        <v>14.6859812263239</v>
+        <v>121.9077052969563</v>
       </c>
       <c r="W41" t="n">
-        <v>14.6859812263239</v>
+        <v>121.9077052969563</v>
       </c>
       <c r="X41" t="n">
-        <v>14.6859812263239</v>
+        <v>121.9077052969563</v>
       </c>
       <c r="Y41" t="n">
-        <v>14.6859812263239</v>
+        <v>121.9077052969563</v>
       </c>
     </row>
     <row r="42">
@@ -30538,34 +30538,34 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>14.6859812263239</v>
+        <v>121.9077052969563</v>
       </c>
       <c r="C42" t="n">
-        <v>6.838661922737199</v>
+        <v>121.9077052969563</v>
       </c>
       <c r="D42" t="n">
-        <v>14.6859812263239</v>
+        <v>121.9077052969563</v>
       </c>
       <c r="E42" t="n">
-        <v>14.6859812263239</v>
+        <v>121.9077052969563</v>
       </c>
       <c r="F42" t="n">
-        <v>14.6859812263239</v>
+        <v>121.9077052969563</v>
       </c>
       <c r="G42" t="n">
-        <v>14.6859812263239</v>
+        <v>121.9077052969563</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>121.9077052969563</v>
       </c>
       <c r="I42" t="n">
-        <v>14.6859812263239</v>
+        <v>121.9077052969563</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>100.4973517299579</v>
       </c>
       <c r="K42" t="n">
-        <v>14.6859812263239</v>
+        <v>43.48154656593752</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -30583,31 +30583,31 @@
         <v>4.245097493356042</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>84.77581017613943</v>
       </c>
       <c r="R42" t="n">
-        <v>14.6859812263239</v>
+        <v>121.9077052969563</v>
       </c>
       <c r="S42" t="n">
-        <v>14.6859812263239</v>
+        <v>121.9077052969563</v>
       </c>
       <c r="T42" t="n">
-        <v>14.6859812263239</v>
+        <v>121.9077052969563</v>
       </c>
       <c r="U42" t="n">
-        <v>14.6859812263239</v>
+        <v>121.9077052969563</v>
       </c>
       <c r="V42" t="n">
-        <v>14.6859812263239</v>
+        <v>121.9077052969563</v>
       </c>
       <c r="W42" t="n">
-        <v>14.6859812263239</v>
+        <v>121.9077052969563</v>
       </c>
       <c r="X42" t="n">
-        <v>14.6859812263239</v>
+        <v>121.9077052969563</v>
       </c>
       <c r="Y42" t="n">
-        <v>14.6859812263239</v>
+        <v>121.9077052969563</v>
       </c>
     </row>
     <row r="43">
@@ -30617,76 +30617,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>121.9077052969563</v>
       </c>
       <c r="C43" t="n">
-        <v>14.6859812263239</v>
+        <v>121.9077052969563</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>121.9077052969563</v>
       </c>
       <c r="E43" t="n">
-        <v>14.6859812263239</v>
+        <v>121.9077052969563</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>121.9077052969563</v>
       </c>
       <c r="G43" t="n">
-        <v>14.6859812263239</v>
+        <v>121.9077052969563</v>
       </c>
       <c r="H43" t="n">
-        <v>14.6859812263239</v>
+        <v>121.9077052969563</v>
       </c>
       <c r="I43" t="n">
-        <v>14.6859812263239</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>14.6859812263239</v>
+        <v>121.9077052969563</v>
       </c>
       <c r="K43" t="n">
-        <v>14.6859812263239</v>
+        <v>100.7631485409216</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>79.8543393358629</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>78.84701260891001</v>
       </c>
       <c r="N43" t="n">
-        <v>14.6859812263239</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>14.6859812263239</v>
+        <v>92.52559636191177</v>
       </c>
       <c r="P43" t="n">
-        <v>14.6859812263239</v>
+        <v>110.4602209616816</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>121.9077052969563</v>
       </c>
       <c r="R43" t="n">
-        <v>14.6859812263239</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>14.6859812263239</v>
+        <v>121.9077052969563</v>
       </c>
       <c r="T43" t="n">
-        <v>14.6859812263239</v>
+        <v>121.9077052969563</v>
       </c>
       <c r="U43" t="n">
-        <v>14.6859812263239</v>
+        <v>121.9077052969563</v>
       </c>
       <c r="V43" t="n">
-        <v>14.6859812263239</v>
+        <v>121.9077052969563</v>
       </c>
       <c r="W43" t="n">
-        <v>14.6859812263239</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>121.9077052969563</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>121.9077052969563</v>
       </c>
     </row>
     <row r="44">
@@ -34131,10 +34131,10 @@
         <v>80.5471345929122</v>
       </c>
       <c r="J41" t="n">
-        <v>177.3253969173253</v>
+        <v>177.3253969173252</v>
       </c>
       <c r="K41" t="n">
-        <v>265.7648031119423</v>
+        <v>265.7648031119422</v>
       </c>
       <c r="L41" t="n">
         <v>329.7047387918032</v>
@@ -34210,7 +34210,7 @@
         <v>38.48791904212884</v>
       </c>
       <c r="J42" t="n">
-        <v>105.6137916033755</v>
+        <v>105.6137916033754</v>
       </c>
       <c r="K42" t="n">
         <v>180.5107917673958</v>
